--- a/modelling/docs/train_png_tracker.xlsx
+++ b/modelling/docs/train_png_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Detect" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,42 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Courier New"/>
+            <family val="3"/>
+          </rPr>
+          <t>single-polarisation procesing
+=============================
+Red:   amplitude
+Green: sin(phase)
+Blue:  cos(phase)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Standard crops are 1 detection/crop (default) 
+Spatial crops means  &gt;= 1 detection/crop
+"imgsz" is YOLO input image parameter (default: 640).
+Actual input image size is 96 x 96 pixels unless otherwise noted.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O53" authorId="0" shapeId="0">
+    <comment ref="O56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0">
+    <comment ref="D69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0">
+    <comment ref="D89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="0" shapeId="0">
+    <comment ref="B93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,34 +157,6 @@
           </rPr>
           <t xml:space="preserve">
 Results identical to run 681433</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B103" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Kaya2
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G103" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">no pre-augmentation
-</t>
         </r>
       </text>
     </comment>
@@ -176,7 +183,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Pre-augmented
+          <t xml:space="preserve">no pre-augmentation
 </t>
         </r>
       </text>
@@ -195,7 +202,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="G109" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pre-augmented
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B112" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Kaya2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="223">
   <si>
     <t>all</t>
   </si>
@@ -3516,6 +3551,49 @@
   </si>
   <si>
     <t>hvrt/msc/gf</t>
+  </si>
+  <si>
+    <t>&lt;== POPULATE THIS!</t>
+  </si>
+  <si>
+    <t>train_png_no_aug_ext</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:1)</t>
+    </r>
+  </si>
+  <si>
+    <t>train_hvrt_msc_bal_new_ext</t>
+  </si>
+  <si>
+    <t>Balanced PNG dataset, pre-augmented (hvrt + mosaic) + in situ (hvrt + mosaic), epochs=100; optimiser=SGD  (explicit,  lr=0.01, momentum=0.9. weight_decay=0.0005. close_mosaic=0. epochs=85. Cos_lr=True, patience=20.</t>
+  </si>
+  <si>
+    <t>20250924_1934</t>
+  </si>
+  <si>
+    <t>(33064)</t>
   </si>
 </sst>
 </file>
@@ -3527,7 +3605,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3657,6 +3735,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4170,7 +4256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="419">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5132,9 +5218,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5144,120 +5344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5267,80 +5353,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5371,11 +5388,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5681,10 +5806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5692,7 +5817,7 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="7" customWidth="1"/>
@@ -5707,23 +5832,23 @@
     <col min="15" max="15" width="67" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="343" t="s">
+      <c r="E1" s="323" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="K1" s="348" t="s">
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="K1" s="329" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="350"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="331"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5770,7 +5895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5811,11 +5936,11 @@
       <c r="N3" s="236">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="O3" s="351" t="s">
+      <c r="O3" s="332" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="13"/>
       <c r="C4" s="60"/>
@@ -5844,9 +5969,9 @@
       <c r="N4" s="239">
         <v>0.105</v>
       </c>
-      <c r="O4" s="351"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="332"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="14"/>
       <c r="C5" s="61"/>
@@ -5875,9 +6000,9 @@
       <c r="N5" s="242">
         <v>1.29E-2</v>
       </c>
-      <c r="O5" s="351"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="332"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -5918,11 +6043,11 @@
       <c r="N6" s="236">
         <v>3.27E-2</v>
       </c>
-      <c r="O6" s="351" t="s">
+      <c r="O6" s="332" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
@@ -5955,9 +6080,9 @@
       <c r="N7" s="239">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="O7" s="351"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="332"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="61"/>
@@ -5986,9 +6111,9 @@
       <c r="N8" s="242">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="O8" s="351"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="332"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>8</v>
       </c>
@@ -5999,7 +6124,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="210" t="s">
         <v>147</v>
       </c>
       <c r="F9" s="27" t="s">
@@ -6029,11 +6154,11 @@
       <c r="N9" s="285">
         <v>0.189</v>
       </c>
-      <c r="O9" s="323" t="s">
+      <c r="O9" s="333" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="26"/>
       <c r="C10" s="62"/>
@@ -6062,9 +6187,9 @@
       <c r="N10" s="285">
         <v>0.28799999999999998</v>
       </c>
-      <c r="O10" s="323"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="333"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="30"/>
       <c r="C11" s="63"/>
@@ -6093,9 +6218,9 @@
       <c r="N11" s="289">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="O11" s="323"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="333"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -6136,11 +6261,11 @@
       <c r="N12" s="285">
         <v>0.184</v>
       </c>
-      <c r="O12" s="323" t="s">
+      <c r="O12" s="333" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="26"/>
       <c r="C13" s="62"/>
@@ -6169,9 +6294,9 @@
       <c r="N13" s="285">
         <v>0.27100000000000002</v>
       </c>
-      <c r="O13" s="323"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="333"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="30"/>
       <c r="C14" s="63"/>
@@ -6188,152 +6313,176 @@
       <c r="J14" s="49">
         <v>132</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="408">
         <v>0.33100000000000002</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="42">
         <v>0.29499999999999998</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="42">
         <v>0.248</v>
       </c>
-      <c r="N14" s="285">
+      <c r="N14" s="289">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="O14" s="323"/>
-    </row>
-    <row r="15" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="352" t="s">
+      <c r="O14" s="333"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="302" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="409" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="410">
+        <v>463</v>
+      </c>
+      <c r="J15" s="298">
+        <v>463</v>
+      </c>
+      <c r="K15" s="417">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L15" s="418">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M15" s="417">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N15" s="417">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="O15" s="365" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q15" s="407" t="s">
+        <v>216</v>
+      </c>
+      <c r="R15" s="407"/>
+      <c r="S15" s="407"/>
+      <c r="T15" s="407"/>
+      <c r="U15" s="407"/>
+      <c r="V15" s="407"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="302"/>
+      <c r="B16" s="301" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="404"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="305" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="411">
+        <v>331</v>
+      </c>
+      <c r="J16" s="305">
+        <v>331</v>
+      </c>
+      <c r="K16" s="413">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="L16" s="414">
+        <v>0.628</v>
+      </c>
+      <c r="M16" s="413">
+        <v>0.76</v>
+      </c>
+      <c r="N16" s="413">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="O16" s="366"/>
+      <c r="Q16" s="407"/>
+      <c r="R16" s="407"/>
+      <c r="S16" s="407"/>
+      <c r="T16" s="407"/>
+      <c r="U16" s="407"/>
+      <c r="V16" s="407"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="308"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="311" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="412">
+        <v>132</v>
+      </c>
+      <c r="J17" s="311">
+        <v>132</v>
+      </c>
+      <c r="K17" s="415">
+        <v>0.376</v>
+      </c>
+      <c r="L17" s="416">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M17" s="415">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="N17" s="415">
+        <v>0.186</v>
+      </c>
+      <c r="O17" s="367"/>
+      <c r="Q17" s="407"/>
+      <c r="R17" s="407"/>
+      <c r="S17" s="407"/>
+      <c r="T17" s="407"/>
+      <c r="U17" s="407"/>
+      <c r="V17" s="407"/>
+    </row>
+    <row r="18" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="334" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="353"/>
-      <c r="C15" s="353"/>
-      <c r="D15" s="353"/>
-      <c r="E15" s="353"/>
-      <c r="F15" s="353"/>
-      <c r="G15" s="353"/>
-      <c r="H15" s="353"/>
-      <c r="I15" s="353"/>
-      <c r="J15" s="353"/>
-      <c r="K15" s="353"/>
-      <c r="L15" s="353"/>
-      <c r="M15" s="353"/>
-      <c r="N15" s="353"/>
-      <c r="O15" s="353"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="B18" s="335"/>
+      <c r="C18" s="335"/>
+      <c r="D18" s="335"/>
+      <c r="E18" s="335"/>
+      <c r="F18" s="335"/>
+      <c r="G18" s="335"/>
+      <c r="H18" s="335"/>
+      <c r="I18" s="335"/>
+      <c r="J18" s="335"/>
+      <c r="K18" s="335"/>
+      <c r="L18" s="335"/>
+      <c r="M18" s="335"/>
+      <c r="N18" s="335"/>
+      <c r="O18" s="335"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B19" s="50" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="210" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="78">
-        <v>463</v>
-      </c>
-      <c r="J16" s="45">
-        <v>463</v>
-      </c>
-      <c r="K16" s="271">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="L16" s="272">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="M16" s="272">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="N16" s="273">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="O16" s="323" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="79">
-        <v>331</v>
-      </c>
-      <c r="J17" s="47">
-        <v>331</v>
-      </c>
-      <c r="K17" s="274">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="L17" s="275">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="M17" s="275">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="N17" s="276">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="O17" s="323"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="80">
-        <v>132</v>
-      </c>
-      <c r="J18" s="49">
-        <v>132</v>
-      </c>
-      <c r="K18" s="277">
-        <v>0.375</v>
-      </c>
-      <c r="L18" s="278">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="M18" s="278">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="N18" s="279">
-        <v>0.151</v>
-      </c>
-      <c r="O18" s="323"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>31</v>
       </c>
       <c r="C19" s="66" t="s">
         <v>35</v>
@@ -6342,118 +6491,118 @@
       <c r="E19" s="210" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="78">
         <v>463</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="45">
         <v>463</v>
       </c>
-      <c r="K19" s="253">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L19" s="235">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="M19" s="253">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N19" s="236">
-        <v>0.27</v>
-      </c>
-      <c r="O19" s="323" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="4" t="s">
+      <c r="K19" s="271">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="L19" s="272">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="M19" s="272">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="N19" s="273">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="O19" s="333" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="79">
         <v>331</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="47">
         <v>331</v>
       </c>
-      <c r="K20" s="254">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="L20" s="238">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="M20" s="254">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="N20" s="239">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="O20" s="323"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="5" t="s">
+      <c r="K20" s="274">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="L20" s="275">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="M20" s="275">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="N20" s="276">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="O20" s="333"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="80">
         <v>132</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="49">
         <v>132</v>
       </c>
-      <c r="K21" s="255">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="L21" s="241">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="M21" s="255">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="N21" s="242">
-        <v>0.159</v>
-      </c>
-      <c r="O21" s="323"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K21" s="277">
+        <v>0.375</v>
+      </c>
+      <c r="L21" s="278">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="M21" s="278">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="N21" s="279">
+        <v>0.151</v>
+      </c>
+      <c r="O21" s="333"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D22" s="50"/>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="210" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>19</v>
+      <c r="G22" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>0</v>
@@ -6464,23 +6613,23 @@
       <c r="J22" s="3">
         <v>463</v>
       </c>
-      <c r="K22" s="280">
-        <v>0.35499999999999998</v>
+      <c r="K22" s="253">
+        <v>0.47599999999999998</v>
       </c>
       <c r="L22" s="235">
-        <v>0.42</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="M22" s="253">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N22" s="236">
-        <v>0.152</v>
-      </c>
-      <c r="O22" s="323" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+      <c r="O22" s="333" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="13"/>
       <c r="C23" s="60"/>
@@ -6497,21 +6646,21 @@
       <c r="J23" s="4">
         <v>331</v>
       </c>
-      <c r="K23" s="281">
-        <v>0.46</v>
+      <c r="K23" s="254">
+        <v>0.60399999999999998</v>
       </c>
       <c r="L23" s="238">
-        <v>0.58299999999999996</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="M23" s="254">
-        <v>0.56000000000000005</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="N23" s="239">
-        <v>0.224</v>
-      </c>
-      <c r="O23" s="323"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="O23" s="333"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="14"/>
       <c r="C24" s="61"/>
@@ -6528,148 +6677,148 @@
       <c r="J24" s="5">
         <v>132</v>
       </c>
-      <c r="K24" s="282">
+      <c r="K24" s="255">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="L24" s="241">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="M24" s="255">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="N24" s="242">
+        <v>0.159</v>
+      </c>
+      <c r="O24" s="333"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="24">
+        <v>463</v>
+      </c>
+      <c r="J25" s="3">
+        <v>463</v>
+      </c>
+      <c r="K25" s="280">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L25" s="235">
+        <v>0.42</v>
+      </c>
+      <c r="M25" s="253">
+        <v>0.38</v>
+      </c>
+      <c r="N25" s="236">
+        <v>0.152</v>
+      </c>
+      <c r="O25" s="333" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="22">
+        <v>331</v>
+      </c>
+      <c r="J26" s="4">
+        <v>331</v>
+      </c>
+      <c r="K26" s="281">
+        <v>0.46</v>
+      </c>
+      <c r="L26" s="238">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="M26" s="254">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N26" s="239">
+        <v>0.224</v>
+      </c>
+      <c r="O26" s="333"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>132</v>
+      </c>
+      <c r="J27" s="5">
+        <v>132</v>
+      </c>
+      <c r="K27" s="282">
         <v>0.249</v>
       </c>
-      <c r="L24" s="241">
+      <c r="L27" s="241">
         <v>0.25800000000000001</v>
       </c>
-      <c r="M24" s="255">
+      <c r="M27" s="255">
         <v>0.20100000000000001</v>
       </c>
-      <c r="N24" s="242">
+      <c r="N27" s="242">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="O24" s="323"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="O27" s="333"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="78">
-        <v>463</v>
-      </c>
-      <c r="J25" s="77">
-        <v>463</v>
-      </c>
-      <c r="K25" s="272">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="L25" s="283">
-        <v>0.627</v>
-      </c>
-      <c r="M25" s="272">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="N25" s="273">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="O25" s="324" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="79">
-        <v>331</v>
-      </c>
-      <c r="J26" s="28">
-        <v>331</v>
-      </c>
-      <c r="K26" s="257">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="L26" s="284">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="M26" s="257">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="N26" s="285">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="O26" s="325"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="80">
-        <v>132</v>
-      </c>
-      <c r="J27" s="32">
-        <v>132</v>
-      </c>
-      <c r="K27" s="278">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="L27" s="286">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="M27" s="278">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="N27" s="279">
-        <v>0.191</v>
-      </c>
-      <c r="O27" s="326"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>22</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="50"/>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="77" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="78">
@@ -6679,32 +6828,30 @@
         <v>463</v>
       </c>
       <c r="K28" s="272">
-        <v>0.52600000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="L28" s="283">
-        <v>0.60199999999999998</v>
+        <v>0.627</v>
       </c>
       <c r="M28" s="272">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="N28" s="287">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="O28" s="324" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N28" s="273">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="O28" s="362" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="B29" s="26"/>
       <c r="C29" s="62"/>
       <c r="D29" s="26"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="205" t="s">
+      <c r="H29" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="79">
@@ -6714,28 +6861,28 @@
         <v>331</v>
       </c>
       <c r="K29" s="257">
-        <v>0.68500000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="L29" s="284">
-        <v>0.628</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="M29" s="257">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="N29" s="287">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="O29" s="325"/>
-    </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="206" t="s">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="N29" s="285">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O29" s="363"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32" t="s">
         <v>2</v>
       </c>
       <c r="I30" s="80">
@@ -6745,459 +6892,461 @@
         <v>132</v>
       </c>
       <c r="K30" s="278">
-        <v>0.36599999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="L30" s="286">
-        <v>0.57599999999999996</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="M30" s="278">
-        <v>0.35</v>
-      </c>
-      <c r="N30" s="287">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="O30" s="326"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="N30" s="279">
+        <v>0.191</v>
+      </c>
+      <c r="O30" s="364"/>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="50"/>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="77" t="s">
+      <c r="H31" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="81">
+      <c r="I31" s="78">
         <v>463</v>
       </c>
-      <c r="J31" s="82">
+      <c r="J31" s="77">
         <v>463</v>
       </c>
-      <c r="K31" s="283">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L31" s="272">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="M31" s="283">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="N31" s="272">
+      <c r="K31" s="272">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="L31" s="283">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="M31" s="272">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="N31" s="287">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O31" s="324" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="362" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
       <c r="B32" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="62"/>
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="83">
+      <c r="I32" s="79">
         <v>331</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="28">
         <v>331</v>
       </c>
-      <c r="K32" s="284">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="L32" s="257">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="M32" s="284">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="N32" s="257">
+      <c r="K32" s="257">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L32" s="284">
+        <v>0.628</v>
+      </c>
+      <c r="M32" s="257">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N32" s="287">
         <v>0.33500000000000002</v>
       </c>
-      <c r="O32" s="325"/>
-    </row>
-    <row r="33" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32" t="s">
+      <c r="O32" s="363"/>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="85">
+      <c r="I33" s="80">
         <v>132</v>
       </c>
-      <c r="J33" s="86">
+      <c r="J33" s="32">
         <v>132</v>
       </c>
-      <c r="K33" s="286">
-        <v>0.373</v>
-      </c>
-      <c r="L33" s="278">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="M33" s="286">
-        <v>0.372</v>
-      </c>
-      <c r="N33" s="278">
+      <c r="K33" s="278">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="L33" s="286">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="M33" s="278">
+        <v>0.35</v>
+      </c>
+      <c r="N33" s="287">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O33" s="326"/>
+      <c r="O33" s="364"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="290" t="s">
-        <v>206</v>
+      <c r="A34" s="76" t="s">
+        <v>8</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="H34" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="81">
         <v>463</v>
       </c>
-      <c r="J34" s="56">
+      <c r="J34" s="82">
         <v>463</v>
       </c>
-      <c r="K34" s="253">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L34" s="253">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="M34" s="253">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="N34" s="253">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="O34" s="327" t="s">
-        <v>43</v>
+      <c r="K34" s="283">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L34" s="272">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="M34" s="283">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="N34" s="272">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="O34" s="362" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="83">
         <v>331</v>
       </c>
-      <c r="J35" s="57">
+      <c r="J35" s="84">
         <v>331</v>
       </c>
-      <c r="K35" s="254">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="L35" s="254">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="M35" s="254">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="N35" s="254">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="O35" s="327"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K35" s="284">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="L35" s="257">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="M35" s="284">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="N35" s="257">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O35" s="363"/>
+    </row>
+    <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="58" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I36" s="58">
+      <c r="I36" s="85">
         <v>132</v>
       </c>
-      <c r="J36" s="58">
+      <c r="J36" s="86">
         <v>132</v>
       </c>
-      <c r="K36" s="255">
+      <c r="K36" s="286">
+        <v>0.373</v>
+      </c>
+      <c r="L36" s="278">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="M36" s="286">
+        <v>0.372</v>
+      </c>
+      <c r="N36" s="278">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="O36" s="364"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="290" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="56">
+        <v>463</v>
+      </c>
+      <c r="J37" s="56">
+        <v>463</v>
+      </c>
+      <c r="K37" s="253">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L37" s="253">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="M37" s="253">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="N37" s="253">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="O37" s="326" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="57">
+        <v>331</v>
+      </c>
+      <c r="J38" s="57">
+        <v>331</v>
+      </c>
+      <c r="K38" s="254">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="L38" s="254">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="M38" s="254">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="N38" s="254">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="O38" s="326"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="58">
+        <v>132</v>
+      </c>
+      <c r="J39" s="58">
+        <v>132</v>
+      </c>
+      <c r="K39" s="255">
         <v>0.38500000000000001</v>
       </c>
-      <c r="L36" s="255">
+      <c r="L39" s="255">
         <v>0.622</v>
       </c>
-      <c r="M36" s="255">
+      <c r="M39" s="255">
         <v>0.39200000000000002</v>
       </c>
-      <c r="N36" s="255">
+      <c r="N39" s="255">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O36" s="327"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="O39" s="326"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B40" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C40" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="87">
-        <v>463</v>
-      </c>
-      <c r="J37" s="87">
-        <v>463</v>
-      </c>
-      <c r="K37" s="272">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="L37" s="272">
-        <v>0.61</v>
-      </c>
-      <c r="M37" s="272">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="N37" s="272">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="O37" s="327" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="88">
-        <v>331</v>
-      </c>
-      <c r="J38" s="88">
-        <v>331</v>
-      </c>
-      <c r="K38" s="275">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="L38" s="275">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="M38" s="275">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="N38" s="275">
-        <v>0.378</v>
-      </c>
-      <c r="O38" s="327"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="89">
-        <v>132</v>
-      </c>
-      <c r="J39" s="89">
-        <v>132</v>
-      </c>
-      <c r="K39" s="278">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="L39" s="278">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="M39" s="278">
-        <v>0.45</v>
-      </c>
-      <c r="N39" s="278">
-        <v>0.192</v>
-      </c>
-      <c r="O39" s="327"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="67" t="s">
         <v>148</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="56" t="s">
+      <c r="G40" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I40" s="87">
         <v>463</v>
       </c>
-      <c r="J40" s="56">
+      <c r="J40" s="87">
         <v>463</v>
       </c>
-      <c r="K40" s="288">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="L40" s="235">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="M40" s="235">
-        <v>0.626</v>
-      </c>
-      <c r="N40" s="236">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="O40" s="327" t="s">
-        <v>55</v>
+      <c r="K40" s="272">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="L40" s="272">
+        <v>0.61</v>
+      </c>
+      <c r="M40" s="272">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="N40" s="272">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="O40" s="326" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="57" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="88">
         <v>331</v>
       </c>
-      <c r="J41" s="57">
+      <c r="J41" s="88">
         <v>331</v>
       </c>
-      <c r="K41" s="237">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="L41" s="238">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="M41" s="238">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="N41" s="239">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="O41" s="327"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="58" t="s">
+      <c r="K41" s="275">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L41" s="275">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="M41" s="275">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="N41" s="275">
+        <v>0.378</v>
+      </c>
+      <c r="O41" s="326"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="89">
         <v>132</v>
       </c>
-      <c r="J42" s="58">
+      <c r="J42" s="89">
         <v>132</v>
       </c>
-      <c r="K42" s="240">
-        <v>0.438</v>
-      </c>
-      <c r="L42" s="241">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="M42" s="241">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="N42" s="242">
-        <v>0.183</v>
-      </c>
-      <c r="O42" s="327"/>
+      <c r="K42" s="278">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="L42" s="278">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M42" s="278">
+        <v>0.45</v>
+      </c>
+      <c r="N42" s="278">
+        <v>0.192</v>
+      </c>
+      <c r="O42" s="326"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>35</v>
@@ -7209,8 +7358,8 @@
       <c r="F43" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G43" s="75" t="s">
-        <v>58</v>
+      <c r="G43" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="H43" s="56" t="s">
         <v>0</v>
@@ -7221,30 +7370,30 @@
       <c r="J43" s="56">
         <v>463</v>
       </c>
-      <c r="K43" s="253">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="L43" s="253">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="M43" s="253">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="N43" s="253">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="O43" s="324" t="s">
-        <v>54</v>
+      <c r="K43" s="288">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="L43" s="235">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="M43" s="235">
+        <v>0.626</v>
+      </c>
+      <c r="N43" s="236">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="O43" s="326" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
-      <c r="B44" s="13"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="13"/>
       <c r="D44" s="90"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="22"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="57" t="s">
         <v>1</v>
       </c>
@@ -7254,19 +7403,19 @@
       <c r="J44" s="57">
         <v>331</v>
       </c>
-      <c r="K44" s="254">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="L44" s="254">
-        <v>0.623</v>
-      </c>
-      <c r="M44" s="254">
-        <v>0.747</v>
-      </c>
-      <c r="N44" s="254">
-        <v>0.38</v>
-      </c>
-      <c r="O44" s="325"/>
+      <c r="K44" s="237">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="L44" s="238">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="M44" s="238">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="N44" s="239">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="O44" s="326"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
@@ -7275,7 +7424,7 @@
       <c r="D45" s="91"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="58" t="s">
         <v>2</v>
       </c>
@@ -7285,498 +7434,494 @@
       <c r="J45" s="58">
         <v>132</v>
       </c>
-      <c r="K45" s="264">
+      <c r="K45" s="240">
+        <v>0.438</v>
+      </c>
+      <c r="L45" s="241">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="M45" s="241">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="N45" s="242">
+        <v>0.183</v>
+      </c>
+      <c r="O45" s="326"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="56">
+        <v>463</v>
+      </c>
+      <c r="J46" s="56">
+        <v>463</v>
+      </c>
+      <c r="K46" s="253">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L46" s="253">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M46" s="253">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N46" s="253">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="O46" s="362" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="57">
+        <v>331</v>
+      </c>
+      <c r="J47" s="57">
+        <v>331</v>
+      </c>
+      <c r="K47" s="254">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L47" s="254">
+        <v>0.623</v>
+      </c>
+      <c r="M47" s="254">
+        <v>0.747</v>
+      </c>
+      <c r="N47" s="254">
+        <v>0.38</v>
+      </c>
+      <c r="O47" s="363"/>
+    </row>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="58">
+        <v>132</v>
+      </c>
+      <c r="J48" s="58">
+        <v>132</v>
+      </c>
+      <c r="K48" s="264">
         <v>0.433</v>
       </c>
-      <c r="L45" s="264">
+      <c r="L48" s="264">
         <v>0.61199999999999999</v>
       </c>
-      <c r="M45" s="264">
+      <c r="M48" s="264">
         <v>0.46400000000000002</v>
       </c>
-      <c r="N45" s="264">
+      <c r="N48" s="264">
         <v>0.19500000000000001</v>
       </c>
-      <c r="O45" s="326"/>
-    </row>
-    <row r="46" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="352" t="s">
+      <c r="O48" s="364"/>
+    </row>
+    <row r="49" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="334" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="353"/>
-      <c r="C46" s="353"/>
-      <c r="D46" s="353"/>
-      <c r="E46" s="353"/>
-      <c r="F46" s="353"/>
-      <c r="G46" s="353"/>
-      <c r="H46" s="353"/>
-      <c r="I46" s="353"/>
-      <c r="J46" s="353"/>
-      <c r="K46" s="353"/>
-      <c r="L46" s="353"/>
-      <c r="M46" s="353"/>
-      <c r="N46" s="353"/>
-      <c r="O46" s="353"/>
-    </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="211" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="98">
-        <v>463</v>
-      </c>
-      <c r="J47" s="3">
-        <v>463</v>
-      </c>
-      <c r="K47" s="235">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="L47" s="235">
-        <v>0.64</v>
-      </c>
-      <c r="M47" s="235">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="N47" s="236">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="O47" s="359" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="99">
-        <v>331</v>
-      </c>
-      <c r="J48" s="4">
-        <v>331</v>
-      </c>
-      <c r="K48" s="238">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="L48" s="238">
-        <v>0.749</v>
-      </c>
-      <c r="M48" s="238">
-        <v>0.753</v>
-      </c>
-      <c r="N48" s="239">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="O48" s="360"/>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="96"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I49" s="100">
-        <v>132</v>
-      </c>
-      <c r="J49" s="5">
-        <v>132</v>
-      </c>
-      <c r="K49" s="241">
-        <v>0.435</v>
-      </c>
-      <c r="L49" s="241">
-        <v>0.53</v>
-      </c>
-      <c r="M49" s="241">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N49" s="242">
-        <v>0.19</v>
-      </c>
-      <c r="O49" s="361"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="335"/>
+      <c r="C49" s="335"/>
+      <c r="D49" s="335"/>
+      <c r="E49" s="335"/>
+      <c r="F49" s="335"/>
+      <c r="G49" s="335"/>
+      <c r="H49" s="335"/>
+      <c r="I49" s="335"/>
+      <c r="J49" s="335"/>
+      <c r="K49" s="335"/>
+      <c r="L49" s="335"/>
+      <c r="M49" s="335"/>
+      <c r="N49" s="335"/>
+      <c r="O49" s="335"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="19" t="s">
+      <c r="B50" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="211" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G50" s="19" t="s">
-        <v>137</v>
+      <c r="G50" s="93" t="s">
+        <v>18</v>
       </c>
       <c r="H50" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I50" s="56">
+      <c r="I50" s="98">
         <v>463</v>
       </c>
-      <c r="J50" s="56">
+      <c r="J50" s="3">
         <v>463</v>
       </c>
-      <c r="K50" s="262">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="L50" s="262">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="M50" s="262">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="N50" s="263">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="O50" s="320" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="73"/>
+      <c r="K50" s="235">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="L50" s="235">
+        <v>0.64</v>
+      </c>
+      <c r="M50" s="235">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="N50" s="236">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="O50" s="343" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
       <c r="H51" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="57">
+      <c r="I51" s="99">
         <v>331</v>
       </c>
-      <c r="J51" s="57">
+      <c r="J51" s="4">
         <v>331</v>
       </c>
-      <c r="K51" s="254">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="L51" s="254">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="M51" s="254">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="N51" s="254">
-        <v>0.378</v>
-      </c>
-      <c r="O51" s="354"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="74"/>
+      <c r="K51" s="238">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L51" s="238">
+        <v>0.749</v>
+      </c>
+      <c r="M51" s="238">
+        <v>0.753</v>
+      </c>
+      <c r="N51" s="239">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="O51" s="344"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="96"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
       <c r="H52" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="58">
+      <c r="I52" s="100">
         <v>132</v>
       </c>
-      <c r="J52" s="58">
+      <c r="J52" s="5">
         <v>132</v>
       </c>
-      <c r="K52" s="264">
+      <c r="K52" s="241">
+        <v>0.435</v>
+      </c>
+      <c r="L52" s="241">
+        <v>0.53</v>
+      </c>
+      <c r="M52" s="241">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="N52" s="242">
+        <v>0.19</v>
+      </c>
+      <c r="O52" s="345"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="56">
+        <v>463</v>
+      </c>
+      <c r="J53" s="56">
+        <v>463</v>
+      </c>
+      <c r="K53" s="262">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="L53" s="262">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="M53" s="262">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="N53" s="263">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="O53" s="320" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="57">
+        <v>331</v>
+      </c>
+      <c r="J54" s="57">
+        <v>331</v>
+      </c>
+      <c r="K54" s="254">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L54" s="254">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="M54" s="254">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="N54" s="254">
+        <v>0.378</v>
+      </c>
+      <c r="O54" s="338"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="58">
+        <v>132</v>
+      </c>
+      <c r="J55" s="58">
+        <v>132</v>
+      </c>
+      <c r="K55" s="264">
         <v>0.41799999999999998</v>
       </c>
-      <c r="L52" s="264">
+      <c r="L55" s="264">
         <v>0.59099999999999997</v>
       </c>
-      <c r="M52" s="264">
+      <c r="M55" s="264">
         <v>0.42199999999999999</v>
       </c>
-      <c r="N52" s="264">
+      <c r="N55" s="264">
         <v>0.16900000000000001</v>
       </c>
-      <c r="O52" s="355"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="101" t="s">
+      <c r="O55" s="339"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B56" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="102" t="s">
+      <c r="C56" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="102" t="s">
+      <c r="D56" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="101" t="s">
+      <c r="E56" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="101" t="s">
+      <c r="F56" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="G53" s="101" t="s">
+      <c r="G56" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="H53" s="103" t="s">
+      <c r="H56" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="103">
+      <c r="I56" s="103">
         <v>463</v>
       </c>
-      <c r="J53" s="103">
+      <c r="J56" s="103">
         <v>463</v>
       </c>
-      <c r="K53" s="265">
+      <c r="K56" s="265">
         <v>0.626</v>
       </c>
-      <c r="L53" s="265">
+      <c r="L56" s="265">
         <v>0.64800000000000002</v>
       </c>
-      <c r="M53" s="265">
+      <c r="M56" s="265">
         <v>0.63500000000000001</v>
       </c>
-      <c r="N53" s="265">
+      <c r="N56" s="265">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O53" s="356" t="s">
+      <c r="O56" s="340" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="104"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="107" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="104"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I54" s="107">
+      <c r="I57" s="107">
         <v>331</v>
       </c>
-      <c r="J54" s="107">
+      <c r="J57" s="107">
         <v>331</v>
       </c>
-      <c r="K54" s="266">
+      <c r="K57" s="266">
         <v>0.752</v>
       </c>
-      <c r="L54" s="266">
+      <c r="L57" s="266">
         <v>0.68300000000000005</v>
       </c>
-      <c r="M54" s="266">
+      <c r="M57" s="266">
         <v>0.78800000000000003</v>
       </c>
-      <c r="N54" s="266">
+      <c r="N57" s="266">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O54" s="357"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="111" t="s">
+      <c r="O57" s="341"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="108"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="111">
+      <c r="I58" s="111">
         <v>132</v>
       </c>
-      <c r="J55" s="111">
+      <c r="J58" s="111">
         <v>132</v>
       </c>
-      <c r="K55" s="267">
+      <c r="K58" s="267">
         <v>0.5</v>
       </c>
-      <c r="L55" s="267">
+      <c r="L58" s="267">
         <v>0.61199999999999999</v>
       </c>
-      <c r="M55" s="267">
+      <c r="M58" s="267">
         <v>0.48099999999999998</v>
       </c>
-      <c r="N55" s="267">
+      <c r="N58" s="267">
         <v>0.19700000000000001</v>
       </c>
-      <c r="O55" s="358"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="344" t="s">
-        <v>215</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="I56" s="56">
-        <v>463</v>
-      </c>
-      <c r="J56" s="56">
-        <v>463</v>
-      </c>
-      <c r="K56" s="253">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="L56" s="253">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="M56" s="253">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="N56" s="253">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="O56" s="362" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="345"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I57" s="57">
-        <v>331</v>
-      </c>
-      <c r="J57" s="57">
-        <v>331</v>
-      </c>
-      <c r="K57" s="254">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="L57" s="254">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="M57" s="254">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="N57" s="254">
-        <v>0.378</v>
-      </c>
-      <c r="O57" s="363"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" s="58">
-        <v>132</v>
-      </c>
-      <c r="J58" s="58">
-        <v>132</v>
-      </c>
-      <c r="K58" s="255">
-        <v>0.442</v>
-      </c>
-      <c r="L58" s="255">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="M58" s="255">
-        <v>0.433</v>
-      </c>
-      <c r="N58" s="255">
-        <v>0.18</v>
-      </c>
-      <c r="O58" s="364"/>
+      <c r="O58" s="342"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="E59" s="324" t="s">
+        <v>215</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H59" s="56" t="s">
         <v>0</v>
@@ -7788,29 +7933,29 @@
         <v>463</v>
       </c>
       <c r="K59" s="253">
-        <v>0.55100000000000005</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="L59" s="253">
-        <v>0.61899999999999999</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="M59" s="253">
-        <v>0.58099999999999996</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="N59" s="253">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="O59" s="331" t="s">
-        <v>69</v>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="O59" s="346" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="90"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="325"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="57" t="s">
@@ -7823,18 +7968,18 @@
         <v>331</v>
       </c>
       <c r="K60" s="254">
-        <v>0.69599999999999995</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="L60" s="254">
-        <v>0.65</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="M60" s="254">
-        <v>0.747</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="N60" s="254">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="O60" s="332"/>
+        <v>0.378</v>
+      </c>
+      <c r="O60" s="347"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
@@ -7854,25 +7999,25 @@
         <v>132</v>
       </c>
       <c r="K61" s="255">
-        <v>0.40600000000000003</v>
+        <v>0.442</v>
       </c>
       <c r="L61" s="255">
-        <v>0.58899999999999997</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="M61" s="255">
-        <v>0.41599999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="N61" s="255">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="O61" s="332"/>
+        <v>0.18</v>
+      </c>
+      <c r="O61" s="348"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>57</v>
@@ -7892,34 +8037,34 @@
       <c r="H62" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I62" s="112">
+      <c r="I62" s="56">
         <v>463</v>
       </c>
-      <c r="J62" s="112">
+      <c r="J62" s="56">
         <v>463</v>
       </c>
-      <c r="K62" s="268">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="L62" s="268">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="M62" s="268">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="N62" s="268">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="O62" s="331" t="s">
-        <v>76</v>
+      <c r="K62" s="253">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L62" s="253">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M62" s="253">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="N62" s="253">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="O62" s="336" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="90"/>
+        <v>68</v>
+      </c>
+      <c r="C63" s="13"/>
       <c r="D63" s="90"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -7927,32 +8072,30 @@
       <c r="H63" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="113">
+      <c r="I63" s="57">
         <v>331</v>
       </c>
-      <c r="J63" s="113">
+      <c r="J63" s="57">
         <v>331</v>
       </c>
-      <c r="K63" s="269">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="L63" s="269">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="M63" s="269">
-        <v>0.76</v>
-      </c>
-      <c r="N63" s="269">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="O63" s="332"/>
+      <c r="K63" s="254">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="L63" s="254">
+        <v>0.65</v>
+      </c>
+      <c r="M63" s="254">
+        <v>0.747</v>
+      </c>
+      <c r="N63" s="254">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O63" s="337"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="91"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="91"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
@@ -7960,162 +8103,164 @@
       <c r="H64" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I64" s="114">
+      <c r="I64" s="58">
         <v>132</v>
       </c>
-      <c r="J64" s="114">
+      <c r="J64" s="58">
         <v>132</v>
       </c>
-      <c r="K64" s="270">
+      <c r="K64" s="255">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="L64" s="255">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M64" s="255">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="N64" s="255">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O64" s="337"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="112">
+        <v>463</v>
+      </c>
+      <c r="J65" s="112">
+        <v>463</v>
+      </c>
+      <c r="K65" s="268">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L65" s="268">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="M65" s="268">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="N65" s="268">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="O65" s="336" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="113">
+        <v>331</v>
+      </c>
+      <c r="J66" s="113">
+        <v>331</v>
+      </c>
+      <c r="K66" s="269">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="L66" s="269">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="M66" s="269">
+        <v>0.76</v>
+      </c>
+      <c r="N66" s="269">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="O66" s="337"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="114">
+        <v>132</v>
+      </c>
+      <c r="J67" s="114">
+        <v>132</v>
+      </c>
+      <c r="K67" s="270">
         <v>0.41899999999999998</v>
       </c>
-      <c r="L64" s="270">
+      <c r="L67" s="270">
         <v>0.51800000000000002</v>
       </c>
-      <c r="M64" s="270">
+      <c r="M67" s="270">
         <v>0.439</v>
       </c>
-      <c r="N64" s="270">
+      <c r="N67" s="270">
         <v>0.185</v>
       </c>
-      <c r="O64" s="332"/>
-    </row>
-    <row r="65" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="333" t="s">
+      <c r="O67" s="337"/>
+    </row>
+    <row r="68" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="352" t="s">
         <v>171</v>
       </c>
-      <c r="B65" s="334"/>
-      <c r="C65" s="334"/>
-      <c r="D65" s="334"/>
-      <c r="E65" s="334"/>
-      <c r="F65" s="334"/>
-      <c r="G65" s="334"/>
-      <c r="H65" s="334"/>
-      <c r="I65" s="334"/>
-      <c r="J65" s="334"/>
-      <c r="K65" s="334"/>
-      <c r="L65" s="334"/>
-      <c r="M65" s="334"/>
-      <c r="N65" s="334"/>
-      <c r="O65" s="335"/>
-    </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="F66" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="I66" s="119">
-        <v>374</v>
-      </c>
-      <c r="J66" s="119">
-        <v>484</v>
-      </c>
-      <c r="K66" s="259">
-        <v>0.45</v>
-      </c>
-      <c r="L66" s="259">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="M66" s="259">
-        <v>0.33</v>
-      </c>
-      <c r="N66" s="259">
-        <v>0.126</v>
-      </c>
-      <c r="O66" s="338" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="120"/>
-      <c r="B67" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="122"/>
-      <c r="D67" s="122"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="I67" s="123">
-        <v>269</v>
-      </c>
-      <c r="J67" s="123">
-        <v>347</v>
-      </c>
-      <c r="K67" s="260">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="L67" s="260">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="M67" s="260">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="N67" s="260">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="O67" s="339"/>
-    </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="124"/>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="I68" s="126">
-        <v>117</v>
-      </c>
-      <c r="J68" s="126">
-        <v>137</v>
-      </c>
-      <c r="K68" s="261">
-        <v>0.246</v>
-      </c>
-      <c r="L68" s="261">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="M68" s="261">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="N68" s="261">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="O68" s="339"/>
+      <c r="B68" s="353"/>
+      <c r="C68" s="353"/>
+      <c r="D68" s="353"/>
+      <c r="E68" s="353"/>
+      <c r="F68" s="353"/>
+      <c r="G68" s="353"/>
+      <c r="H68" s="353"/>
+      <c r="I68" s="353"/>
+      <c r="J68" s="353"/>
+      <c r="K68" s="353"/>
+      <c r="L68" s="353"/>
+      <c r="M68" s="353"/>
+      <c r="N68" s="353"/>
+      <c r="O68" s="354"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C69" s="117" t="s">
         <v>81</v>
@@ -8124,7 +8269,7 @@
         <v>86</v>
       </c>
       <c r="E69" s="116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F69" s="116" t="s">
         <v>149</v>
@@ -8132,40 +8277,38 @@
       <c r="G69" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="H69" s="123" t="s">
+      <c r="H69" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="123">
+      <c r="I69" s="119">
         <v>374</v>
       </c>
-      <c r="J69" s="123">
+      <c r="J69" s="119">
         <v>484</v>
       </c>
-      <c r="K69" s="260">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="L69" s="260">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="M69" s="260">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="N69" s="260">
-        <v>0.112</v>
-      </c>
-      <c r="O69" s="338" t="s">
-        <v>178</v>
+      <c r="K69" s="259">
+        <v>0.45</v>
+      </c>
+      <c r="L69" s="259">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="M69" s="259">
+        <v>0.33</v>
+      </c>
+      <c r="N69" s="259">
+        <v>0.126</v>
+      </c>
+      <c r="O69" s="357" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="120"/>
       <c r="B70" s="121" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C70" s="122"/>
-      <c r="D70" s="122" t="s">
-        <v>93</v>
-      </c>
+      <c r="D70" s="122"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
       <c r="G70" s="120"/>
@@ -8179,18 +8322,18 @@
         <v>347</v>
       </c>
       <c r="K70" s="260">
-        <v>0.60399999999999998</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="L70" s="260">
-        <v>0.36</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="M70" s="260">
-        <v>0.46400000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="N70" s="260">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O70" s="339"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="O70" s="358"/>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="124"/>
@@ -8200,83 +8343,85 @@
       <c r="E71" s="124"/>
       <c r="F71" s="124"/>
       <c r="G71" s="124"/>
-      <c r="H71" s="123" t="s">
+      <c r="H71" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="I71" s="123">
+      <c r="I71" s="126">
         <v>117</v>
       </c>
-      <c r="J71" s="123">
+      <c r="J71" s="126">
         <v>137</v>
       </c>
-      <c r="K71" s="260">
-        <v>0.111</v>
-      </c>
-      <c r="L71" s="260">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="M71" s="260">
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="N71" s="260">
-        <v>2.69E-2</v>
-      </c>
-      <c r="O71" s="339"/>
+      <c r="K71" s="261">
+        <v>0.246</v>
+      </c>
+      <c r="L71" s="261">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="M71" s="261">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N71" s="261">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="O71" s="358"/>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="116" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" s="118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E72" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F72" s="116" t="s">
         <v>149</v>
       </c>
       <c r="G72" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="I72" s="119">
-        <v>464</v>
-      </c>
-      <c r="J72" s="119">
-        <v>464</v>
-      </c>
-      <c r="K72" s="259">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="L72" s="259">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="M72" s="259">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="N72" s="259">
-        <v>0.107</v>
-      </c>
-      <c r="O72" s="338" t="s">
-        <v>181</v>
+      <c r="I72" s="123">
+        <v>374</v>
+      </c>
+      <c r="J72" s="123">
+        <v>484</v>
+      </c>
+      <c r="K72" s="260">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L72" s="260">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M72" s="260">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="N72" s="260">
+        <v>0.112</v>
+      </c>
+      <c r="O72" s="357" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="120"/>
       <c r="B73" s="121" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C73" s="122"/>
-      <c r="D73" s="122"/>
+      <c r="D73" s="122" t="s">
+        <v>93</v>
+      </c>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
       <c r="G73" s="120"/>
@@ -8284,24 +8429,24 @@
         <v>1</v>
       </c>
       <c r="I73" s="123">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="J73" s="123">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="K73" s="260">
-        <v>0.52600000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="L73" s="260">
-        <v>0.41199999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="M73" s="260">
-        <v>0.436</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="N73" s="260">
-        <v>0.189</v>
-      </c>
-      <c r="O73" s="339"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O73" s="358"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="124"/>
@@ -8311,44 +8456,44 @@
       <c r="E74" s="124"/>
       <c r="F74" s="124"/>
       <c r="G74" s="124"/>
-      <c r="H74" s="126" t="s">
+      <c r="H74" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="I74" s="126">
-        <v>132</v>
-      </c>
-      <c r="J74" s="126">
-        <v>132</v>
-      </c>
-      <c r="K74" s="261">
-        <v>0.152</v>
-      </c>
-      <c r="L74" s="261">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="M74" s="261">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="N74" s="261">
-        <v>2.53E-2</v>
-      </c>
-      <c r="O74" s="339"/>
+      <c r="I74" s="123">
+        <v>117</v>
+      </c>
+      <c r="J74" s="123">
+        <v>137</v>
+      </c>
+      <c r="K74" s="260">
+        <v>0.111</v>
+      </c>
+      <c r="L74" s="260">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="M74" s="260">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="N74" s="260">
+        <v>2.69E-2</v>
+      </c>
+      <c r="O74" s="358"/>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="116" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C75" s="117" t="s">
         <v>82</v>
       </c>
       <c r="D75" s="118" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E75" s="116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F75" s="116" t="s">
         <v>149</v>
@@ -8366,30 +8511,28 @@
         <v>464</v>
       </c>
       <c r="K75" s="259">
-        <v>0.379</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="L75" s="259">
-        <v>0.436</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="M75" s="259">
-        <v>0.307</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="N75" s="259">
-        <v>0.128</v>
-      </c>
-      <c r="O75" s="338" t="s">
-        <v>182</v>
+        <v>0.107</v>
+      </c>
+      <c r="O75" s="357" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="120"/>
       <c r="B76" s="121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="122"/>
-      <c r="D76" s="122" t="s">
-        <v>93</v>
-      </c>
+      <c r="D76" s="122"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
       <c r="G76" s="120"/>
@@ -8403,18 +8546,18 @@
         <v>332</v>
       </c>
       <c r="K76" s="260">
-        <v>0.54200000000000004</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="L76" s="260">
-        <v>0.45500000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="M76" s="260">
-        <v>0.48599999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="N76" s="260">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="O76" s="339"/>
+        <v>0.189</v>
+      </c>
+      <c r="O76" s="358"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="124"/>
@@ -8434,25 +8577,25 @@
         <v>132</v>
       </c>
       <c r="K77" s="261">
-        <v>0.217</v>
+        <v>0.152</v>
       </c>
       <c r="L77" s="261">
-        <v>0.41699999999999998</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="M77" s="261">
-        <v>0.127</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="N77" s="261">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="O77" s="339"/>
+        <v>2.53E-2</v>
+      </c>
+      <c r="O77" s="358"/>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="116" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C78" s="117" t="s">
         <v>82</v>
@@ -8464,7 +8607,7 @@
         <v>148</v>
       </c>
       <c r="F78" s="116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G78" s="116" t="s">
         <v>144</v>
@@ -8479,29 +8622,29 @@
         <v>464</v>
       </c>
       <c r="K78" s="259">
-        <v>0.45200000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="L78" s="259">
-        <v>0.42899999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="M78" s="259">
-        <v>0.35899999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="N78" s="259">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="O78" s="338" t="s">
+        <v>0.128</v>
+      </c>
+      <c r="O78" s="357" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120"/>
       <c r="B79" s="121" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C79" s="122"/>
-      <c r="D79" s="337" t="s">
-        <v>94</v>
+      <c r="D79" s="122" t="s">
+        <v>93</v>
       </c>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -8516,24 +8659,24 @@
         <v>332</v>
       </c>
       <c r="K79" s="260">
-        <v>0.66700000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="L79" s="260">
-        <v>0.44900000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="M79" s="260">
-        <v>0.56299999999999994</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="N79" s="260">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="O79" s="339"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="O79" s="358"/>
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="124"/>
       <c r="B80" s="125"/>
       <c r="C80" s="125"/>
-      <c r="D80" s="322"/>
+      <c r="D80" s="125"/>
       <c r="E80" s="124"/>
       <c r="F80" s="124"/>
       <c r="G80" s="124"/>
@@ -8547,415 +8690,417 @@
         <v>132</v>
       </c>
       <c r="K80" s="261">
+        <v>0.217</v>
+      </c>
+      <c r="L80" s="261">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="M80" s="261">
+        <v>0.127</v>
+      </c>
+      <c r="N80" s="261">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="O80" s="358"/>
+    </row>
+    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="H81" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="119">
+        <v>464</v>
+      </c>
+      <c r="J81" s="119">
+        <v>464</v>
+      </c>
+      <c r="K81" s="259">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="L81" s="259">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="M81" s="259">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="N81" s="259">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O81" s="357" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="120"/>
+      <c r="B82" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="122"/>
+      <c r="D82" s="356" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="120"/>
+      <c r="F82" s="120"/>
+      <c r="G82" s="120"/>
+      <c r="H82" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="123">
+        <v>332</v>
+      </c>
+      <c r="J82" s="123">
+        <v>332</v>
+      </c>
+      <c r="K82" s="260">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L82" s="260">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M82" s="260">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="N82" s="260">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="O82" s="358"/>
+    </row>
+    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="124"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="322"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="126">
+        <v>132</v>
+      </c>
+      <c r="J83" s="126">
+        <v>132</v>
+      </c>
+      <c r="K83" s="261">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L80" s="261">
+      <c r="L83" s="261">
         <v>0.40899999999999997</v>
       </c>
-      <c r="M80" s="261">
+      <c r="M83" s="261">
         <v>0.156</v>
       </c>
-      <c r="N80" s="249">
+      <c r="N83" s="249">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="O80" s="339"/>
-    </row>
-    <row r="81" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="336" t="s">
+      <c r="O83" s="358"/>
+    </row>
+    <row r="84" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="355" t="s">
         <v>205</v>
       </c>
-      <c r="B81" s="334"/>
-      <c r="C81" s="334"/>
-      <c r="D81" s="334"/>
-      <c r="E81" s="334"/>
-      <c r="F81" s="334"/>
-      <c r="G81" s="334"/>
-      <c r="H81" s="334"/>
-      <c r="I81" s="334"/>
-      <c r="J81" s="334"/>
-      <c r="K81" s="334"/>
-      <c r="L81" s="334"/>
-      <c r="M81" s="334"/>
-      <c r="N81" s="334"/>
-      <c r="O81" s="334"/>
-    </row>
-    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
+      <c r="B84" s="353"/>
+      <c r="C84" s="353"/>
+      <c r="D84" s="353"/>
+      <c r="E84" s="353"/>
+      <c r="F84" s="353"/>
+      <c r="G84" s="353"/>
+      <c r="H84" s="353"/>
+      <c r="I84" s="353"/>
+      <c r="J84" s="353"/>
+      <c r="K84" s="353"/>
+      <c r="L84" s="353"/>
+      <c r="M84" s="353"/>
+      <c r="N84" s="353"/>
+      <c r="O84" s="353"/>
+    </row>
+    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B85" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C85" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D85" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E85" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F85" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G82" s="67" t="s">
+      <c r="G85" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="H82" s="87" t="s">
+      <c r="H85" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I82" s="87">
+      <c r="I85" s="87">
         <v>463</v>
       </c>
-      <c r="J82" s="87">
+      <c r="J85" s="87">
         <v>463</v>
       </c>
-      <c r="K82" s="291">
+      <c r="K85" s="291">
         <v>0.56399999999999995</v>
       </c>
-      <c r="L82" s="291">
+      <c r="L85" s="291">
         <v>0.63400000000000001</v>
       </c>
-      <c r="M82" s="291">
+      <c r="M85" s="291">
         <v>0.59099999999999997</v>
       </c>
-      <c r="N82" s="291">
+      <c r="N85" s="291">
         <v>0.28199999999999997</v>
       </c>
-      <c r="O82" s="340" t="s">
+      <c r="O85" s="359" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="328" t="s">
+    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="349" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B86" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="88" t="s">
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I86" s="88">
         <v>331</v>
       </c>
-      <c r="J83" s="88">
+      <c r="J86" s="88">
         <v>331</v>
       </c>
-      <c r="K83" s="292">
+      <c r="K86" s="292">
         <v>0.74399999999999999</v>
       </c>
-      <c r="L83" s="292">
+      <c r="L86" s="292">
         <v>0.67400000000000004</v>
       </c>
-      <c r="M83" s="292">
+      <c r="M86" s="292">
         <v>0.75800000000000001</v>
       </c>
-      <c r="N83" s="292">
+      <c r="N86" s="292">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O83" s="341"/>
-    </row>
-    <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="329"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="89" t="s">
+      <c r="O86" s="360"/>
+    </row>
+    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="350"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I84" s="89">
+      <c r="I87" s="89">
         <v>132</v>
       </c>
-      <c r="J84" s="89">
+      <c r="J87" s="89">
         <v>132</v>
       </c>
-      <c r="K84" s="293">
+      <c r="K87" s="293">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L84" s="293">
+      <c r="L87" s="293">
         <v>0.59399999999999997</v>
       </c>
-      <c r="M84" s="293">
+      <c r="M87" s="293">
         <v>0.42399999999999999</v>
       </c>
-      <c r="N84" s="293">
+      <c r="N87" s="293">
         <v>0.183</v>
       </c>
-      <c r="O84" s="342"/>
-    </row>
-    <row r="85" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="336" t="s">
+      <c r="O87" s="361"/>
+    </row>
+    <row r="88" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="355" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="334"/>
-      <c r="C85" s="334"/>
-      <c r="D85" s="334"/>
-      <c r="E85" s="334"/>
-      <c r="F85" s="334"/>
-      <c r="G85" s="334"/>
-      <c r="H85" s="334"/>
-      <c r="I85" s="334"/>
-      <c r="J85" s="334"/>
-      <c r="K85" s="334"/>
-      <c r="L85" s="334"/>
-      <c r="M85" s="334"/>
-      <c r="N85" s="334"/>
-      <c r="O85" s="334"/>
-    </row>
-    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="67" t="s">
+      <c r="B88" s="353"/>
+      <c r="C88" s="353"/>
+      <c r="D88" s="353"/>
+      <c r="E88" s="353"/>
+      <c r="F88" s="353"/>
+      <c r="G88" s="353"/>
+      <c r="H88" s="353"/>
+      <c r="I88" s="353"/>
+      <c r="J88" s="353"/>
+      <c r="K88" s="353"/>
+      <c r="L88" s="353"/>
+      <c r="M88" s="353"/>
+      <c r="N88" s="353"/>
+      <c r="O88" s="353"/>
+    </row>
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B89" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C89" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D86" s="130" t="s">
+      <c r="D89" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="E86" s="67" t="s">
+      <c r="E89" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="F86" s="67" t="s">
+      <c r="F89" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G86" s="67" t="s">
+      <c r="G89" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H86" s="87" t="s">
+      <c r="H89" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I86" s="87">
+      <c r="I89" s="87">
         <v>374</v>
       </c>
-      <c r="J86" s="87">
+      <c r="J89" s="87">
         <v>484</v>
       </c>
-      <c r="K86" s="256">
+      <c r="K89" s="256">
         <v>0.56100000000000005</v>
       </c>
-      <c r="L86" s="256">
+      <c r="L89" s="256">
         <v>0.61299999999999999</v>
       </c>
-      <c r="M86" s="256">
+      <c r="M89" s="256">
         <v>0.56200000000000006</v>
       </c>
-      <c r="N86" s="256">
+      <c r="N89" s="256">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O86" s="327" t="s">
+      <c r="O89" s="326" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="88" t="s">
+    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I87" s="88">
+      <c r="I90" s="88">
         <v>269</v>
       </c>
-      <c r="J87" s="88">
+      <c r="J90" s="88">
         <v>347</v>
       </c>
-      <c r="K87" s="257">
+      <c r="K90" s="257">
         <v>0.746</v>
       </c>
-      <c r="L87" s="257">
+      <c r="L90" s="257">
         <v>0.63300000000000001</v>
       </c>
-      <c r="M87" s="257">
+      <c r="M90" s="257">
         <v>0.72199999999999998</v>
       </c>
-      <c r="N87" s="257">
+      <c r="N90" s="257">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O87" s="330"/>
-    </row>
-    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="89" t="s">
+      <c r="O90" s="351"/>
+    </row>
+    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="31"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I88" s="89">
+      <c r="I91" s="89">
         <v>117</v>
       </c>
-      <c r="J88" s="89">
+      <c r="J91" s="89">
         <v>137</v>
       </c>
-      <c r="K88" s="258">
+      <c r="K91" s="258">
         <v>0.376</v>
       </c>
-      <c r="L88" s="258">
+      <c r="L91" s="258">
         <v>0.59399999999999997</v>
       </c>
-      <c r="M88" s="258">
+      <c r="M91" s="258">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N88" s="258">
+      <c r="N91" s="258">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O88" s="330"/>
-    </row>
-    <row r="89" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="346" t="s">
+      <c r="O91" s="351"/>
+    </row>
+    <row r="92" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="327" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="347"/>
-      <c r="C89" s="347"/>
-      <c r="D89" s="347"/>
-      <c r="E89" s="347"/>
-      <c r="F89" s="347"/>
-      <c r="G89" s="347"/>
-      <c r="H89" s="347"/>
-      <c r="I89" s="347"/>
-      <c r="J89" s="347"/>
-      <c r="K89" s="347"/>
-      <c r="L89" s="347"/>
-      <c r="M89" s="347"/>
-      <c r="N89" s="347"/>
-      <c r="O89" s="347"/>
-    </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="F90" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="G90" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="H90" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="I90" s="87">
-        <v>374</v>
-      </c>
-      <c r="J90" s="87">
-        <v>484</v>
-      </c>
-      <c r="K90" s="253">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="L90" s="253">
-        <v>0.625</v>
-      </c>
-      <c r="M90" s="253">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="N90" s="253">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="O90" s="327" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="I91" s="88">
-        <v>269</v>
-      </c>
-      <c r="J91" s="88">
-        <v>347</v>
-      </c>
-      <c r="K91" s="254">
-        <v>0.748</v>
-      </c>
-      <c r="L91" s="254">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="M91" s="254">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="N91" s="254">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="O91" s="330"/>
-    </row>
-    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
-      <c r="B92" s="128"/>
-      <c r="C92" s="128"/>
-      <c r="D92" s="128"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="I92" s="89">
-        <v>117</v>
-      </c>
-      <c r="J92" s="89">
-        <v>137</v>
-      </c>
-      <c r="K92" s="255">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="L92" s="255">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="M92" s="255">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="N92" s="255">
-        <v>0.17</v>
-      </c>
-      <c r="O92" s="330"/>
+      <c r="B92" s="328"/>
+      <c r="C92" s="328"/>
+      <c r="D92" s="328"/>
+      <c r="E92" s="328"/>
+      <c r="F92" s="328"/>
+      <c r="G92" s="328"/>
+      <c r="H92" s="328"/>
+      <c r="I92" s="328"/>
+      <c r="J92" s="328"/>
+      <c r="K92" s="328"/>
+      <c r="L92" s="328"/>
+      <c r="M92" s="328"/>
+      <c r="N92" s="328"/>
+      <c r="O92" s="328"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>57</v>
@@ -8963,531 +9108,531 @@
       <c r="D93" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="H93" s="56" t="s">
+      <c r="H93" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I93" s="56">
-        <v>463</v>
-      </c>
-      <c r="J93" s="56">
-        <v>463</v>
+      <c r="I93" s="87">
+        <v>374</v>
+      </c>
+      <c r="J93" s="87">
+        <v>484</v>
       </c>
       <c r="K93" s="253">
         <v>0.55700000000000005</v>
       </c>
       <c r="L93" s="253">
-        <v>0.59599999999999997</v>
+        <v>0.625</v>
       </c>
       <c r="M93" s="253">
-        <v>0.58199999999999996</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="N93" s="253">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O93" s="327" t="s">
-        <v>185</v>
+      <c r="O93" s="326" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="71" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C94" s="127"/>
       <c r="D94" s="127"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="57" t="s">
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I94" s="57">
-        <v>331</v>
-      </c>
-      <c r="J94" s="57">
-        <v>331</v>
+      <c r="I94" s="88">
+        <v>269</v>
+      </c>
+      <c r="J94" s="88">
+        <v>347</v>
       </c>
       <c r="K94" s="254">
-        <v>0.71599999999999997</v>
+        <v>0.748</v>
       </c>
       <c r="L94" s="254">
-        <v>0.625</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="M94" s="254">
-        <v>0.73599999999999999</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="N94" s="254">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="O94" s="330"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O94" s="351"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="128"/>
       <c r="C95" s="128"/>
       <c r="D95" s="128"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="58" t="s">
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I95" s="58">
+      <c r="I95" s="89">
+        <v>117</v>
+      </c>
+      <c r="J95" s="89">
+        <v>137</v>
+      </c>
+      <c r="K95" s="255">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="L95" s="255">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="M95" s="255">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="N95" s="255">
+        <v>0.17</v>
+      </c>
+      <c r="O95" s="351"/>
+    </row>
+    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H96" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I96" s="56">
+        <v>463</v>
+      </c>
+      <c r="J96" s="56">
+        <v>463</v>
+      </c>
+      <c r="K96" s="253">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L96" s="253">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="M96" s="253">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="N96" s="253">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="O96" s="326" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="57">
+        <v>331</v>
+      </c>
+      <c r="J97" s="57">
+        <v>331</v>
+      </c>
+      <c r="K97" s="254">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="L97" s="254">
+        <v>0.625</v>
+      </c>
+      <c r="M97" s="254">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="N97" s="254">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O97" s="351"/>
+    </row>
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="128"/>
+      <c r="C98" s="128"/>
+      <c r="D98" s="128"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I98" s="58">
         <v>132</v>
       </c>
-      <c r="J95" s="58">
+      <c r="J98" s="58">
         <v>132</v>
       </c>
-      <c r="K95" s="255">
+      <c r="K98" s="255">
         <v>0.39800000000000002</v>
       </c>
-      <c r="L95" s="255">
+      <c r="L98" s="255">
         <v>0.56699999999999995</v>
       </c>
-      <c r="M95" s="255">
+      <c r="M98" s="255">
         <v>0.42699999999999999</v>
       </c>
-      <c r="N95" s="255">
+      <c r="N98" s="255">
         <v>0.17599999999999999</v>
       </c>
-      <c r="O95" s="330"/>
-    </row>
-    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="371" t="s">
+      <c r="O98" s="351"/>
+    </row>
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="369" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="369"/>
-      <c r="C96" s="369"/>
-      <c r="D96" s="369"/>
-      <c r="E96" s="369"/>
-      <c r="F96" s="369"/>
-      <c r="G96" s="369"/>
-      <c r="H96" s="369"/>
-      <c r="I96" s="369"/>
-      <c r="J96" s="369"/>
-      <c r="K96" s="369"/>
-      <c r="L96" s="369"/>
-      <c r="M96" s="369"/>
-      <c r="N96" s="369"/>
-      <c r="O96" s="369"/>
-    </row>
-    <row r="97" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="207" t="s">
+      <c r="B99" s="368"/>
+      <c r="C99" s="368"/>
+      <c r="D99" s="368"/>
+      <c r="E99" s="368"/>
+      <c r="F99" s="368"/>
+      <c r="G99" s="368"/>
+      <c r="H99" s="368"/>
+      <c r="I99" s="368"/>
+      <c r="J99" s="368"/>
+      <c r="K99" s="368"/>
+      <c r="L99" s="368"/>
+      <c r="M99" s="368"/>
+      <c r="N99" s="368"/>
+      <c r="O99" s="368"/>
+    </row>
+    <row r="100" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="207" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="202" t="s">
+      <c r="B100" s="202" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="203" t="s">
+      <c r="C100" s="203" t="s">
         <v>136</v>
       </c>
-      <c r="D97" s="203" t="s">
+      <c r="D100" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="E97" s="207" t="s">
+      <c r="E100" s="207" t="s">
         <v>149</v>
       </c>
-      <c r="F97" s="207" t="s">
+      <c r="F100" s="207" t="s">
         <v>149</v>
       </c>
-      <c r="G97" s="207" t="s">
+      <c r="G100" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="H97" s="203"/>
-      <c r="I97" s="207"/>
-      <c r="J97" s="207"/>
-      <c r="K97" s="207"/>
-      <c r="L97" s="207"/>
-      <c r="M97" s="207"/>
-      <c r="N97" s="207"/>
-      <c r="O97" s="203"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="368" t="s">
+      <c r="H100" s="203"/>
+      <c r="I100" s="207"/>
+      <c r="J100" s="207"/>
+      <c r="K100" s="207"/>
+      <c r="L100" s="207"/>
+      <c r="M100" s="207"/>
+      <c r="N100" s="207"/>
+      <c r="O100" s="203"/>
+    </row>
+    <row r="101" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="355" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="370"/>
-      <c r="C98" s="370"/>
-      <c r="D98" s="370"/>
-      <c r="E98" s="370"/>
-      <c r="F98" s="370"/>
-      <c r="G98" s="370"/>
-      <c r="H98" s="370"/>
-      <c r="I98" s="370"/>
-      <c r="J98" s="370"/>
-      <c r="K98" s="370"/>
-      <c r="L98" s="370"/>
-      <c r="M98" s="370"/>
-      <c r="N98" s="370"/>
-      <c r="O98" s="370"/>
-    </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
+      <c r="B101" s="406"/>
+      <c r="C101" s="406"/>
+      <c r="D101" s="406"/>
+      <c r="E101" s="406"/>
+      <c r="F101" s="406"/>
+      <c r="G101" s="406"/>
+      <c r="H101" s="406"/>
+      <c r="I101" s="406"/>
+      <c r="J101" s="406"/>
+      <c r="K101" s="406"/>
+      <c r="L101" s="406"/>
+      <c r="M101" s="406"/>
+      <c r="N101" s="406"/>
+      <c r="O101" s="406"/>
+    </row>
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B102" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C102" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D102" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E102" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F102" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="G102" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="H99" s="56" t="s">
+      <c r="H102" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I99" s="56">
+      <c r="I102" s="56">
         <v>463</v>
       </c>
-      <c r="J99" s="56">
+      <c r="J102" s="56">
         <v>463</v>
       </c>
-      <c r="K99" s="253">
+      <c r="K102" s="253">
         <v>0.51300000000000001</v>
       </c>
-      <c r="L99" s="253">
+      <c r="L102" s="253">
         <v>0.60399999999999998</v>
       </c>
-      <c r="M99" s="253">
+      <c r="M102" s="253">
         <v>0.57499999999999996</v>
       </c>
-      <c r="N99" s="253">
+      <c r="N102" s="253">
         <v>0.27300000000000002</v>
       </c>
-      <c r="O99" s="327" t="s">
+      <c r="O102" s="326" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="B100" s="71" t="s">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
+      <c r="B103" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="226"/>
-      <c r="D100" s="226"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="57" t="s">
+      <c r="C103" s="226"/>
+      <c r="D103" s="226"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I100" s="57">
+      <c r="I103" s="57">
         <v>331</v>
       </c>
-      <c r="J100" s="57">
+      <c r="J103" s="57">
         <v>331</v>
       </c>
-      <c r="K100" s="254">
+      <c r="K103" s="254">
         <v>0.65100000000000002</v>
       </c>
-      <c r="L100" s="254">
+      <c r="L103" s="254">
         <v>0.67100000000000004</v>
       </c>
-      <c r="M100" s="254">
+      <c r="M103" s="254">
         <v>0.73399999999999999</v>
       </c>
-      <c r="N100" s="254">
+      <c r="N103" s="254">
         <v>0.36</v>
       </c>
-      <c r="O100" s="330"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="227"/>
-      <c r="C101" s="227"/>
-      <c r="D101" s="227"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="58" t="s">
+      <c r="O103" s="351"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="18"/>
+      <c r="B104" s="227"/>
+      <c r="C104" s="227"/>
+      <c r="D104" s="227"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I101" s="58">
+      <c r="I104" s="58">
         <v>132</v>
       </c>
-      <c r="J101" s="58">
+      <c r="J104" s="58">
         <v>132</v>
       </c>
-      <c r="K101" s="255">
+      <c r="K104" s="255">
         <v>0.375</v>
       </c>
-      <c r="L101" s="255">
+      <c r="L104" s="255">
         <v>0.53800000000000003</v>
       </c>
-      <c r="M101" s="255">
+      <c r="M104" s="255">
         <v>0.41599999999999998</v>
       </c>
-      <c r="N101" s="255">
+      <c r="N104" s="255">
         <v>0.186</v>
       </c>
-      <c r="O101" s="330"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="368" t="s">
+      <c r="O104" s="351"/>
+    </row>
+    <row r="105" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="355" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="369"/>
-      <c r="C102" s="369"/>
-      <c r="D102" s="369"/>
-      <c r="E102" s="369"/>
-      <c r="F102" s="369"/>
-      <c r="G102" s="369"/>
-      <c r="H102" s="369"/>
-      <c r="I102" s="369"/>
-      <c r="J102" s="369"/>
-      <c r="K102" s="369"/>
-      <c r="L102" s="369"/>
-      <c r="M102" s="369"/>
-      <c r="N102" s="369"/>
-      <c r="O102" s="369"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E103" s="209" t="s">
-        <v>147</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G103" s="229" t="s">
-        <v>190</v>
-      </c>
-      <c r="H103" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="56">
-        <v>463</v>
-      </c>
-      <c r="J103" s="56">
-        <v>463</v>
-      </c>
-      <c r="K103" s="250">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="L103" s="250">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="M103" s="250">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="N103" s="250">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="O103" s="320" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="226"/>
-      <c r="D104" s="226"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="231" t="s">
-        <v>1</v>
-      </c>
-      <c r="I104" s="57">
-        <v>331</v>
-      </c>
-      <c r="J104" s="57">
-        <v>331</v>
-      </c>
-      <c r="K104" s="251">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="L104" s="251">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="M104" s="251">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="N104" s="251">
-        <v>0.372</v>
-      </c>
-      <c r="O104" s="321"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="227"/>
-      <c r="C105" s="227"/>
-      <c r="D105" s="227"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="232" t="s">
-        <v>2</v>
-      </c>
-      <c r="I105" s="58">
-        <v>132</v>
-      </c>
-      <c r="J105" s="58">
-        <v>132</v>
-      </c>
-      <c r="K105" s="252">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="L105" s="252">
-        <v>0.437</v>
-      </c>
-      <c r="M105" s="252">
-        <v>0.501</v>
-      </c>
-      <c r="N105" s="252">
-        <v>0.219</v>
-      </c>
-      <c r="O105" s="322"/>
+      <c r="B105" s="353"/>
+      <c r="C105" s="353"/>
+      <c r="D105" s="353"/>
+      <c r="E105" s="353"/>
+      <c r="F105" s="353"/>
+      <c r="G105" s="353"/>
+      <c r="H105" s="353"/>
+      <c r="I105" s="353"/>
+      <c r="J105" s="353"/>
+      <c r="K105" s="353"/>
+      <c r="L105" s="353"/>
+      <c r="M105" s="353"/>
+      <c r="N105" s="353"/>
+      <c r="O105" s="353"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="102" t="s">
-        <v>194</v>
-      </c>
-      <c r="C106" s="102" t="s">
-        <v>193</v>
-      </c>
-      <c r="D106" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="E106" s="101" t="s">
+      <c r="B106" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="209" t="s">
+        <v>147</v>
+      </c>
+      <c r="F106" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F106" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="G106" s="295" t="s">
-        <v>176</v>
-      </c>
-      <c r="H106" s="296" t="s">
+      <c r="G106" s="229" t="s">
+        <v>190</v>
+      </c>
+      <c r="H106" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="I106" s="297">
+      <c r="I106" s="56">
         <v>463</v>
       </c>
-      <c r="J106" s="298">
+      <c r="J106" s="56">
         <v>463</v>
       </c>
-      <c r="K106" s="299">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="L106" s="299">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="M106" s="299">
+      <c r="K106" s="250">
         <v>0.64600000000000002</v>
       </c>
-      <c r="N106" s="300">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="O106" s="365" t="s">
-        <v>200</v>
+      <c r="L106" s="250">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="M106" s="250">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="N106" s="250">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="O106" s="320" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
-      <c r="B107" s="301" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
-      <c r="G107" s="302"/>
-      <c r="H107" s="303" t="s">
+      <c r="B107" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="226"/>
+      <c r="D107" s="226"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="I107" s="304">
+      <c r="I107" s="57">
         <v>331</v>
       </c>
-      <c r="J107" s="305">
+      <c r="J107" s="57">
         <v>331</v>
       </c>
-      <c r="K107" s="306">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="L107" s="306">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="M107" s="306">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="N107" s="307">
-        <v>0.39</v>
-      </c>
-      <c r="O107" s="366"/>
+      <c r="K107" s="251">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="L107" s="251">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="M107" s="251">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="N107" s="251">
+        <v>0.372</v>
+      </c>
+      <c r="O107" s="321"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="109"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="308"/>
-      <c r="H108" s="309" t="s">
+      <c r="B108" s="227"/>
+      <c r="C108" s="227"/>
+      <c r="D108" s="227"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="I108" s="310">
+      <c r="I108" s="58">
         <v>132</v>
       </c>
-      <c r="J108" s="311">
+      <c r="J108" s="58">
         <v>132</v>
       </c>
-      <c r="K108" s="312">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="L108" s="312">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="M108" s="312">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="N108" s="313">
-        <v>0.22</v>
-      </c>
-      <c r="O108" s="367"/>
+      <c r="K108" s="252">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L108" s="252">
+        <v>0.437</v>
+      </c>
+      <c r="M108" s="252">
+        <v>0.501</v>
+      </c>
+      <c r="N108" s="252">
+        <v>0.219</v>
+      </c>
+      <c r="O108" s="322"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B109" s="102" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C109" s="102" t="s">
         <v>193</v>
@@ -9502,37 +9647,37 @@
         <v>149</v>
       </c>
       <c r="G109" s="295" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H109" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="I109" s="314">
+      <c r="I109" s="297">
         <v>463</v>
       </c>
-      <c r="J109" s="315">
+      <c r="J109" s="298">
         <v>463</v>
       </c>
       <c r="K109" s="299">
-        <v>0.65600000000000003</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L109" s="299">
-        <v>0.60799999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="M109" s="299">
-        <v>0.64200000000000002</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="N109" s="300">
-        <v>0.312</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="O109" s="365" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="301" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C110" s="105"/>
       <c r="D110" s="105"/>
@@ -9542,23 +9687,23 @@
       <c r="H110" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I110" s="316">
+      <c r="I110" s="304">
         <v>331</v>
       </c>
-      <c r="J110" s="317">
+      <c r="J110" s="305">
         <v>331</v>
       </c>
       <c r="K110" s="306">
-        <v>0.77500000000000002</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="L110" s="306">
-        <v>0.65600000000000003</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="M110" s="306">
-        <v>0.76300000000000001</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="N110" s="307">
-        <v>0.39200000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="O110" s="366"/>
     </row>
@@ -9573,23 +9718,23 @@
       <c r="H111" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="I111" s="318">
+      <c r="I111" s="310">
         <v>132</v>
       </c>
-      <c r="J111" s="319">
+      <c r="J111" s="311">
         <v>132</v>
       </c>
       <c r="K111" s="312">
-        <v>0.53600000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="L111" s="312">
-        <v>0.56100000000000005</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="M111" s="312">
-        <v>0.52100000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="N111" s="313">
-        <v>0.23100000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="O111" s="367"/>
     </row>
@@ -9597,168 +9742,281 @@
       <c r="A112" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C112" s="15" t="s">
+      <c r="B112" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F112" s="19" t="s">
+      <c r="D112" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E112" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="G112" s="229" t="s">
-        <v>214</v>
-      </c>
-      <c r="H112" s="230" t="s">
+      <c r="F112" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G112" s="295" t="s">
+        <v>137</v>
+      </c>
+      <c r="H112" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="I112" s="243">
+      <c r="I112" s="314">
         <v>463</v>
       </c>
-      <c r="J112" s="244">
+      <c r="J112" s="315">
         <v>463</v>
       </c>
-      <c r="K112" s="294">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="L112" s="235">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="M112" s="235">
-        <v>0.628</v>
-      </c>
-      <c r="N112" s="236">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="O112" s="320" t="s">
-        <v>209</v>
+      <c r="K112" s="299">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="L112" s="299">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="M112" s="299">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="N112" s="300">
+        <v>0.312</v>
+      </c>
+      <c r="O112" s="365" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
-      <c r="B113" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="C113" s="233"/>
-      <c r="D113" s="233"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="231" t="s">
+      <c r="B113" s="301" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="105"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="104"/>
+      <c r="F113" s="104"/>
+      <c r="G113" s="302"/>
+      <c r="H113" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I113" s="245">
+      <c r="I113" s="316">
         <v>331</v>
       </c>
-      <c r="J113" s="246">
+      <c r="J113" s="317">
         <v>331</v>
       </c>
-      <c r="K113" s="237">
-        <v>0.59</v>
-      </c>
-      <c r="L113" s="238">
-        <v>0.755</v>
-      </c>
-      <c r="M113" s="238">
+      <c r="K113" s="306">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L113" s="306">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="M113" s="306">
         <v>0.76300000000000001</v>
       </c>
-      <c r="N113" s="239">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="O113" s="321"/>
+      <c r="N113" s="307">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O113" s="366"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
-      <c r="B114" s="234"/>
-      <c r="C114" s="234"/>
-      <c r="D114" s="234"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="232" t="s">
+      <c r="B114" s="109"/>
+      <c r="C114" s="109"/>
+      <c r="D114" s="109"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="308"/>
+      <c r="H114" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="I114" s="247">
+      <c r="I114" s="318">
         <v>132</v>
       </c>
-      <c r="J114" s="248">
+      <c r="J114" s="319">
         <v>132</v>
       </c>
-      <c r="K114" s="240">
+      <c r="K114" s="312">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="L114" s="312">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="M114" s="312">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="N114" s="313">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="O114" s="367"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F115" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G115" s="229" t="s">
+        <v>214</v>
+      </c>
+      <c r="H115" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="I115" s="243">
+        <v>463</v>
+      </c>
+      <c r="J115" s="244">
+        <v>463</v>
+      </c>
+      <c r="K115" s="294">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="L115" s="235">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="M115" s="235">
+        <v>0.628</v>
+      </c>
+      <c r="N115" s="236">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="O115" s="320" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C116" s="233"/>
+      <c r="D116" s="233"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="231" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" s="245">
+        <v>331</v>
+      </c>
+      <c r="J116" s="246">
+        <v>331</v>
+      </c>
+      <c r="K116" s="237">
+        <v>0.59</v>
+      </c>
+      <c r="L116" s="238">
+        <v>0.755</v>
+      </c>
+      <c r="M116" s="238">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="N116" s="239">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="O116" s="321"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="234"/>
+      <c r="C117" s="234"/>
+      <c r="D117" s="234"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="232" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" s="247">
+        <v>132</v>
+      </c>
+      <c r="J117" s="248">
+        <v>132</v>
+      </c>
+      <c r="K117" s="240">
         <v>0.51700000000000002</v>
       </c>
-      <c r="L114" s="241">
+      <c r="L117" s="241">
         <v>0.51500000000000001</v>
       </c>
-      <c r="M114" s="241">
+      <c r="M117" s="241">
         <v>0.49199999999999999</v>
       </c>
-      <c r="N114" s="242">
+      <c r="N117" s="242">
         <v>0.219</v>
       </c>
-      <c r="O114" s="322"/>
+      <c r="O117" s="322"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="O103:O105"/>
+  <mergeCells count="50">
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="Q15:V17"/>
+    <mergeCell ref="O115:O117"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="O109:O111"/>
+    <mergeCell ref="O112:O114"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A101:O101"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="O102:O104"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="O96:O98"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="O75:O77"/>
+    <mergeCell ref="O78:O80"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="O93:O95"/>
+    <mergeCell ref="O106:O108"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="A92:O92"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="O56:O58"/>
     <mergeCell ref="O50:O52"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="O56:O58"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="O93:O95"/>
-    <mergeCell ref="O62:O64"/>
-    <mergeCell ref="O86:O88"/>
-    <mergeCell ref="A65:O65"/>
-    <mergeCell ref="A81:O81"/>
-    <mergeCell ref="A85:O85"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="O78:O80"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="O75:O77"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="O82:O84"/>
-    <mergeCell ref="O90:O92"/>
-    <mergeCell ref="O112:O114"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="O106:O108"/>
-    <mergeCell ref="O109:O111"/>
-    <mergeCell ref="A102:O102"/>
-    <mergeCell ref="A98:O98"/>
-    <mergeCell ref="A96:O96"/>
-    <mergeCell ref="O99:O101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B32" numberStoredAsText="1"/>
+    <ignoredError sqref="B35" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -9781,23 +10039,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="370" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
-      <c r="J1" s="394"/>
-      <c r="K1" s="394"/>
-      <c r="L1" s="394"/>
-      <c r="M1" s="394"/>
-      <c r="N1" s="394"/>
-      <c r="O1" s="394"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="371"/>
+      <c r="O1" s="371"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="149" t="s">
@@ -9806,24 +10064,24 @@
       <c r="B2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="390" t="s">
+      <c r="C2" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="390" t="s">
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="389" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="391"/>
-      <c r="I2" s="391"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="387" t="s">
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="392" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
-      <c r="N2" s="389"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="394"/>
       <c r="O2" s="151" t="s">
         <v>108</v>
       </c>
@@ -9862,7 +10120,7 @@
       <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="372" t="s">
+      <c r="A4" s="381" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="212" t="s">
@@ -9896,17 +10154,17 @@
       <c r="N4" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O4" s="375" t="s">
+      <c r="O4" s="384" t="s">
         <v>167</v>
       </c>
-      <c r="Q4" s="378" t="s">
+      <c r="Q4" s="395" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="379"/>
-      <c r="S4" s="380"/>
+      <c r="R4" s="396"/>
+      <c r="S4" s="397"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="373"/>
+      <c r="A5" s="382"/>
       <c r="B5" s="215" t="s">
         <v>1</v>
       </c>
@@ -9938,7 +10196,7 @@
       <c r="N5" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O5" s="376"/>
+      <c r="O5" s="385"/>
       <c r="Q5" s="224" t="s">
         <v>118</v>
       </c>
@@ -9950,7 +10208,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="374"/>
+      <c r="A6" s="383"/>
       <c r="B6" s="219" t="s">
         <v>2</v>
       </c>
@@ -9982,7 +10240,7 @@
       <c r="N6" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O6" s="377"/>
+      <c r="O6" s="386"/>
       <c r="Q6" s="225" t="s">
         <v>116</v>
       </c>
@@ -9994,7 +10252,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="372" t="s">
+      <c r="A7" s="381" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="212" t="s">
@@ -10028,7 +10286,7 @@
       <c r="N7" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O7" s="375" t="s">
+      <c r="O7" s="384" t="s">
         <v>166</v>
       </c>
       <c r="Q7" s="225" t="s">
@@ -10042,7 +10300,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="373"/>
+      <c r="A8" s="382"/>
       <c r="B8" s="215" t="s">
         <v>1</v>
       </c>
@@ -10074,7 +10332,7 @@
       <c r="N8" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O8" s="376"/>
+      <c r="O8" s="385"/>
       <c r="Q8" s="225" t="s">
         <v>115</v>
       </c>
@@ -10086,7 +10344,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="374"/>
+      <c r="A9" s="383"/>
       <c r="B9" s="219" t="s">
         <v>2</v>
       </c>
@@ -10118,10 +10376,10 @@
       <c r="N9" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O9" s="377"/>
+      <c r="O9" s="386"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="372" t="s">
+      <c r="A10" s="381" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="212" t="s">
@@ -10155,12 +10413,12 @@
       <c r="N10" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O10" s="375" t="s">
+      <c r="O10" s="384" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="373"/>
+      <c r="A11" s="382"/>
       <c r="B11" s="215" t="s">
         <v>1</v>
       </c>
@@ -10192,10 +10450,10 @@
       <c r="N11" s="169">
         <v>0.52300000000000002</v>
       </c>
-      <c r="O11" s="376"/>
+      <c r="O11" s="385"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="374"/>
+      <c r="A12" s="383"/>
       <c r="B12" s="219" t="s">
         <v>2</v>
       </c>
@@ -10227,26 +10485,26 @@
       <c r="N12" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O12" s="377"/>
+      <c r="O12" s="386"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="404" t="s">
+      <c r="A13" s="387" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="405"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="405"/>
-      <c r="E13" s="405"/>
-      <c r="F13" s="405"/>
-      <c r="G13" s="405"/>
-      <c r="H13" s="405"/>
-      <c r="I13" s="405"/>
-      <c r="J13" s="405"/>
-      <c r="K13" s="405"/>
-      <c r="L13" s="405"/>
-      <c r="M13" s="405"/>
-      <c r="N13" s="405"/>
-      <c r="O13" s="405"/>
+      <c r="B13" s="388"/>
+      <c r="C13" s="388"/>
+      <c r="D13" s="388"/>
+      <c r="E13" s="388"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="388"/>
+      <c r="H13" s="388"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="388"/>
+      <c r="K13" s="388"/>
+      <c r="L13" s="388"/>
+      <c r="M13" s="388"/>
+      <c r="N13" s="388"/>
+      <c r="O13" s="388"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="129"/>
@@ -10261,25 +10519,25 @@
       <c r="O20" s="129"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="393" t="s">
+      <c r="A21" s="370" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="394" t="s">
+      <c r="B21" s="371" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="394"/>
-      <c r="D21" s="394"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="394"/>
-      <c r="G21" s="394"/>
-      <c r="H21" s="394"/>
-      <c r="I21" s="394"/>
-      <c r="J21" s="394"/>
-      <c r="K21" s="394"/>
-      <c r="L21" s="394"/>
-      <c r="M21" s="394"/>
-      <c r="N21" s="394"/>
-      <c r="O21" s="394"/>
+      <c r="C21" s="371"/>
+      <c r="D21" s="371"/>
+      <c r="E21" s="371"/>
+      <c r="F21" s="371"/>
+      <c r="G21" s="371"/>
+      <c r="H21" s="371"/>
+      <c r="I21" s="371"/>
+      <c r="J21" s="371"/>
+      <c r="K21" s="371"/>
+      <c r="L21" s="371"/>
+      <c r="M21" s="371"/>
+      <c r="N21" s="371"/>
+      <c r="O21" s="371"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="149" t="s">
@@ -10288,24 +10546,24 @@
       <c r="B22" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="390" t="s">
+      <c r="C22" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="391"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="390" t="s">
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="391"/>
+      <c r="G22" s="389" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="391"/>
-      <c r="I22" s="391"/>
-      <c r="J22" s="392"/>
-      <c r="K22" s="387" t="s">
+      <c r="H22" s="390"/>
+      <c r="I22" s="390"/>
+      <c r="J22" s="391"/>
+      <c r="K22" s="392" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="388"/>
-      <c r="M22" s="388"/>
-      <c r="N22" s="389"/>
+      <c r="L22" s="393"/>
+      <c r="M22" s="393"/>
+      <c r="N22" s="394"/>
       <c r="O22" s="149" t="s">
         <v>108</v>
       </c>
@@ -10352,7 +10610,7 @@
       <c r="O23" s="152"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="401" t="s">
+      <c r="A24" s="378" t="s">
         <v>130</v>
       </c>
       <c r="B24" s="146" t="s">
@@ -10394,12 +10652,12 @@
       <c r="N24" s="174">
         <v>0.621</v>
       </c>
-      <c r="O24" s="398" t="s">
+      <c r="O24" s="375" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="402"/>
+      <c r="A25" s="379"/>
       <c r="B25" s="131" t="s">
         <v>1</v>
       </c>
@@ -10439,10 +10697,10 @@
       <c r="N25" s="137">
         <v>0.60799999999999998</v>
       </c>
-      <c r="O25" s="399"/>
+      <c r="O25" s="376"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="403"/>
+      <c r="A26" s="380"/>
       <c r="B26" s="138" t="s">
         <v>2</v>
       </c>
@@ -10482,10 +10740,10 @@
       <c r="N26" s="140">
         <v>0.71</v>
       </c>
-      <c r="O26" s="400"/>
+      <c r="O26" s="377"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="401" t="s">
+      <c r="A27" s="378" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="146" t="s">
@@ -10527,12 +10785,12 @@
       <c r="N27" s="175">
         <v>0.62</v>
       </c>
-      <c r="O27" s="398" t="s">
+      <c r="O27" s="375" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="402"/>
+      <c r="A28" s="379"/>
       <c r="B28" s="131" t="s">
         <v>1</v>
       </c>
@@ -10572,10 +10830,10 @@
       <c r="N28" s="137">
         <v>0.60899999999999999</v>
       </c>
-      <c r="O28" s="399"/>
+      <c r="O28" s="376"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="403"/>
+      <c r="A29" s="380"/>
       <c r="B29" s="138" t="s">
         <v>2</v>
       </c>
@@ -10615,10 +10873,10 @@
       <c r="N29" s="140">
         <v>0.69099999999999995</v>
       </c>
-      <c r="O29" s="400"/>
+      <c r="O29" s="377"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="381" t="s">
+      <c r="A30" s="398" t="s">
         <v>127</v>
       </c>
       <c r="B30" s="180" t="s">
@@ -10660,12 +10918,12 @@
       <c r="N30" s="184">
         <v>0.624</v>
       </c>
-      <c r="O30" s="384" t="s">
+      <c r="O30" s="401" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="382"/>
+      <c r="A31" s="399"/>
       <c r="B31" s="187" t="s">
         <v>1</v>
       </c>
@@ -10705,10 +10963,10 @@
       <c r="N31" s="189">
         <v>0.61199999999999999</v>
       </c>
-      <c r="O31" s="385"/>
+      <c r="O31" s="402"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="383"/>
+      <c r="A32" s="400"/>
       <c r="B32" s="193" t="s">
         <v>2</v>
       </c>
@@ -10748,10 +11006,10 @@
       <c r="N32" s="197">
         <v>0.70499999999999996</v>
       </c>
-      <c r="O32" s="386"/>
+      <c r="O32" s="403"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="395" t="s">
+      <c r="A33" s="372" t="s">
         <v>128</v>
       </c>
       <c r="B33" s="163" t="s">
@@ -10793,12 +11051,12 @@
       <c r="N33" s="177">
         <v>0.61699999999999999</v>
       </c>
-      <c r="O33" s="398" t="s">
+      <c r="O33" s="375" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="396"/>
+      <c r="A34" s="373"/>
       <c r="B34" s="166" t="s">
         <v>1</v>
       </c>
@@ -10838,10 +11096,10 @@
       <c r="N34" s="169">
         <v>0.60199999999999998</v>
       </c>
-      <c r="O34" s="399"/>
+      <c r="O34" s="376"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="397"/>
+      <c r="A35" s="374"/>
       <c r="B35" s="170" t="s">
         <v>2</v>
       </c>
@@ -10881,10 +11139,10 @@
       <c r="N35" s="173">
         <v>0.72199999999999998</v>
       </c>
-      <c r="O35" s="400"/>
+      <c r="O35" s="377"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="395" t="s">
+      <c r="A36" s="372" t="s">
         <v>129</v>
       </c>
       <c r="B36" s="163" t="s">
@@ -10926,12 +11184,12 @@
       <c r="N36" s="178">
         <v>0.61599999999999999</v>
       </c>
-      <c r="O36" s="398" t="s">
+      <c r="O36" s="375" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="396"/>
+      <c r="A37" s="373"/>
       <c r="B37" s="166" t="s">
         <v>1</v>
       </c>
@@ -10971,10 +11229,10 @@
       <c r="N37" s="169">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O37" s="399"/>
+      <c r="O37" s="376"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="397"/>
+      <c r="A38" s="374"/>
       <c r="B38" s="170" t="s">
         <v>2</v>
       </c>
@@ -11014,7 +11272,7 @@
       <c r="N38" s="173">
         <v>0.70199999999999996</v>
       </c>
-      <c r="O38" s="400"/>
+      <c r="O38" s="377"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="129"/>
@@ -11087,6 +11345,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A21:O21"/>
     <mergeCell ref="A36:A38"/>
@@ -11103,16 +11371,6 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="O10:O12"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="O30:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/modelling/docs/train_png_tracker.xlsx
+++ b/modelling/docs/train_png_tracker.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Detect" sheetId="1" r:id="rId1"/>
-    <sheet name="VLR" sheetId="2" r:id="rId2"/>
+    <sheet name="detect_summary" sheetId="3" r:id="rId2"/>
+    <sheet name="VLR" sheetId="2" r:id="rId3"/>
+    <sheet name="VLR (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -160,6 +163,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="B102" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kaya 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D102" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">single-pol
+amp+phase
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B106" authorId="0" shapeId="0">
       <text>
         <r>
@@ -248,8 +289,119 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kaya 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">single-pol
+amp+phase
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Kaya 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Courier New"/>
+            <family val="3"/>
+          </rPr>
+          <t>single-polarisation procesing
+=============================
+Red:   amplitude
+Green: sin(phase)
+Blue:  cos(phase)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Standard crops are 1 detection/crop (default) 
+Spatial crops means  &gt;= 1 detection/crop
+"imgsz" is YOLO input image parameter (default: 640).
+Actual input image size is 96 x 96 pixels unless otherwise noted.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Kaya 2
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="234">
   <si>
     <t>all</t>
   </si>
@@ -3147,9 +3299,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Best model to data with </t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <i/>
@@ -3159,7 +3308,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">better balanced </t>
+      <t>Dual-polarisation</t>
     </r>
     <r>
       <rPr>
@@ -3170,10 +3319,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dataset.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> processing, standard 96 x 96 pixel size images.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Next run: same model, training configuration and pixel size (96x96) as 'best' model but using </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -3184,51 +3336,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dual-polarisation</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> processing, standard 96 x 96 pixel size images.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Next run: same model, training configuration and pixel size (96x96) as 'best' model but using </t>
+      <t>spatial cropping</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Next run: uses the </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spatial cropping</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Next run: uses the </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medium</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>medium</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YOLO</t>
     </r>
     <r>
       <rPr>
@@ -3251,7 +3398,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>YOLO</t>
+      <t>model</t>
     </r>
     <r>
       <rPr>
@@ -3262,7 +3409,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> with the same training config and dataset as the 'best' model to data (run 20250818_1835) on standard 96 x 96 pixel images</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>yolo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n.pt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Switched to '</t>
     </r>
     <r>
       <rPr>
@@ -3274,7 +3453,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>model</t>
+      <t>Alternate Processing</t>
     </r>
     <r>
       <rPr>
@@ -3285,39 +3464,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> with the same training config and dataset as the 'best' model to data (run 20250818_1835) on standard 96 x 96 pixel images</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>yolo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n.pt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Switched to '</t>
+      <t xml:space="preserve">' (amp+phase+zeros) in </t>
     </r>
     <r>
       <rPr>
@@ -3329,7 +3476,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Alternate Processing</t>
+      <t>PNG</t>
     </r>
     <r>
       <rPr>
@@ -3340,7 +3487,254 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">' (amp+phase+zeros) in </t>
+      <t xml:space="preserve"> from this point on</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample weights make very little difference; as does normalisation as RF is invariant to scale. Test results based on predictions from model Run # 20250818_1835 (with defualt conf=0.25)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dual-polarisation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> processing. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre-augmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (hvrt + msc + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) + in situ (hvrt + mosaic). optimiser=SGD  (explicit,  lr=0.01, momentum=0.9. weight_decay=0.0005.  close_mosaic=0. epochs=58. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cos_lr=True, patience=10.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dual-polarisation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> processing. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre-augmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (hvrt + msc) + in situ (hvrt + mosaic). optimiser=SGD  (explicit,  lr=0.01, momentum=0.9. weight_decay=0.0005.  close_mosaic=0. epochs=67. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cos_lr=True, patience=10.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>train_hvrt_msc_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bal_dual</t>
+    </r>
+  </si>
+  <si>
+    <t>(30950)</t>
+  </si>
+  <si>
+    <t>20250918_2332</t>
+  </si>
+  <si>
+    <r>
+      <t>(0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:1)</t>
+    </r>
+  </si>
+  <si>
+    <t>hvrt/msc/gf</t>
+  </si>
+  <si>
+    <t>&lt;== POPULATE THIS!</t>
+  </si>
+  <si>
+    <t>train_png_no_aug_ext</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Balanced PNG dataset, pre-augmented (hvrt + mosaic) + in situ (hvrt + mosaic), epochs=100; optimiser=SGD  (explicit,  lr=0.01, momentum=0.9. weight_decay=0.0005. close_mosaic=0. epochs=85. Cos_lr=True, patience=20.</t>
+  </si>
+  <si>
+    <t>20250924_1934</t>
+  </si>
+  <si>
+    <t>(33064)</t>
+  </si>
+  <si>
+    <r>
+      <t>train_hvrt_msc_bal_new_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Best model (single-pol, 2ch amp + phase)  to date with </t>
     </r>
     <r>
       <rPr>
@@ -3352,7 +3746,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PNG</t>
+      <t xml:space="preserve">better balanced </t>
     </r>
     <r>
       <rPr>
@@ -3363,237 +3757,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> from this point on</t>
-    </r>
-  </si>
-  <si>
-    <t>Sample weights make very little difference; as does normalisation as RF is invariant to scale. Test results based on predictions from model Run # 20250818_1835 (with defualt conf=0.25)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dual-polarisation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> processing. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre-augmentation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (hvrt + msc + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) + in situ (hvrt + mosaic). optimiser=SGD  (explicit,  lr=0.01, momentum=0.9. weight_decay=0.0005.  close_mosaic=0. epochs=58. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cos_lr=True, patience=10.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dual-polarisation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> processing. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre-augmentation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (hvrt + msc) + in situ (hvrt + mosaic). optimiser=SGD  (explicit,  lr=0.01, momentum=0.9. weight_decay=0.0005.  close_mosaic=0. epochs=67. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cos_lr=True, patience=10.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>train_hvrt_msc_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bal_dual</t>
-    </r>
-  </si>
-  <si>
-    <t>(30950)</t>
-  </si>
-  <si>
-    <t>20250918_2332</t>
-  </si>
-  <si>
-    <r>
-      <t>(0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:1)</t>
-    </r>
-  </si>
-  <si>
-    <t>hvrt/msc/gf</t>
-  </si>
-  <si>
-    <t>&lt;== POPULATE THIS!</t>
-  </si>
-  <si>
-    <t>train_png_no_aug_ext</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.97</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:1)</t>
-    </r>
-  </si>
-  <si>
-    <t>train_hvrt_msc_bal_new_ext</t>
-  </si>
-  <si>
-    <t>Balanced PNG dataset, pre-augmented (hvrt + mosaic) + in situ (hvrt + mosaic), epochs=100; optimiser=SGD  (explicit,  lr=0.01, momentum=0.9. weight_decay=0.0005. close_mosaic=0. epochs=85. Cos_lr=True, patience=20.</t>
-  </si>
-  <si>
-    <t>20250924_1934</t>
-  </si>
-  <si>
-    <t>(33064)</t>
+      <t>dataset.</t>
+    </r>
+  </si>
+  <si>
+    <t>20250924_1934_33064</t>
+  </si>
+  <si>
+    <t>single-pol-2ch</t>
+  </si>
+  <si>
+    <t>single-pol-3ch</t>
+  </si>
+  <si>
+    <t>20250910_2352_701491</t>
+  </si>
+  <si>
+    <t>dual-pol-3ch</t>
+  </si>
+  <si>
+    <t>20250915_1358_30042</t>
+  </si>
+  <si>
+    <t>Model Input</t>
+  </si>
+  <si>
+    <t>train_png_aug_ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- y_train un-normalised
+- predictions using dual-pol-3ch
+- width and height swapped when width &gt; height.
+- conf=0.03 and iou=0.3 fro prediction --&gt; 208 predictions
+- RMSE no longer required for reporting </t>
+  </si>
+  <si>
+    <t>20251002_0935</t>
+  </si>
+  <si>
+    <t>Sample weights make very little difference; as does normalisation as RF is invariant to scale. Test results (above) based on predictions from model Run # 20250818_1835 (with defualt conf=0.25)</t>
   </si>
 </sst>
 </file>
@@ -3605,7 +3807,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3747,8 +3949,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3782,6 +3997,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4256,7 +4477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5044,15 +5265,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5140,9 +5352,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5161,9 +5370,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5179,9 +5385,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5208,6 +5411,171 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5227,13 +5595,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5251,41 +5616,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5302,9 +5667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5326,14 +5688,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5344,20 +5709,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5457,50 +5819,84 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5808,9 +6204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5836,19 +6232,19 @@
       <c r="A1" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="323" t="s">
+      <c r="E1" s="372" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="K1" s="329" t="s">
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="K1" s="377" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="331"/>
-    </row>
-    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="379"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5895,7 +6291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5936,11 +6332,11 @@
       <c r="N3" s="236">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="O3" s="332" t="s">
+      <c r="O3" s="380" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="13"/>
       <c r="C4" s="60"/>
@@ -5969,9 +6365,9 @@
       <c r="N4" s="239">
         <v>0.105</v>
       </c>
-      <c r="O4" s="332"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="380"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="14"/>
       <c r="C5" s="61"/>
@@ -6000,9 +6396,9 @@
       <c r="N5" s="242">
         <v>1.29E-2</v>
       </c>
-      <c r="O5" s="332"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="380"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -6043,11 +6439,11 @@
       <c r="N6" s="236">
         <v>3.27E-2</v>
       </c>
-      <c r="O6" s="332" t="s">
+      <c r="O6" s="380" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
@@ -6080,9 +6476,9 @@
       <c r="N7" s="239">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="O7" s="332"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="380"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="61"/>
@@ -6111,9 +6507,9 @@
       <c r="N8" s="242">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="O8" s="332"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O8" s="380"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>8</v>
       </c>
@@ -6151,14 +6547,14 @@
       <c r="M9" s="40">
         <v>0.46200000000000002</v>
       </c>
-      <c r="N9" s="285">
+      <c r="N9" s="282">
         <v>0.189</v>
       </c>
-      <c r="O9" s="333" t="s">
+      <c r="O9" s="381" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="26"/>
       <c r="C10" s="62"/>
@@ -6184,12 +6580,12 @@
       <c r="M10" s="40">
         <v>0.67600000000000005</v>
       </c>
-      <c r="N10" s="285">
+      <c r="N10" s="282">
         <v>0.28799999999999998</v>
       </c>
-      <c r="O10" s="333"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="381"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="30"/>
       <c r="C11" s="63"/>
@@ -6215,12 +6611,12 @@
       <c r="M11" s="42">
         <v>0.247</v>
       </c>
-      <c r="N11" s="289">
+      <c r="N11" s="286">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="O11" s="333"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O11" s="381"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -6258,14 +6654,14 @@
       <c r="M12" s="40">
         <v>0.46600000000000003</v>
       </c>
-      <c r="N12" s="285">
+      <c r="N12" s="282">
         <v>0.184</v>
       </c>
-      <c r="O12" s="333" t="s">
+      <c r="O12" s="381" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="26"/>
       <c r="C13" s="62"/>
@@ -6291,12 +6687,12 @@
       <c r="M13" s="40">
         <v>0.68400000000000005</v>
       </c>
-      <c r="N13" s="285">
+      <c r="N13" s="282">
         <v>0.27100000000000002</v>
       </c>
-      <c r="O13" s="333"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="381"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="30"/>
       <c r="C14" s="63"/>
@@ -6313,7 +6709,7 @@
       <c r="J14" s="49">
         <v>132</v>
       </c>
-      <c r="K14" s="408">
+      <c r="K14" s="316">
         <v>0.33100000000000002</v>
       </c>
       <c r="L14" s="42">
@@ -6322,23 +6718,23 @@
       <c r="M14" s="42">
         <v>0.248</v>
       </c>
-      <c r="N14" s="289">
+      <c r="N14" s="286">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="O14" s="333"/>
+      <c r="O14" s="381"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="302" t="s">
+      <c r="A15" s="298" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="317" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="102" t="s">
         <v>221</v>
-      </c>
-      <c r="C15" s="409" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>219</v>
       </c>
       <c r="E15" s="101" t="s">
         <v>149</v>
@@ -6347,135 +6743,135 @@
         <v>149</v>
       </c>
       <c r="G15" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="318">
+        <v>463</v>
+      </c>
+      <c r="J15" s="294">
+        <v>463</v>
+      </c>
+      <c r="K15" s="325">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L15" s="326">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M15" s="325">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N15" s="325">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="O15" s="406" t="s">
         <v>218</v>
       </c>
-      <c r="H15" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="410">
-        <v>463</v>
-      </c>
-      <c r="J15" s="298">
-        <v>463</v>
-      </c>
-      <c r="K15" s="417">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="L15" s="418">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="M15" s="417">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="N15" s="417">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="O15" s="365" t="s">
+      <c r="Q15" s="409" t="s">
+        <v>215</v>
+      </c>
+      <c r="R15" s="409"/>
+      <c r="S15" s="409"/>
+      <c r="T15" s="409"/>
+      <c r="U15" s="409"/>
+      <c r="V15" s="409"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="298"/>
+      <c r="B16" s="297" t="s">
         <v>220</v>
       </c>
-      <c r="Q15" s="407" t="s">
-        <v>216</v>
-      </c>
-      <c r="R15" s="407"/>
-      <c r="S15" s="407"/>
-      <c r="T15" s="407"/>
-      <c r="U15" s="407"/>
-      <c r="V15" s="407"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="302"/>
-      <c r="B16" s="301" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="404"/>
+      <c r="C16" s="314"/>
       <c r="D16" s="105"/>
       <c r="E16" s="104"/>
       <c r="F16" s="104"/>
       <c r="G16" s="104"/>
-      <c r="H16" s="305" t="s">
+      <c r="H16" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="319">
         <v>331</v>
       </c>
-      <c r="J16" s="305">
+      <c r="J16" s="300">
         <v>331</v>
       </c>
-      <c r="K16" s="413">
+      <c r="K16" s="321">
         <v>0.73799999999999999</v>
       </c>
-      <c r="L16" s="414">
+      <c r="L16" s="322">
         <v>0.628</v>
       </c>
-      <c r="M16" s="413">
+      <c r="M16" s="321">
         <v>0.76</v>
       </c>
-      <c r="N16" s="413">
+      <c r="N16" s="321">
         <v>0.38200000000000001</v>
       </c>
-      <c r="O16" s="366"/>
-      <c r="Q16" s="407"/>
-      <c r="R16" s="407"/>
-      <c r="S16" s="407"/>
-      <c r="T16" s="407"/>
-      <c r="U16" s="407"/>
-      <c r="V16" s="407"/>
+      <c r="O16" s="407"/>
+      <c r="Q16" s="409"/>
+      <c r="R16" s="409"/>
+      <c r="S16" s="409"/>
+      <c r="T16" s="409"/>
+      <c r="U16" s="409"/>
+      <c r="V16" s="409"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="308"/>
+      <c r="A17" s="303"/>
       <c r="B17" s="109"/>
-      <c r="C17" s="405"/>
+      <c r="C17" s="315"/>
       <c r="D17" s="109"/>
       <c r="E17" s="108"/>
       <c r="F17" s="108"/>
       <c r="G17" s="108"/>
-      <c r="H17" s="311" t="s">
+      <c r="H17" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="412">
+      <c r="I17" s="320">
         <v>132</v>
       </c>
-      <c r="J17" s="311">
+      <c r="J17" s="305">
         <v>132</v>
       </c>
-      <c r="K17" s="415">
+      <c r="K17" s="323">
         <v>0.376</v>
       </c>
-      <c r="L17" s="416">
+      <c r="L17" s="324">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M17" s="415">
+      <c r="M17" s="323">
         <v>0.41899999999999998</v>
       </c>
-      <c r="N17" s="415">
+      <c r="N17" s="323">
         <v>0.186</v>
       </c>
-      <c r="O17" s="367"/>
-      <c r="Q17" s="407"/>
-      <c r="R17" s="407"/>
-      <c r="S17" s="407"/>
-      <c r="T17" s="407"/>
-      <c r="U17" s="407"/>
-      <c r="V17" s="407"/>
+      <c r="O17" s="408"/>
+      <c r="Q17" s="409"/>
+      <c r="R17" s="409"/>
+      <c r="S17" s="409"/>
+      <c r="T17" s="409"/>
+      <c r="U17" s="409"/>
+      <c r="V17" s="409"/>
     </row>
     <row r="18" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="334" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="335"/>
-      <c r="C18" s="335"/>
-      <c r="D18" s="335"/>
-      <c r="E18" s="335"/>
-      <c r="F18" s="335"/>
-      <c r="G18" s="335"/>
-      <c r="H18" s="335"/>
-      <c r="I18" s="335"/>
-      <c r="J18" s="335"/>
-      <c r="K18" s="335"/>
-      <c r="L18" s="335"/>
-      <c r="M18" s="335"/>
-      <c r="N18" s="335"/>
-      <c r="O18" s="335"/>
+      <c r="A18" s="382" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="383"/>
+      <c r="C18" s="383"/>
+      <c r="D18" s="383"/>
+      <c r="E18" s="383"/>
+      <c r="F18" s="383"/>
+      <c r="G18" s="383"/>
+      <c r="H18" s="383"/>
+      <c r="I18" s="383"/>
+      <c r="J18" s="383"/>
+      <c r="K18" s="383"/>
+      <c r="L18" s="383"/>
+      <c r="M18" s="383"/>
+      <c r="N18" s="383"/>
+      <c r="O18" s="383"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
@@ -6506,19 +6902,19 @@
       <c r="J19" s="45">
         <v>463</v>
       </c>
-      <c r="K19" s="271">
+      <c r="K19" s="268">
         <v>0.45100000000000001</v>
       </c>
-      <c r="L19" s="272">
+      <c r="L19" s="269">
         <v>0.68300000000000005</v>
       </c>
-      <c r="M19" s="272">
+      <c r="M19" s="269">
         <v>0.56200000000000006</v>
       </c>
-      <c r="N19" s="273">
+      <c r="N19" s="270">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O19" s="333" t="s">
+      <c r="O19" s="381" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6539,19 +6935,19 @@
       <c r="J20" s="47">
         <v>331</v>
       </c>
-      <c r="K20" s="274">
+      <c r="K20" s="271">
         <v>0.52700000000000002</v>
       </c>
-      <c r="L20" s="275">
+      <c r="L20" s="272">
         <v>0.78200000000000003</v>
       </c>
-      <c r="M20" s="275">
+      <c r="M20" s="272">
         <v>0.75800000000000001</v>
       </c>
-      <c r="N20" s="276">
+      <c r="N20" s="273">
         <v>0.38500000000000001</v>
       </c>
-      <c r="O20" s="333"/>
+      <c r="O20" s="381"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
@@ -6570,19 +6966,19 @@
       <c r="J21" s="49">
         <v>132</v>
       </c>
-      <c r="K21" s="277">
+      <c r="K21" s="274">
         <v>0.375</v>
       </c>
-      <c r="L21" s="278">
+      <c r="L21" s="275">
         <v>0.58299999999999996</v>
       </c>
-      <c r="M21" s="278">
+      <c r="M21" s="275">
         <v>0.36599999999999999</v>
       </c>
-      <c r="N21" s="279">
+      <c r="N21" s="276">
         <v>0.151</v>
       </c>
-      <c r="O21" s="333"/>
+      <c r="O21" s="381"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -6625,7 +7021,7 @@
       <c r="N22" s="236">
         <v>0.27</v>
       </c>
-      <c r="O22" s="333" t="s">
+      <c r="O22" s="381" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6658,7 +7054,7 @@
       <c r="N23" s="239">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O23" s="333"/>
+      <c r="O23" s="381"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -6689,7 +7085,7 @@
       <c r="N24" s="242">
         <v>0.159</v>
       </c>
-      <c r="O24" s="333"/>
+      <c r="O24" s="381"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -6720,7 +7116,7 @@
       <c r="J25" s="3">
         <v>463</v>
       </c>
-      <c r="K25" s="280">
+      <c r="K25" s="277">
         <v>0.35499999999999998</v>
       </c>
       <c r="L25" s="235">
@@ -6732,7 +7128,7 @@
       <c r="N25" s="236">
         <v>0.152</v>
       </c>
-      <c r="O25" s="333" t="s">
+      <c r="O25" s="381" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6753,7 +7149,7 @@
       <c r="J26" s="4">
         <v>331</v>
       </c>
-      <c r="K26" s="281">
+      <c r="K26" s="278">
         <v>0.46</v>
       </c>
       <c r="L26" s="238">
@@ -6765,7 +7161,7 @@
       <c r="N26" s="239">
         <v>0.224</v>
       </c>
-      <c r="O26" s="333"/>
+      <c r="O26" s="381"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -6784,7 +7180,7 @@
       <c r="J27" s="5">
         <v>132</v>
       </c>
-      <c r="K27" s="282">
+      <c r="K27" s="279">
         <v>0.249</v>
       </c>
       <c r="L27" s="241">
@@ -6796,7 +7192,7 @@
       <c r="N27" s="242">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="O27" s="333"/>
+      <c r="O27" s="381"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
@@ -6827,19 +7223,19 @@
       <c r="J28" s="77">
         <v>463</v>
       </c>
-      <c r="K28" s="272">
+      <c r="K28" s="269">
         <v>0.57899999999999996</v>
       </c>
-      <c r="L28" s="283">
+      <c r="L28" s="280">
         <v>0.627</v>
       </c>
-      <c r="M28" s="272">
+      <c r="M28" s="269">
         <v>0.57799999999999996</v>
       </c>
-      <c r="N28" s="273">
+      <c r="N28" s="270">
         <v>0.27900000000000003</v>
       </c>
-      <c r="O28" s="362" t="s">
+      <c r="O28" s="410" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6863,16 +7259,16 @@
       <c r="K29" s="257">
         <v>0.73899999999999999</v>
       </c>
-      <c r="L29" s="284">
+      <c r="L29" s="281">
         <v>0.57299999999999995</v>
       </c>
       <c r="M29" s="257">
         <v>0.70899999999999996</v>
       </c>
-      <c r="N29" s="285">
+      <c r="N29" s="282">
         <v>0.36699999999999999</v>
       </c>
-      <c r="O29" s="363"/>
+      <c r="O29" s="411"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
@@ -6891,19 +7287,19 @@
       <c r="J30" s="32">
         <v>132</v>
       </c>
-      <c r="K30" s="278">
+      <c r="K30" s="275">
         <v>0.41899999999999998</v>
       </c>
-      <c r="L30" s="286">
+      <c r="L30" s="283">
         <v>0.68200000000000005</v>
       </c>
-      <c r="M30" s="278">
+      <c r="M30" s="275">
         <v>0.44700000000000001</v>
       </c>
-      <c r="N30" s="279">
+      <c r="N30" s="276">
         <v>0.191</v>
       </c>
-      <c r="O30" s="364"/>
+      <c r="O30" s="412"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -6934,19 +7330,19 @@
       <c r="J31" s="77">
         <v>463</v>
       </c>
-      <c r="K31" s="272">
+      <c r="K31" s="269">
         <v>0.52600000000000002</v>
       </c>
-      <c r="L31" s="283">
+      <c r="L31" s="280">
         <v>0.60199999999999998</v>
       </c>
-      <c r="M31" s="272">
+      <c r="M31" s="269">
         <v>0.53100000000000003</v>
       </c>
-      <c r="N31" s="287">
+      <c r="N31" s="284">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O31" s="362" t="s">
+      <c r="O31" s="410" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6972,16 +7368,16 @@
       <c r="K32" s="257">
         <v>0.68500000000000005</v>
       </c>
-      <c r="L32" s="284">
+      <c r="L32" s="281">
         <v>0.628</v>
       </c>
       <c r="M32" s="257">
         <v>0.71199999999999997</v>
       </c>
-      <c r="N32" s="287">
+      <c r="N32" s="284">
         <v>0.33500000000000002</v>
       </c>
-      <c r="O32" s="363"/>
+      <c r="O32" s="411"/>
     </row>
     <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
@@ -7000,19 +7396,19 @@
       <c r="J33" s="32">
         <v>132</v>
       </c>
-      <c r="K33" s="278">
+      <c r="K33" s="275">
         <v>0.36599999999999999</v>
       </c>
-      <c r="L33" s="286">
+      <c r="L33" s="283">
         <v>0.57599999999999996</v>
       </c>
-      <c r="M33" s="278">
+      <c r="M33" s="275">
         <v>0.35</v>
       </c>
-      <c r="N33" s="287">
+      <c r="N33" s="284">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O33" s="364"/>
+      <c r="O33" s="412"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
@@ -7043,19 +7439,19 @@
       <c r="J34" s="82">
         <v>463</v>
       </c>
-      <c r="K34" s="283">
+      <c r="K34" s="280">
         <v>0.59099999999999997</v>
       </c>
-      <c r="L34" s="272">
+      <c r="L34" s="269">
         <v>0.60599999999999998</v>
       </c>
-      <c r="M34" s="283">
+      <c r="M34" s="280">
         <v>0.55600000000000005</v>
       </c>
-      <c r="N34" s="272">
+      <c r="N34" s="269">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O34" s="362" t="s">
+      <c r="O34" s="410" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7078,19 +7474,19 @@
       <c r="J35" s="84">
         <v>331</v>
       </c>
-      <c r="K35" s="284">
+      <c r="K35" s="281">
         <v>0.80900000000000005</v>
       </c>
       <c r="L35" s="257">
         <v>0.61299999999999999</v>
       </c>
-      <c r="M35" s="284">
+      <c r="M35" s="281">
         <v>0.73899999999999999</v>
       </c>
       <c r="N35" s="257">
         <v>0.33500000000000002</v>
       </c>
-      <c r="O35" s="363"/>
+      <c r="O35" s="411"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
@@ -7109,23 +7505,23 @@
       <c r="J36" s="86">
         <v>132</v>
       </c>
-      <c r="K36" s="286">
+      <c r="K36" s="283">
         <v>0.373</v>
       </c>
-      <c r="L36" s="278">
+      <c r="L36" s="275">
         <v>0.59799999999999998</v>
       </c>
-      <c r="M36" s="286">
+      <c r="M36" s="283">
         <v>0.372</v>
       </c>
-      <c r="N36" s="278">
+      <c r="N36" s="275">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O36" s="364"/>
+      <c r="O36" s="412"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="290" t="s">
-        <v>206</v>
+      <c r="A37" s="287" t="s">
+        <v>205</v>
       </c>
       <c r="B37" s="50" t="s">
         <v>42</v>
@@ -7164,7 +7560,7 @@
       <c r="N37" s="253">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O37" s="326" t="s">
+      <c r="O37" s="367" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7199,7 +7595,7 @@
       <c r="N38" s="254">
         <v>0.36499999999999999</v>
       </c>
-      <c r="O38" s="326"/>
+      <c r="O38" s="367"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
@@ -7230,7 +7626,7 @@
       <c r="N39" s="255">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O39" s="326"/>
+      <c r="O39" s="367"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
@@ -7261,19 +7657,19 @@
       <c r="J40" s="87">
         <v>463</v>
       </c>
-      <c r="K40" s="272">
+      <c r="K40" s="269">
         <v>0.61299999999999999</v>
       </c>
-      <c r="L40" s="272">
+      <c r="L40" s="269">
         <v>0.61</v>
       </c>
-      <c r="M40" s="272">
+      <c r="M40" s="269">
         <v>0.59299999999999997</v>
       </c>
-      <c r="N40" s="272">
+      <c r="N40" s="269">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O40" s="326" t="s">
+      <c r="O40" s="367" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7296,19 +7692,19 @@
       <c r="J41" s="88">
         <v>331</v>
       </c>
-      <c r="K41" s="275">
+      <c r="K41" s="272">
         <v>0.83099999999999996</v>
       </c>
-      <c r="L41" s="275">
+      <c r="L41" s="272">
         <v>0.58299999999999996</v>
       </c>
-      <c r="M41" s="275">
+      <c r="M41" s="272">
         <v>0.73599999999999999</v>
       </c>
-      <c r="N41" s="275">
+      <c r="N41" s="272">
         <v>0.378</v>
       </c>
-      <c r="O41" s="326"/>
+      <c r="O41" s="367"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
@@ -7327,19 +7723,19 @@
       <c r="J42" s="89">
         <v>132</v>
       </c>
-      <c r="K42" s="278">
+      <c r="K42" s="275">
         <v>0.39500000000000002</v>
       </c>
-      <c r="L42" s="278">
+      <c r="L42" s="275">
         <v>0.63600000000000001</v>
       </c>
-      <c r="M42" s="278">
+      <c r="M42" s="275">
         <v>0.45</v>
       </c>
-      <c r="N42" s="278">
+      <c r="N42" s="275">
         <v>0.192</v>
       </c>
-      <c r="O42" s="326"/>
+      <c r="O42" s="367"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -7370,7 +7766,7 @@
       <c r="J43" s="56">
         <v>463</v>
       </c>
-      <c r="K43" s="288">
+      <c r="K43" s="285">
         <v>0.57799999999999996</v>
       </c>
       <c r="L43" s="235">
@@ -7382,7 +7778,7 @@
       <c r="N43" s="236">
         <v>0.28599999999999998</v>
       </c>
-      <c r="O43" s="326" t="s">
+      <c r="O43" s="367" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7415,7 +7811,7 @@
       <c r="N44" s="239">
         <v>0.38900000000000001</v>
       </c>
-      <c r="O44" s="326"/>
+      <c r="O44" s="367"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
@@ -7446,7 +7842,7 @@
       <c r="N45" s="242">
         <v>0.183</v>
       </c>
-      <c r="O45" s="326"/>
+      <c r="O45" s="367"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -7489,7 +7885,7 @@
       <c r="N46" s="253">
         <v>0.28699999999999998</v>
       </c>
-      <c r="O46" s="362" t="s">
+      <c r="O46" s="410" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7522,7 +7918,7 @@
       <c r="N47" s="254">
         <v>0.38</v>
       </c>
-      <c r="O47" s="363"/>
+      <c r="O47" s="411"/>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
@@ -7553,26 +7949,26 @@
       <c r="N48" s="264">
         <v>0.19500000000000001</v>
       </c>
-      <c r="O48" s="364"/>
+      <c r="O48" s="412"/>
     </row>
     <row r="49" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="334" t="s">
+      <c r="A49" s="386" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="335"/>
-      <c r="C49" s="335"/>
-      <c r="D49" s="335"/>
-      <c r="E49" s="335"/>
-      <c r="F49" s="335"/>
-      <c r="G49" s="335"/>
-      <c r="H49" s="335"/>
-      <c r="I49" s="335"/>
-      <c r="J49" s="335"/>
-      <c r="K49" s="335"/>
-      <c r="L49" s="335"/>
-      <c r="M49" s="335"/>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
+      <c r="B49" s="387"/>
+      <c r="C49" s="387"/>
+      <c r="D49" s="387"/>
+      <c r="E49" s="387"/>
+      <c r="F49" s="387"/>
+      <c r="G49" s="387"/>
+      <c r="H49" s="387"/>
+      <c r="I49" s="387"/>
+      <c r="J49" s="387"/>
+      <c r="K49" s="387"/>
+      <c r="L49" s="387"/>
+      <c r="M49" s="387"/>
+      <c r="N49" s="387"/>
+      <c r="O49" s="387"/>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -7617,7 +8013,7 @@
       <c r="N50" s="236">
         <v>0.27600000000000002</v>
       </c>
-      <c r="O50" s="343" t="s">
+      <c r="O50" s="364" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7650,7 +8046,7 @@
       <c r="N51" s="239">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O51" s="344"/>
+      <c r="O51" s="365"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
@@ -7681,7 +8077,7 @@
       <c r="N52" s="242">
         <v>0.19</v>
       </c>
-      <c r="O52" s="345"/>
+      <c r="O52" s="366"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
@@ -7726,7 +8122,7 @@
       <c r="N53" s="263">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O53" s="320" t="s">
+      <c r="O53" s="369" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7759,7 +8155,7 @@
       <c r="N54" s="254">
         <v>0.378</v>
       </c>
-      <c r="O54" s="338"/>
+      <c r="O54" s="388"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
@@ -7790,116 +8186,116 @@
       <c r="N55" s="264">
         <v>0.16900000000000001</v>
       </c>
-      <c r="O55" s="339"/>
+      <c r="O55" s="389"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="102" t="s">
+      <c r="D56" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="101" t="s">
+      <c r="F56" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G56" s="101" t="s">
+      <c r="G56" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="H56" s="103" t="s">
+      <c r="H56" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="103">
+      <c r="I56" s="87">
         <v>463</v>
       </c>
-      <c r="J56" s="103">
+      <c r="J56" s="87">
         <v>463</v>
       </c>
-      <c r="K56" s="265">
+      <c r="K56" s="340">
         <v>0.626</v>
       </c>
-      <c r="L56" s="265">
+      <c r="L56" s="340">
         <v>0.64800000000000002</v>
       </c>
-      <c r="M56" s="265">
+      <c r="M56" s="340">
         <v>0.63500000000000001</v>
       </c>
-      <c r="N56" s="265">
+      <c r="N56" s="340">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O56" s="340" t="s">
+      <c r="O56" s="361" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="104"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="107" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="107">
+      <c r="I57" s="88">
         <v>331</v>
       </c>
-      <c r="J57" s="107">
+      <c r="J57" s="88">
         <v>331</v>
       </c>
-      <c r="K57" s="266">
+      <c r="K57" s="341">
         <v>0.752</v>
       </c>
-      <c r="L57" s="266">
+      <c r="L57" s="341">
         <v>0.68300000000000005</v>
       </c>
-      <c r="M57" s="266">
+      <c r="M57" s="341">
         <v>0.78800000000000003</v>
       </c>
-      <c r="N57" s="266">
+      <c r="N57" s="341">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O57" s="341"/>
+      <c r="O57" s="362"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="111" t="s">
+      <c r="A58" s="31"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I58" s="111">
+      <c r="I58" s="89">
         <v>132</v>
       </c>
-      <c r="J58" s="111">
+      <c r="J58" s="89">
         <v>132</v>
       </c>
-      <c r="K58" s="267">
+      <c r="K58" s="342">
         <v>0.5</v>
       </c>
-      <c r="L58" s="267">
+      <c r="L58" s="342">
         <v>0.61199999999999999</v>
       </c>
-      <c r="M58" s="267">
+      <c r="M58" s="342">
         <v>0.48099999999999998</v>
       </c>
-      <c r="N58" s="267">
+      <c r="N58" s="342">
         <v>0.19700000000000001</v>
       </c>
-      <c r="O58" s="342"/>
+      <c r="O58" s="363"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
@@ -7914,8 +8310,8 @@
       <c r="D59" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="324" t="s">
-        <v>215</v>
+      <c r="E59" s="373" t="s">
+        <v>214</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>149</v>
@@ -7944,7 +8340,7 @@
       <c r="N59" s="253">
         <v>0.27900000000000003</v>
       </c>
-      <c r="O59" s="346" t="s">
+      <c r="O59" s="394" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7955,7 +8351,7 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="90"/>
-      <c r="E60" s="325"/>
+      <c r="E60" s="374"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="57" t="s">
@@ -7979,7 +8375,7 @@
       <c r="N60" s="254">
         <v>0.378</v>
       </c>
-      <c r="O60" s="347"/>
+      <c r="O60" s="395"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
@@ -8010,7 +8406,7 @@
       <c r="N61" s="255">
         <v>0.18</v>
       </c>
-      <c r="O61" s="348"/>
+      <c r="O61" s="396"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
@@ -8055,7 +8451,7 @@
       <c r="N62" s="253">
         <v>0.27600000000000002</v>
       </c>
-      <c r="O62" s="336" t="s">
+      <c r="O62" s="384" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8090,7 +8486,7 @@
       <c r="N63" s="254">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O63" s="337"/>
+      <c r="O63" s="385"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
@@ -8121,7 +8517,7 @@
       <c r="N64" s="255">
         <v>0.16700000000000001</v>
       </c>
-      <c r="O64" s="337"/>
+      <c r="O64" s="385"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
@@ -8154,19 +8550,19 @@
       <c r="J65" s="112">
         <v>463</v>
       </c>
-      <c r="K65" s="268">
+      <c r="K65" s="265">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L65" s="268">
+      <c r="L65" s="265">
         <v>0.60199999999999998</v>
       </c>
-      <c r="M65" s="268">
+      <c r="M65" s="265">
         <v>0.59899999999999998</v>
       </c>
-      <c r="N65" s="268">
+      <c r="N65" s="265">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O65" s="336" t="s">
+      <c r="O65" s="384" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8189,19 +8585,19 @@
       <c r="J66" s="113">
         <v>331</v>
       </c>
-      <c r="K66" s="269">
+      <c r="K66" s="266">
         <v>0.69799999999999995</v>
       </c>
-      <c r="L66" s="269">
+      <c r="L66" s="266">
         <v>0.68500000000000005</v>
       </c>
-      <c r="M66" s="269">
+      <c r="M66" s="266">
         <v>0.76</v>
       </c>
-      <c r="N66" s="269">
+      <c r="N66" s="266">
         <v>0.38400000000000001</v>
       </c>
-      <c r="O66" s="337"/>
+      <c r="O66" s="385"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
@@ -8222,40 +8618,40 @@
       <c r="J67" s="114">
         <v>132</v>
       </c>
-      <c r="K67" s="270">
+      <c r="K67" s="267">
         <v>0.41899999999999998</v>
       </c>
-      <c r="L67" s="270">
+      <c r="L67" s="267">
         <v>0.51800000000000002</v>
       </c>
-      <c r="M67" s="270">
+      <c r="M67" s="267">
         <v>0.439</v>
       </c>
-      <c r="N67" s="270">
+      <c r="N67" s="267">
         <v>0.185</v>
       </c>
-      <c r="O67" s="337"/>
+      <c r="O67" s="385"/>
     </row>
     <row r="68" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="352" t="s">
+      <c r="A68" s="399" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="353"/>
-      <c r="C68" s="353"/>
-      <c r="D68" s="353"/>
-      <c r="E68" s="353"/>
-      <c r="F68" s="353"/>
-      <c r="G68" s="353"/>
-      <c r="H68" s="353"/>
-      <c r="I68" s="353"/>
-      <c r="J68" s="353"/>
-      <c r="K68" s="353"/>
-      <c r="L68" s="353"/>
-      <c r="M68" s="353"/>
-      <c r="N68" s="353"/>
-      <c r="O68" s="354"/>
-    </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="400"/>
+      <c r="C68" s="400"/>
+      <c r="D68" s="400"/>
+      <c r="E68" s="400"/>
+      <c r="F68" s="400"/>
+      <c r="G68" s="400"/>
+      <c r="H68" s="400"/>
+      <c r="I68" s="400"/>
+      <c r="J68" s="400"/>
+      <c r="K68" s="400"/>
+      <c r="L68" s="400"/>
+      <c r="M68" s="400"/>
+      <c r="N68" s="400"/>
+      <c r="O68" s="401"/>
+    </row>
+    <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
         <v>8</v>
       </c>
@@ -8298,11 +8694,11 @@
       <c r="N69" s="259">
         <v>0.126</v>
       </c>
-      <c r="O69" s="357" t="s">
+      <c r="O69" s="404" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="120"/>
       <c r="B70" s="121" t="s">
         <v>80</v>
@@ -8333,9 +8729,9 @@
       <c r="N70" s="260">
         <v>0.20699999999999999</v>
       </c>
-      <c r="O70" s="358"/>
-    </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="405"/>
+    </row>
+    <row r="71" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="124"/>
       <c r="B71" s="125"/>
       <c r="C71" s="125"/>
@@ -8364,9 +8760,9 @@
       <c r="N71" s="261">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="O71" s="358"/>
-    </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="405"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="116" t="s">
         <v>8</v>
       </c>
@@ -8409,11 +8805,11 @@
       <c r="N72" s="260">
         <v>0.112</v>
       </c>
-      <c r="O72" s="357" t="s">
+      <c r="O72" s="404" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="120"/>
       <c r="B73" s="121" t="s">
         <v>95</v>
@@ -8446,9 +8842,9 @@
       <c r="N73" s="260">
         <v>0.19800000000000001</v>
       </c>
-      <c r="O73" s="358"/>
-    </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="405"/>
+    </row>
+    <row r="74" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="124"/>
       <c r="B74" s="125"/>
       <c r="C74" s="125"/>
@@ -8477,9 +8873,9 @@
       <c r="N74" s="260">
         <v>2.69E-2</v>
       </c>
-      <c r="O74" s="358"/>
-    </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="405"/>
+    </row>
+    <row r="75" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="116" t="s">
         <v>8</v>
       </c>
@@ -8522,11 +8918,11 @@
       <c r="N75" s="259">
         <v>0.107</v>
       </c>
-      <c r="O75" s="357" t="s">
+      <c r="O75" s="404" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="120"/>
       <c r="B76" s="121" t="s">
         <v>84</v>
@@ -8557,9 +8953,9 @@
       <c r="N76" s="260">
         <v>0.189</v>
       </c>
-      <c r="O76" s="358"/>
-    </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="405"/>
+    </row>
+    <row r="77" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="124"/>
       <c r="B77" s="125"/>
       <c r="C77" s="125"/>
@@ -8588,9 +8984,9 @@
       <c r="N77" s="261">
         <v>2.53E-2</v>
       </c>
-      <c r="O77" s="358"/>
-    </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="405"/>
+    </row>
+    <row r="78" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="116" t="s">
         <v>8</v>
       </c>
@@ -8633,11 +9029,11 @@
       <c r="N78" s="259">
         <v>0.128</v>
       </c>
-      <c r="O78" s="357" t="s">
+      <c r="O78" s="404" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120"/>
       <c r="B79" s="121" t="s">
         <v>88</v>
@@ -8670,9 +9066,9 @@
       <c r="N79" s="260">
         <v>0.20799999999999999</v>
       </c>
-      <c r="O79" s="358"/>
-    </row>
-    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="405"/>
+    </row>
+    <row r="80" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="124"/>
       <c r="B80" s="125"/>
       <c r="C80" s="125"/>
@@ -8701,9 +9097,9 @@
       <c r="N80" s="261">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="O80" s="358"/>
-    </row>
-    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="405"/>
+    </row>
+    <row r="81" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="116" t="s">
         <v>8</v>
       </c>
@@ -8746,17 +9142,17 @@
       <c r="N81" s="259">
         <v>0.14399999999999999</v>
       </c>
-      <c r="O81" s="357" t="s">
+      <c r="O81" s="404" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="120"/>
       <c r="B82" s="121" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="122"/>
-      <c r="D82" s="356" t="s">
+      <c r="D82" s="403" t="s">
         <v>94</v>
       </c>
       <c r="E82" s="120"/>
@@ -8783,13 +9179,13 @@
       <c r="N82" s="260">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O82" s="358"/>
-    </row>
-    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="405"/>
+    </row>
+    <row r="83" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="124"/>
       <c r="B83" s="125"/>
       <c r="C83" s="125"/>
-      <c r="D83" s="322"/>
+      <c r="D83" s="371"/>
       <c r="E83" s="124"/>
       <c r="F83" s="124"/>
       <c r="G83" s="124"/>
@@ -8814,28 +9210,28 @@
       <c r="N83" s="249">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="O83" s="358"/>
+      <c r="O83" s="405"/>
     </row>
     <row r="84" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="355" t="s">
-        <v>205</v>
-      </c>
-      <c r="B84" s="353"/>
-      <c r="C84" s="353"/>
-      <c r="D84" s="353"/>
-      <c r="E84" s="353"/>
-      <c r="F84" s="353"/>
-      <c r="G84" s="353"/>
-      <c r="H84" s="353"/>
-      <c r="I84" s="353"/>
-      <c r="J84" s="353"/>
-      <c r="K84" s="353"/>
-      <c r="L84" s="353"/>
-      <c r="M84" s="353"/>
-      <c r="N84" s="353"/>
-      <c r="O84" s="353"/>
-    </row>
-    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="402" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="400"/>
+      <c r="C84" s="400"/>
+      <c r="D84" s="400"/>
+      <c r="E84" s="400"/>
+      <c r="F84" s="400"/>
+      <c r="G84" s="400"/>
+      <c r="H84" s="400"/>
+      <c r="I84" s="400"/>
+      <c r="J84" s="400"/>
+      <c r="K84" s="400"/>
+      <c r="L84" s="400"/>
+      <c r="M84" s="400"/>
+      <c r="N84" s="400"/>
+      <c r="O84" s="400"/>
+    </row>
+    <row r="85" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="67" t="s">
         <v>96</v>
       </c>
@@ -8866,24 +9262,24 @@
       <c r="J85" s="87">
         <v>463</v>
       </c>
-      <c r="K85" s="291">
+      <c r="K85" s="288">
         <v>0.56399999999999995</v>
       </c>
-      <c r="L85" s="291">
+      <c r="L85" s="288">
         <v>0.63400000000000001</v>
       </c>
-      <c r="M85" s="291">
+      <c r="M85" s="288">
         <v>0.59099999999999997</v>
       </c>
-      <c r="N85" s="291">
+      <c r="N85" s="288">
         <v>0.28199999999999997</v>
       </c>
-      <c r="O85" s="359" t="s">
+      <c r="O85" s="361" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="349" t="s">
+    <row r="86" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="397" t="s">
         <v>97</v>
       </c>
       <c r="B86" s="69" t="s">
@@ -8903,22 +9299,22 @@
       <c r="J86" s="88">
         <v>331</v>
       </c>
-      <c r="K86" s="292">
+      <c r="K86" s="289">
         <v>0.74399999999999999</v>
       </c>
-      <c r="L86" s="292">
+      <c r="L86" s="289">
         <v>0.67400000000000004</v>
       </c>
-      <c r="M86" s="292">
+      <c r="M86" s="289">
         <v>0.75800000000000001</v>
       </c>
-      <c r="N86" s="292">
+      <c r="N86" s="289">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O86" s="360"/>
-    </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="350"/>
+      <c r="O86" s="362"/>
+    </row>
+    <row r="87" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="398"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
@@ -8934,40 +9330,40 @@
       <c r="J87" s="89">
         <v>132</v>
       </c>
-      <c r="K87" s="293">
+      <c r="K87" s="290">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L87" s="293">
+      <c r="L87" s="290">
         <v>0.59399999999999997</v>
       </c>
-      <c r="M87" s="293">
+      <c r="M87" s="290">
         <v>0.42399999999999999</v>
       </c>
-      <c r="N87" s="293">
+      <c r="N87" s="290">
         <v>0.183</v>
       </c>
-      <c r="O87" s="361"/>
+      <c r="O87" s="363"/>
     </row>
     <row r="88" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="355" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" s="353"/>
-      <c r="C88" s="353"/>
-      <c r="D88" s="353"/>
-      <c r="E88" s="353"/>
-      <c r="F88" s="353"/>
-      <c r="G88" s="353"/>
-      <c r="H88" s="353"/>
-      <c r="I88" s="353"/>
-      <c r="J88" s="353"/>
-      <c r="K88" s="353"/>
-      <c r="L88" s="353"/>
-      <c r="M88" s="353"/>
-      <c r="N88" s="353"/>
-      <c r="O88" s="353"/>
-    </row>
-    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="402" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="400"/>
+      <c r="C88" s="400"/>
+      <c r="D88" s="400"/>
+      <c r="E88" s="400"/>
+      <c r="F88" s="400"/>
+      <c r="G88" s="400"/>
+      <c r="H88" s="400"/>
+      <c r="I88" s="400"/>
+      <c r="J88" s="400"/>
+      <c r="K88" s="400"/>
+      <c r="L88" s="400"/>
+      <c r="M88" s="400"/>
+      <c r="N88" s="400"/>
+      <c r="O88" s="400"/>
+    </row>
+    <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="67" t="s">
         <v>8</v>
       </c>
@@ -9010,11 +9406,11 @@
       <c r="N89" s="256">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O89" s="326" t="s">
+      <c r="O89" s="367" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90" s="69"/>
       <c r="C90" s="26"/>
@@ -9043,9 +9439,9 @@
       <c r="N90" s="257">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O90" s="351"/>
-    </row>
-    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="368"/>
+    </row>
+    <row r="91" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31"/>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
@@ -9074,26 +9470,26 @@
       <c r="N91" s="258">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O91" s="351"/>
+      <c r="O91" s="368"/>
     </row>
     <row r="92" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="327" t="s">
+      <c r="A92" s="375" t="s">
         <v>175</v>
       </c>
-      <c r="B92" s="328"/>
-      <c r="C92" s="328"/>
-      <c r="D92" s="328"/>
-      <c r="E92" s="328"/>
-      <c r="F92" s="328"/>
-      <c r="G92" s="328"/>
-      <c r="H92" s="328"/>
-      <c r="I92" s="328"/>
-      <c r="J92" s="328"/>
-      <c r="K92" s="328"/>
-      <c r="L92" s="328"/>
-      <c r="M92" s="328"/>
-      <c r="N92" s="328"/>
-      <c r="O92" s="328"/>
+      <c r="B92" s="376"/>
+      <c r="C92" s="376"/>
+      <c r="D92" s="376"/>
+      <c r="E92" s="376"/>
+      <c r="F92" s="376"/>
+      <c r="G92" s="376"/>
+      <c r="H92" s="376"/>
+      <c r="I92" s="376"/>
+      <c r="J92" s="376"/>
+      <c r="K92" s="376"/>
+      <c r="L92" s="376"/>
+      <c r="M92" s="376"/>
+      <c r="N92" s="376"/>
+      <c r="O92" s="376"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
@@ -9138,7 +9534,7 @@
       <c r="N93" s="253">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O93" s="326" t="s">
+      <c r="O93" s="367" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9173,7 +9569,7 @@
       <c r="N94" s="254">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O94" s="351"/>
+      <c r="O94" s="368"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
@@ -9204,7 +9600,7 @@
       <c r="N95" s="255">
         <v>0.17</v>
       </c>
-      <c r="O95" s="351"/>
+      <c r="O95" s="368"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
@@ -9249,7 +9645,7 @@
       <c r="N96" s="253">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O96" s="326" t="s">
+      <c r="O96" s="367" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9284,7 +9680,7 @@
       <c r="N97" s="254">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O97" s="351"/>
+      <c r="O97" s="368"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
@@ -9315,28 +9711,28 @@
       <c r="N98" s="255">
         <v>0.17599999999999999</v>
       </c>
-      <c r="O98" s="351"/>
+      <c r="O98" s="368"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="369" t="s">
+      <c r="A99" s="390" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="368"/>
-      <c r="C99" s="368"/>
-      <c r="D99" s="368"/>
-      <c r="E99" s="368"/>
-      <c r="F99" s="368"/>
-      <c r="G99" s="368"/>
-      <c r="H99" s="368"/>
-      <c r="I99" s="368"/>
-      <c r="J99" s="368"/>
-      <c r="K99" s="368"/>
-      <c r="L99" s="368"/>
-      <c r="M99" s="368"/>
-      <c r="N99" s="368"/>
-      <c r="O99" s="368"/>
-    </row>
-    <row r="100" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="391"/>
+      <c r="C99" s="391"/>
+      <c r="D99" s="391"/>
+      <c r="E99" s="391"/>
+      <c r="F99" s="391"/>
+      <c r="G99" s="391"/>
+      <c r="H99" s="391"/>
+      <c r="I99" s="391"/>
+      <c r="J99" s="391"/>
+      <c r="K99" s="391"/>
+      <c r="L99" s="391"/>
+      <c r="M99" s="391"/>
+      <c r="N99" s="391"/>
+      <c r="O99" s="391"/>
+    </row>
+    <row r="100" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="207" t="s">
         <v>134</v>
       </c>
@@ -9368,153 +9764,153 @@
       <c r="O100" s="203"/>
     </row>
     <row r="101" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="355" t="s">
+      <c r="A101" s="415" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="416"/>
+      <c r="C101" s="416"/>
+      <c r="D101" s="416"/>
+      <c r="E101" s="416"/>
+      <c r="F101" s="416"/>
+      <c r="G101" s="416"/>
+      <c r="H101" s="416"/>
+      <c r="I101" s="416"/>
+      <c r="J101" s="416"/>
+      <c r="K101" s="416"/>
+      <c r="L101" s="416"/>
+      <c r="M101" s="416"/>
+      <c r="N101" s="416"/>
+      <c r="O101" s="416"/>
+    </row>
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="E102" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G102" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="H102" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" s="103">
+        <v>463</v>
+      </c>
+      <c r="J102" s="103">
+        <v>463</v>
+      </c>
+      <c r="K102" s="337">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="L102" s="337">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M102" s="337">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N102" s="337">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O102" s="392" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="104"/>
+      <c r="B103" s="297" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="104"/>
+      <c r="F103" s="104"/>
+      <c r="G103" s="104"/>
+      <c r="H103" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="107">
+        <v>331</v>
+      </c>
+      <c r="J103" s="107">
+        <v>331</v>
+      </c>
+      <c r="K103" s="338">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="L103" s="338">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="M103" s="338">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="N103" s="338">
+        <v>0.36</v>
+      </c>
+      <c r="O103" s="393"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="108"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="111">
+        <v>132</v>
+      </c>
+      <c r="J104" s="111">
+        <v>132</v>
+      </c>
+      <c r="K104" s="339">
+        <v>0.375</v>
+      </c>
+      <c r="L104" s="339">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M104" s="339">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="N104" s="339">
+        <v>0.186</v>
+      </c>
+      <c r="O104" s="393"/>
+    </row>
+    <row r="105" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="413" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="406"/>
-      <c r="C101" s="406"/>
-      <c r="D101" s="406"/>
-      <c r="E101" s="406"/>
-      <c r="F101" s="406"/>
-      <c r="G101" s="406"/>
-      <c r="H101" s="406"/>
-      <c r="I101" s="406"/>
-      <c r="J101" s="406"/>
-      <c r="K101" s="406"/>
-      <c r="L101" s="406"/>
-      <c r="M101" s="406"/>
-      <c r="N101" s="406"/>
-      <c r="O101" s="406"/>
-    </row>
-    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G102" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H102" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="56">
-        <v>463</v>
-      </c>
-      <c r="J102" s="56">
-        <v>463</v>
-      </c>
-      <c r="K102" s="253">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L102" s="253">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="M102" s="253">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="N102" s="253">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="O102" s="326" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="B103" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" s="226"/>
-      <c r="D103" s="226"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I103" s="57">
-        <v>331</v>
-      </c>
-      <c r="J103" s="57">
-        <v>331</v>
-      </c>
-      <c r="K103" s="254">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="L103" s="254">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="M103" s="254">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="N103" s="254">
-        <v>0.36</v>
-      </c>
-      <c r="O103" s="351"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="227"/>
-      <c r="C104" s="227"/>
-      <c r="D104" s="227"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I104" s="58">
-        <v>132</v>
-      </c>
-      <c r="J104" s="58">
-        <v>132</v>
-      </c>
-      <c r="K104" s="255">
-        <v>0.375</v>
-      </c>
-      <c r="L104" s="255">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="M104" s="255">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="N104" s="255">
-        <v>0.186</v>
-      </c>
-      <c r="O104" s="351"/>
-    </row>
-    <row r="105" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="355" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="353"/>
-      <c r="C105" s="353"/>
-      <c r="D105" s="353"/>
-      <c r="E105" s="353"/>
-      <c r="F105" s="353"/>
-      <c r="G105" s="353"/>
-      <c r="H105" s="353"/>
-      <c r="I105" s="353"/>
-      <c r="J105" s="353"/>
-      <c r="K105" s="353"/>
-      <c r="L105" s="353"/>
-      <c r="M105" s="353"/>
-      <c r="N105" s="353"/>
-      <c r="O105" s="353"/>
+      <c r="B105" s="414"/>
+      <c r="C105" s="414"/>
+      <c r="D105" s="414"/>
+      <c r="E105" s="414"/>
+      <c r="F105" s="414"/>
+      <c r="G105" s="414"/>
+      <c r="H105" s="414"/>
+      <c r="I105" s="414"/>
+      <c r="J105" s="414"/>
+      <c r="K105" s="414"/>
+      <c r="L105" s="414"/>
+      <c r="M105" s="414"/>
+      <c r="N105" s="414"/>
+      <c r="O105" s="414"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
@@ -9559,7 +9955,7 @@
       <c r="N106" s="250">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O106" s="320" t="s">
+      <c r="O106" s="369" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9594,7 +9990,7 @@
       <c r="N107" s="251">
         <v>0.372</v>
       </c>
-      <c r="O107" s="321"/>
+      <c r="O107" s="370"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
@@ -9625,121 +10021,121 @@
       <c r="N108" s="252">
         <v>0.219</v>
       </c>
-      <c r="O108" s="322"/>
+      <c r="O108" s="371"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="102" t="s">
+      <c r="B109" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C109" s="102" t="s">
+      <c r="C109" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="D109" s="102" t="s">
+      <c r="D109" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="E109" s="101" t="s">
+      <c r="E109" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="F109" s="101" t="s">
+      <c r="F109" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G109" s="295" t="s">
+      <c r="G109" s="327" t="s">
         <v>176</v>
       </c>
-      <c r="H109" s="296" t="s">
+      <c r="H109" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I109" s="297">
+      <c r="I109" s="328">
         <v>463</v>
       </c>
-      <c r="J109" s="298">
+      <c r="J109" s="77">
         <v>463</v>
       </c>
-      <c r="K109" s="299">
+      <c r="K109" s="329">
         <v>0.67500000000000004</v>
       </c>
-      <c r="L109" s="299">
+      <c r="L109" s="329">
         <v>0.60099999999999998</v>
       </c>
-      <c r="M109" s="299">
+      <c r="M109" s="329">
         <v>0.64600000000000002</v>
       </c>
-      <c r="N109" s="300">
+      <c r="N109" s="330">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O109" s="365" t="s">
+      <c r="O109" s="410" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
-      <c r="B110" s="301" t="s">
+      <c r="B110" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="C110" s="105"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="104"/>
-      <c r="F110" s="104"/>
-      <c r="G110" s="302"/>
-      <c r="H110" s="303" t="s">
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I110" s="304">
+      <c r="I110" s="331">
         <v>331</v>
       </c>
-      <c r="J110" s="305">
+      <c r="J110" s="28">
         <v>331</v>
       </c>
-      <c r="K110" s="306">
+      <c r="K110" s="332">
         <v>0.82299999999999995</v>
       </c>
-      <c r="L110" s="306">
+      <c r="L110" s="332">
         <v>0.63400000000000001</v>
       </c>
-      <c r="M110" s="306">
+      <c r="M110" s="332">
         <v>0.77700000000000002</v>
       </c>
-      <c r="N110" s="307">
+      <c r="N110" s="333">
         <v>0.39</v>
       </c>
-      <c r="O110" s="366"/>
+      <c r="O110" s="411"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="308"/>
-      <c r="H111" s="309" t="s">
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I111" s="310">
+      <c r="I111" s="334">
         <v>132</v>
       </c>
-      <c r="J111" s="311">
+      <c r="J111" s="32">
         <v>132</v>
       </c>
-      <c r="K111" s="312">
+      <c r="K111" s="335">
         <v>0.52700000000000002</v>
       </c>
-      <c r="L111" s="312">
+      <c r="L111" s="335">
         <v>0.56799999999999995</v>
       </c>
-      <c r="M111" s="312">
+      <c r="M111" s="335">
         <v>0.51500000000000001</v>
       </c>
-      <c r="N111" s="313">
+      <c r="N111" s="336">
         <v>0.22</v>
       </c>
-      <c r="O111" s="367"/>
+      <c r="O111" s="412"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="101" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="102" t="s">
@@ -9757,119 +10153,119 @@
       <c r="F112" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="G112" s="295" t="s">
+      <c r="G112" s="292" t="s">
         <v>137</v>
       </c>
-      <c r="H112" s="296" t="s">
+      <c r="H112" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="I112" s="314">
+      <c r="I112" s="308">
         <v>463</v>
       </c>
-      <c r="J112" s="315">
+      <c r="J112" s="309">
         <v>463</v>
       </c>
-      <c r="K112" s="299">
+      <c r="K112" s="295">
         <v>0.65600000000000003</v>
       </c>
-      <c r="L112" s="299">
+      <c r="L112" s="295">
         <v>0.60799999999999998</v>
       </c>
-      <c r="M112" s="299">
+      <c r="M112" s="295">
         <v>0.64200000000000002</v>
       </c>
-      <c r="N112" s="300">
+      <c r="N112" s="296">
         <v>0.312</v>
       </c>
-      <c r="O112" s="365" t="s">
-        <v>210</v>
+      <c r="O112" s="406" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
-      <c r="B113" s="301" t="s">
+      <c r="A113" s="104"/>
+      <c r="B113" s="297" t="s">
         <v>197</v>
       </c>
       <c r="C113" s="105"/>
       <c r="D113" s="105"/>
       <c r="E113" s="104"/>
       <c r="F113" s="104"/>
-      <c r="G113" s="302"/>
-      <c r="H113" s="303" t="s">
+      <c r="G113" s="298"/>
+      <c r="H113" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I113" s="316">
+      <c r="I113" s="310">
         <v>331</v>
       </c>
-      <c r="J113" s="317">
+      <c r="J113" s="311">
         <v>331</v>
       </c>
-      <c r="K113" s="306">
+      <c r="K113" s="301">
         <v>0.77500000000000002</v>
       </c>
-      <c r="L113" s="306">
+      <c r="L113" s="301">
         <v>0.65600000000000003</v>
       </c>
-      <c r="M113" s="306">
+      <c r="M113" s="301">
         <v>0.76300000000000001</v>
       </c>
-      <c r="N113" s="307">
+      <c r="N113" s="302">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O113" s="366"/>
+      <c r="O113" s="407"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
+      <c r="A114" s="108"/>
       <c r="B114" s="109"/>
       <c r="C114" s="109"/>
       <c r="D114" s="109"/>
       <c r="E114" s="108"/>
       <c r="F114" s="108"/>
-      <c r="G114" s="308"/>
-      <c r="H114" s="309" t="s">
+      <c r="G114" s="303"/>
+      <c r="H114" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="I114" s="318">
+      <c r="I114" s="312">
         <v>132</v>
       </c>
-      <c r="J114" s="319">
+      <c r="J114" s="313">
         <v>132</v>
       </c>
-      <c r="K114" s="312">
+      <c r="K114" s="306">
         <v>0.53600000000000003</v>
       </c>
-      <c r="L114" s="312">
+      <c r="L114" s="306">
         <v>0.56100000000000005</v>
       </c>
-      <c r="M114" s="312">
+      <c r="M114" s="306">
         <v>0.52100000000000002</v>
       </c>
-      <c r="N114" s="313">
+      <c r="N114" s="307">
         <v>0.23100000000000001</v>
       </c>
-      <c r="O114" s="367"/>
+      <c r="O114" s="408"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F115" s="19" t="s">
         <v>149</v>
       </c>
       <c r="G115" s="229" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H115" s="230" t="s">
         <v>0</v>
@@ -9880,7 +10276,7 @@
       <c r="J115" s="244">
         <v>463</v>
       </c>
-      <c r="K115" s="294">
+      <c r="K115" s="291">
         <v>0.55400000000000005</v>
       </c>
       <c r="L115" s="235">
@@ -9892,14 +10288,14 @@
       <c r="N115" s="236">
         <v>0.30099999999999999</v>
       </c>
-      <c r="O115" s="320" t="s">
-        <v>209</v>
+      <c r="O115" s="369" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C116" s="233"/>
       <c r="D116" s="233"/>
@@ -9927,7 +10323,7 @@
       <c r="N116" s="239">
         <v>0.38400000000000001</v>
       </c>
-      <c r="O116" s="321"/>
+      <c r="O116" s="370"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
@@ -9958,10 +10354,14 @@
       <c r="N117" s="242">
         <v>0.219</v>
       </c>
-      <c r="O117" s="322"/>
+      <c r="O117" s="371"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A101:O101"/>
+    <mergeCell ref="O78:O80"/>
+    <mergeCell ref="O72:O74"/>
     <mergeCell ref="O15:O17"/>
     <mergeCell ref="Q15:V17"/>
     <mergeCell ref="O115:O117"/>
@@ -9976,27 +10376,6 @@
     <mergeCell ref="O34:O36"/>
     <mergeCell ref="O109:O111"/>
     <mergeCell ref="O112:O114"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A101:O101"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="O102:O104"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="O96:O98"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="O89:O91"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="O75:O77"/>
-    <mergeCell ref="O78:O80"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="O93:O95"/>
-    <mergeCell ref="O106:O108"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="O37:O39"/>
@@ -10010,8 +10389,25 @@
     <mergeCell ref="O62:O64"/>
     <mergeCell ref="A49:O49"/>
     <mergeCell ref="O53:O55"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="O65:O67"/>
     <mergeCell ref="O56:O58"/>
     <mergeCell ref="O50:O52"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="O93:O95"/>
+    <mergeCell ref="O106:O108"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="O102:O104"/>
+    <mergeCell ref="O96:O98"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="O75:O77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10023,11 +10419,445 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:O13"/>
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="58.42578125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="343"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="372" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="377" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="379"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="347" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="103">
+        <v>463</v>
+      </c>
+      <c r="J3" s="103">
+        <v>463</v>
+      </c>
+      <c r="K3" s="352">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="L3" s="352">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M3" s="352">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N3" s="352">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O3" s="392" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
+      <c r="B4" s="297"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="107">
+        <v>331</v>
+      </c>
+      <c r="J4" s="107">
+        <v>331</v>
+      </c>
+      <c r="K4" s="353">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="L4" s="353">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="M4" s="353">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="N4" s="353">
+        <v>0.36</v>
+      </c>
+      <c r="O4" s="393"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="111">
+        <v>132</v>
+      </c>
+      <c r="J5" s="111">
+        <v>132</v>
+      </c>
+      <c r="K5" s="354">
+        <v>0.375</v>
+      </c>
+      <c r="L5" s="354">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M5" s="354">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="N5" s="354">
+        <v>0.186</v>
+      </c>
+      <c r="O5" s="393"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="298" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="346" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="317" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="344" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="345">
+        <v>463</v>
+      </c>
+      <c r="J6" s="103">
+        <v>463</v>
+      </c>
+      <c r="K6" s="360">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L6" s="360">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M6" s="360">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N6" s="360">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="O6" s="406" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="298"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="314"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="106">
+        <v>331</v>
+      </c>
+      <c r="J7" s="107">
+        <v>331</v>
+      </c>
+      <c r="K7" s="358">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="L7" s="358">
+        <v>0.628</v>
+      </c>
+      <c r="M7" s="358">
+        <v>0.76</v>
+      </c>
+      <c r="N7" s="358">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="O7" s="407"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="303"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="315"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="110">
+        <v>132</v>
+      </c>
+      <c r="J8" s="111">
+        <v>132</v>
+      </c>
+      <c r="K8" s="359">
+        <v>0.376</v>
+      </c>
+      <c r="L8" s="359">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M8" s="359">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="N8" s="359">
+        <v>0.186</v>
+      </c>
+      <c r="O8" s="408"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="348" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="349">
+        <v>463</v>
+      </c>
+      <c r="J9" s="349">
+        <v>463</v>
+      </c>
+      <c r="K9" s="355">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="L9" s="355">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="M9" s="355">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="N9" s="355">
+        <v>0.312</v>
+      </c>
+      <c r="O9" s="406" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="350">
+        <v>331</v>
+      </c>
+      <c r="J10" s="350">
+        <v>331</v>
+      </c>
+      <c r="K10" s="356">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L10" s="356">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="M10" s="356">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="N10" s="356">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O10" s="407"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="351">
+        <v>132</v>
+      </c>
+      <c r="J11" s="351">
+        <v>132</v>
+      </c>
+      <c r="K11" s="357">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="L11" s="357">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="M11" s="357">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="N11" s="357">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="O11" s="408"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="O9:O11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10038,24 +10868,24 @@
     <col min="15" max="15" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="370" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="417" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="371"/>
-      <c r="O1" s="371"/>
+      <c r="B1" s="417"/>
+      <c r="C1" s="417"/>
+      <c r="D1" s="417"/>
+      <c r="E1" s="417"/>
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="417"/>
+      <c r="O1" s="417"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="149" t="s">
@@ -10064,24 +10894,24 @@
       <c r="B2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="389" t="s">
+      <c r="C2" s="436" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="391"/>
-      <c r="G2" s="389" t="s">
+      <c r="D2" s="437"/>
+      <c r="E2" s="437"/>
+      <c r="F2" s="438"/>
+      <c r="G2" s="436" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
-      <c r="J2" s="391"/>
-      <c r="K2" s="392" t="s">
+      <c r="H2" s="437"/>
+      <c r="I2" s="437"/>
+      <c r="J2" s="438"/>
+      <c r="K2" s="439" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="393"/>
-      <c r="M2" s="393"/>
-      <c r="N2" s="394"/>
+      <c r="L2" s="440"/>
+      <c r="M2" s="440"/>
+      <c r="N2" s="441"/>
       <c r="O2" s="151" t="s">
         <v>108</v>
       </c>
@@ -10120,7 +10950,7 @@
       <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="381" t="s">
+      <c r="A4" s="428" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="212" t="s">
@@ -10154,17 +10984,17 @@
       <c r="N4" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O4" s="384" t="s">
+      <c r="O4" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Q4" s="395" t="s">
+      <c r="Q4" s="442" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="396"/>
-      <c r="S4" s="397"/>
+      <c r="R4" s="443"/>
+      <c r="S4" s="444"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="382"/>
+      <c r="A5" s="429"/>
       <c r="B5" s="215" t="s">
         <v>1</v>
       </c>
@@ -10196,7 +11026,7 @@
       <c r="N5" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O5" s="385"/>
+      <c r="O5" s="432"/>
       <c r="Q5" s="224" t="s">
         <v>118</v>
       </c>
@@ -10208,7 +11038,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="383"/>
+      <c r="A6" s="430"/>
       <c r="B6" s="219" t="s">
         <v>2</v>
       </c>
@@ -10240,7 +11070,7 @@
       <c r="N6" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O6" s="386"/>
+      <c r="O6" s="433"/>
       <c r="Q6" s="225" t="s">
         <v>116</v>
       </c>
@@ -10252,7 +11082,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="381" t="s">
+      <c r="A7" s="428" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="212" t="s">
@@ -10286,7 +11116,7 @@
       <c r="N7" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O7" s="384" t="s">
+      <c r="O7" s="431" t="s">
         <v>166</v>
       </c>
       <c r="Q7" s="225" t="s">
@@ -10300,7 +11130,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="382"/>
+      <c r="A8" s="429"/>
       <c r="B8" s="215" t="s">
         <v>1</v>
       </c>
@@ -10332,7 +11162,7 @@
       <c r="N8" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O8" s="385"/>
+      <c r="O8" s="432"/>
       <c r="Q8" s="225" t="s">
         <v>115</v>
       </c>
@@ -10344,7 +11174,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="383"/>
+      <c r="A9" s="430"/>
       <c r="B9" s="219" t="s">
         <v>2</v>
       </c>
@@ -10376,10 +11206,10 @@
       <c r="N9" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O9" s="386"/>
+      <c r="O9" s="433"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="381" t="s">
+      <c r="A10" s="428" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="212" t="s">
@@ -10413,12 +11243,12 @@
       <c r="N10" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O10" s="384" t="s">
+      <c r="O10" s="431" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="382"/>
+      <c r="A11" s="429"/>
       <c r="B11" s="215" t="s">
         <v>1</v>
       </c>
@@ -10450,10 +11280,10 @@
       <c r="N11" s="169">
         <v>0.52300000000000002</v>
       </c>
-      <c r="O11" s="385"/>
+      <c r="O11" s="432"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="383"/>
+      <c r="A12" s="430"/>
       <c r="B12" s="219" t="s">
         <v>2</v>
       </c>
@@ -10485,26 +11315,26 @@
       <c r="N12" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O12" s="386"/>
+      <c r="O12" s="433"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="387" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="388"/>
-      <c r="C13" s="388"/>
-      <c r="D13" s="388"/>
-      <c r="E13" s="388"/>
-      <c r="F13" s="388"/>
-      <c r="G13" s="388"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="388"/>
-      <c r="J13" s="388"/>
-      <c r="K13" s="388"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="388"/>
-      <c r="N13" s="388"/>
-      <c r="O13" s="388"/>
+      <c r="A13" s="434" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="435"/>
+      <c r="C13" s="435"/>
+      <c r="D13" s="435"/>
+      <c r="E13" s="435"/>
+      <c r="F13" s="435"/>
+      <c r="G13" s="435"/>
+      <c r="H13" s="435"/>
+      <c r="I13" s="435"/>
+      <c r="J13" s="435"/>
+      <c r="K13" s="435"/>
+      <c r="L13" s="435"/>
+      <c r="M13" s="435"/>
+      <c r="N13" s="435"/>
+      <c r="O13" s="435"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="129"/>
@@ -10513,833 +11343,830 @@
       <c r="B15" s="129"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="129"/>
+      <c r="O16" s="129"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="417" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="418" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="418"/>
+      <c r="D17" s="418"/>
+      <c r="E17" s="418"/>
+      <c r="F17" s="418"/>
+      <c r="G17" s="418"/>
+      <c r="H17" s="418"/>
+      <c r="I17" s="418"/>
+      <c r="J17" s="418"/>
+      <c r="K17" s="418"/>
+      <c r="L17" s="418"/>
+      <c r="M17" s="418"/>
+      <c r="N17" s="418"/>
+      <c r="O17" s="418"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="436" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="437"/>
+      <c r="E18" s="437"/>
+      <c r="F18" s="438"/>
+      <c r="G18" s="436" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="437"/>
+      <c r="I18" s="437"/>
+      <c r="J18" s="438"/>
+      <c r="K18" s="439" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="440"/>
+      <c r="M18" s="440"/>
+      <c r="N18" s="441"/>
+      <c r="O18" s="149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="152"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="152"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O20" s="129"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="370" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="371" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="371"/>
-      <c r="D21" s="371"/>
-      <c r="E21" s="371"/>
-      <c r="F21" s="371"/>
-      <c r="G21" s="371"/>
-      <c r="H21" s="371"/>
-      <c r="I21" s="371"/>
-      <c r="J21" s="371"/>
-      <c r="K21" s="371"/>
-      <c r="L21" s="371"/>
-      <c r="M21" s="371"/>
-      <c r="N21" s="371"/>
-      <c r="O21" s="371"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="389" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="391"/>
-      <c r="G22" s="389" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="390"/>
-      <c r="I22" s="390"/>
-      <c r="J22" s="391"/>
-      <c r="K22" s="392" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="393"/>
-      <c r="M22" s="393"/>
-      <c r="N22" s="394"/>
-      <c r="O22" s="149" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="154" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="154" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="154" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" s="152"/>
+      <c r="A20" s="425" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="158">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="D20" s="159">
+        <v>29.69</v>
+      </c>
+      <c r="E20" s="148">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F20" s="174">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G20" s="147">
+        <v>24.73</v>
+      </c>
+      <c r="H20" s="144">
+        <v>34.33</v>
+      </c>
+      <c r="I20" s="148">
+        <v>0.627</v>
+      </c>
+      <c r="J20" s="174">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="K20" s="147">
+        <v>29.54</v>
+      </c>
+      <c r="L20" s="144">
+        <v>41.75</v>
+      </c>
+      <c r="M20" s="148">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N20" s="174">
+        <v>0.621</v>
+      </c>
+      <c r="O20" s="422" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="426"/>
+      <c r="B21" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="133">
+        <v>31.68</v>
+      </c>
+      <c r="D21" s="133">
+        <v>44.51</v>
+      </c>
+      <c r="E21" s="136">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F21" s="137">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G21" s="134">
+        <v>30.25</v>
+      </c>
+      <c r="H21" s="133">
+        <v>39.29</v>
+      </c>
+      <c r="I21" s="135">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J21" s="137">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="K21" s="134">
+        <v>32.83</v>
+      </c>
+      <c r="L21" s="134">
+        <v>44.58</v>
+      </c>
+      <c r="M21" s="132">
+        <v>0.35</v>
+      </c>
+      <c r="N21" s="137">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="O21" s="423"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="427"/>
+      <c r="B22" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="160">
+        <v>8.39</v>
+      </c>
+      <c r="D22" s="161">
+        <v>14.44</v>
+      </c>
+      <c r="E22" s="139">
+        <v>0.129</v>
+      </c>
+      <c r="F22" s="140">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G22" s="141">
+        <v>9.01</v>
+      </c>
+      <c r="H22" s="141">
+        <v>11.84</v>
+      </c>
+      <c r="I22" s="162">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="J22" s="140">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="K22" s="141">
+        <v>7.45</v>
+      </c>
+      <c r="L22" s="142">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="M22" s="143">
+        <v>0.185</v>
+      </c>
+      <c r="N22" s="140">
+        <v>0.71</v>
+      </c>
+      <c r="O22" s="424"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="425" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="158">
+        <v>17.14</v>
+      </c>
+      <c r="D23" s="159">
+        <v>28.88</v>
+      </c>
+      <c r="E23" s="148">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F23" s="174">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G23" s="147">
+        <v>24.42</v>
+      </c>
+      <c r="H23" s="144">
+        <v>33.75</v>
+      </c>
+      <c r="I23" s="148">
+        <v>0.64</v>
+      </c>
+      <c r="J23" s="175">
+        <v>0.69</v>
+      </c>
+      <c r="K23" s="147">
+        <v>27.96</v>
+      </c>
+      <c r="L23" s="144">
+        <v>39.24</v>
+      </c>
+      <c r="M23" s="148">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N23" s="175">
+        <v>0.62</v>
+      </c>
+      <c r="O23" s="422" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="378" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="146" t="s">
+      <c r="A24" s="426"/>
+      <c r="B24" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="133">
+        <v>30.9</v>
+      </c>
+      <c r="D24" s="133">
+        <v>42.74</v>
+      </c>
+      <c r="E24" s="136">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F24" s="137">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G24" s="134">
+        <v>29.75</v>
+      </c>
+      <c r="H24" s="133">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="I24" s="135">
+        <v>0.434</v>
+      </c>
+      <c r="J24" s="137">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="K24" s="134">
+        <v>30.91</v>
+      </c>
+      <c r="L24" s="134">
+        <v>41.85</v>
+      </c>
+      <c r="M24" s="132">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="N24" s="137">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="O24" s="423"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="427"/>
+      <c r="B25" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="160">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D25" s="161">
+        <v>15.01</v>
+      </c>
+      <c r="E25" s="139">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F25" s="140">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G25" s="141">
+        <v>9.27</v>
+      </c>
+      <c r="H25" s="141">
+        <v>12.37</v>
+      </c>
+      <c r="I25" s="162">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="J25" s="140">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="K25" s="141">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="L25" s="142">
+        <v>10.72</v>
+      </c>
+      <c r="M25" s="143">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N25" s="140">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="O25" s="424"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="445" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="158">
-        <v>17.239999999999998</v>
-      </c>
-      <c r="D24" s="159">
-        <v>29.69</v>
-      </c>
-      <c r="E24" s="148">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="F24" s="174">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="G24" s="147">
-        <v>24.73</v>
-      </c>
-      <c r="H24" s="144">
-        <v>34.33</v>
-      </c>
-      <c r="I24" s="148">
-        <v>0.627</v>
-      </c>
-      <c r="J24" s="174">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="K24" s="147">
-        <v>29.54</v>
-      </c>
-      <c r="L24" s="144">
-        <v>41.75</v>
-      </c>
-      <c r="M24" s="148">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="N24" s="174">
-        <v>0.621</v>
-      </c>
-      <c r="O24" s="375" t="s">
+      <c r="C26" s="181">
+        <v>17</v>
+      </c>
+      <c r="D26" s="182">
+        <v>29.53</v>
+      </c>
+      <c r="E26" s="183">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F26" s="184">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="G26" s="185">
+        <v>24.99</v>
+      </c>
+      <c r="H26" s="186">
+        <v>34.83</v>
+      </c>
+      <c r="I26" s="183">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="J26" s="184">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="K26" s="185">
+        <v>29.85</v>
+      </c>
+      <c r="L26" s="186">
+        <v>42.29</v>
+      </c>
+      <c r="M26" s="183">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="N26" s="184">
+        <v>0.624</v>
+      </c>
+      <c r="O26" s="448" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="379"/>
-      <c r="B25" s="131" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="446"/>
+      <c r="B27" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="133">
-        <v>31.68</v>
-      </c>
-      <c r="D25" s="133">
-        <v>44.51</v>
-      </c>
-      <c r="E25" s="136">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="F25" s="137">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="G25" s="134">
-        <v>30.25</v>
-      </c>
-      <c r="H25" s="133">
-        <v>39.29</v>
-      </c>
-      <c r="I25" s="135">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="J25" s="137">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="K25" s="134">
-        <v>32.83</v>
-      </c>
-      <c r="L25" s="134">
-        <v>44.58</v>
-      </c>
-      <c r="M25" s="132">
+      <c r="C27" s="156">
+        <v>31.55</v>
+      </c>
+      <c r="D27" s="156">
+        <v>44.61</v>
+      </c>
+      <c r="E27" s="188">
         <v>0.35</v>
       </c>
-      <c r="N25" s="137">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="O25" s="376"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="380"/>
-      <c r="B26" s="138" t="s">
+      <c r="F27" s="189">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G27" s="190">
+        <v>30.66</v>
+      </c>
+      <c r="H27" s="156">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="I27" s="191">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J27" s="189">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K27" s="190">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L27" s="190">
+        <v>45.18</v>
+      </c>
+      <c r="M27" s="192">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N27" s="189">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="O27" s="449"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="447"/>
+      <c r="B28" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="160">
-        <v>8.39</v>
-      </c>
-      <c r="D26" s="161">
-        <v>14.44</v>
-      </c>
-      <c r="E26" s="139">
-        <v>0.129</v>
-      </c>
-      <c r="F26" s="140">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="G26" s="141">
-        <v>9.01</v>
-      </c>
-      <c r="H26" s="141">
-        <v>11.84</v>
-      </c>
-      <c r="I26" s="162">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="J26" s="140">
+      <c r="C28" s="194">
+        <v>8.08</v>
+      </c>
+      <c r="D28" s="195">
+        <v>13.67</v>
+      </c>
+      <c r="E28" s="196">
+        <v>0.219</v>
+      </c>
+      <c r="F28" s="197">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G28" s="198">
+        <v>8.84</v>
+      </c>
+      <c r="H28" s="198">
+        <v>11.76</v>
+      </c>
+      <c r="I28" s="199">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="J28" s="197">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K28" s="198">
+        <v>7.36</v>
+      </c>
+      <c r="L28" s="200">
+        <v>9.66</v>
+      </c>
+      <c r="M28" s="201">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="N28" s="197">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O28" s="450"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="419" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="164">
+        <v>16.98</v>
+      </c>
+      <c r="D29" s="164">
+        <v>29.07</v>
+      </c>
+      <c r="E29" s="165">
+        <v>0.71</v>
+      </c>
+      <c r="F29" s="176">
+        <v>0.69</v>
+      </c>
+      <c r="G29" s="164">
+        <v>25.35</v>
+      </c>
+      <c r="H29" s="164">
+        <v>35.06</v>
+      </c>
+      <c r="I29" s="165">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J29" s="177">
         <v>0.69299999999999995</v>
       </c>
-      <c r="K26" s="141">
-        <v>7.45</v>
-      </c>
-      <c r="L26" s="142">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="M26" s="143">
-        <v>0.185</v>
-      </c>
-      <c r="N26" s="140">
-        <v>0.71</v>
-      </c>
-      <c r="O26" s="377"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="378" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="146" t="s">
+      <c r="K29" s="164">
+        <v>29.66</v>
+      </c>
+      <c r="L29" s="164">
+        <v>41.61</v>
+      </c>
+      <c r="M29" s="165">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="N29" s="177">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="O29" s="422" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="420"/>
+      <c r="B30" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="167">
+        <v>31.3</v>
+      </c>
+      <c r="D30" s="167">
+        <v>43.72</v>
+      </c>
+      <c r="E30" s="168">
+        <v>0.376</v>
+      </c>
+      <c r="F30" s="169">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G30" s="167">
+        <v>31.2</v>
+      </c>
+      <c r="H30" s="167">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="I30" s="168">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="J30" s="169">
+        <v>0.69</v>
+      </c>
+      <c r="K30" s="167">
+        <v>33.03</v>
+      </c>
+      <c r="L30" s="167">
+        <v>44.45</v>
+      </c>
+      <c r="M30" s="168">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N30" s="169">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="O30" s="423"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="421"/>
+      <c r="B31" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="171">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D31" s="171">
+        <v>13.83</v>
+      </c>
+      <c r="E31" s="172">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F31" s="173">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G31" s="171">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="H31" s="171">
+        <v>11.68</v>
+      </c>
+      <c r="I31" s="145">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="J31" s="173">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K31" s="171">
+        <v>7.06</v>
+      </c>
+      <c r="L31" s="171">
+        <v>9.43</v>
+      </c>
+      <c r="M31" s="172">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="N31" s="173">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="O31" s="424"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="419" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="158">
-        <v>17.14</v>
-      </c>
-      <c r="D27" s="159">
-        <v>28.88</v>
-      </c>
-      <c r="E27" s="148">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="F27" s="174">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="G27" s="147">
-        <v>24.42</v>
-      </c>
-      <c r="H27" s="144">
-        <v>33.75</v>
-      </c>
-      <c r="I27" s="148">
-        <v>0.64</v>
-      </c>
-      <c r="J27" s="175">
+      <c r="C32" s="164">
+        <v>17.04</v>
+      </c>
+      <c r="D32" s="164">
+        <v>29.19</v>
+      </c>
+      <c r="E32" s="165">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F32" s="178">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="G32" s="164">
+        <v>25.62</v>
+      </c>
+      <c r="H32" s="164">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="I32" s="165">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="J32" s="179">
         <v>0.69</v>
       </c>
-      <c r="K27" s="147">
-        <v>27.96</v>
-      </c>
-      <c r="L27" s="144">
-        <v>39.24</v>
-      </c>
-      <c r="M27" s="148">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="N27" s="175">
-        <v>0.62</v>
-      </c>
-      <c r="O27" s="375" t="s">
+      <c r="K32" s="164">
+        <v>29.97</v>
+      </c>
+      <c r="L32" s="164">
+        <v>42.17</v>
+      </c>
+      <c r="M32" s="165">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="N32" s="178">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="O32" s="422" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="379"/>
-      <c r="B28" s="131" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="420"/>
+      <c r="B33" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="133">
-        <v>30.9</v>
-      </c>
-      <c r="D28" s="133">
-        <v>42.74</v>
-      </c>
-      <c r="E28" s="136">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="F28" s="137">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="G28" s="134">
-        <v>29.75</v>
-      </c>
-      <c r="H28" s="133">
-        <v>38.549999999999997</v>
-      </c>
-      <c r="I28" s="135">
-        <v>0.434</v>
-      </c>
-      <c r="J28" s="137">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="K28" s="134">
-        <v>30.91</v>
-      </c>
-      <c r="L28" s="134">
-        <v>41.85</v>
-      </c>
-      <c r="M28" s="132">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="N28" s="137">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="O28" s="376"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="380"/>
-      <c r="B29" s="138" t="s">
+      <c r="C33" s="167">
+        <v>31.25</v>
+      </c>
+      <c r="D33" s="167">
+        <v>43.82</v>
+      </c>
+      <c r="E33" s="168">
+        <v>0.373</v>
+      </c>
+      <c r="F33" s="169">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G33" s="167">
+        <v>31.53</v>
+      </c>
+      <c r="H33" s="167">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="I33" s="168">
+        <v>0.374</v>
+      </c>
+      <c r="J33" s="169">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K33" s="167">
+        <v>33.32</v>
+      </c>
+      <c r="L33" s="167">
+        <v>45.04</v>
+      </c>
+      <c r="M33" s="168">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="N33" s="169">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="O33" s="423"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="421"/>
+      <c r="B34" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="160">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="D29" s="161">
-        <v>15.01</v>
-      </c>
-      <c r="E29" s="139">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F29" s="140">
+      <c r="C34" s="171">
+        <v>8.34</v>
+      </c>
+      <c r="D34" s="171">
+        <v>14.06</v>
+      </c>
+      <c r="E34" s="172">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F34" s="173">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G34" s="171">
+        <v>8.81</v>
+      </c>
+      <c r="H34" s="171">
+        <v>11.71</v>
+      </c>
+      <c r="I34" s="145">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="J34" s="173">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K34" s="171">
+        <v>7.47</v>
+      </c>
+      <c r="L34" s="171">
+        <v>9.82</v>
+      </c>
+      <c r="M34" s="172">
+        <v>0.18</v>
+      </c>
+      <c r="N34" s="173">
         <v>0.70199999999999996</v>
       </c>
-      <c r="G29" s="141">
-        <v>9.27</v>
-      </c>
-      <c r="H29" s="141">
-        <v>12.37</v>
-      </c>
-      <c r="I29" s="162">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="J29" s="140">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="K29" s="141">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="L29" s="142">
-        <v>10.72</v>
-      </c>
-      <c r="M29" s="143">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N29" s="140">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="O29" s="377"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="398" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="180" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="181">
-        <v>17</v>
-      </c>
-      <c r="D30" s="182">
-        <v>29.53</v>
-      </c>
-      <c r="E30" s="183">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="F30" s="184">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="G30" s="185">
-        <v>24.99</v>
-      </c>
-      <c r="H30" s="186">
-        <v>34.83</v>
-      </c>
-      <c r="I30" s="183">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="J30" s="184">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="K30" s="185">
-        <v>29.85</v>
-      </c>
-      <c r="L30" s="186">
-        <v>42.29</v>
-      </c>
-      <c r="M30" s="183">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="N30" s="184">
-        <v>0.624</v>
-      </c>
-      <c r="O30" s="401" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="399"/>
-      <c r="B31" s="187" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="156">
-        <v>31.55</v>
-      </c>
-      <c r="D31" s="156">
-        <v>44.61</v>
-      </c>
-      <c r="E31" s="188">
-        <v>0.35</v>
-      </c>
-      <c r="F31" s="189">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="G31" s="190">
-        <v>30.66</v>
-      </c>
-      <c r="H31" s="156">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="I31" s="191">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="J31" s="189">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="K31" s="190">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="L31" s="190">
-        <v>45.18</v>
-      </c>
-      <c r="M31" s="192">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="N31" s="189">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="O31" s="402"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="400"/>
-      <c r="B32" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="194">
-        <v>8.08</v>
-      </c>
-      <c r="D32" s="195">
-        <v>13.67</v>
-      </c>
-      <c r="E32" s="196">
-        <v>0.219</v>
-      </c>
-      <c r="F32" s="197">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="G32" s="198">
-        <v>8.84</v>
-      </c>
-      <c r="H32" s="198">
-        <v>11.76</v>
-      </c>
-      <c r="I32" s="199">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="J32" s="197">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="K32" s="198">
-        <v>7.36</v>
-      </c>
-      <c r="L32" s="200">
-        <v>9.66</v>
-      </c>
-      <c r="M32" s="201">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="N32" s="197">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="O32" s="403"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="372" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="163" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="164">
-        <v>16.98</v>
-      </c>
-      <c r="D33" s="164">
-        <v>29.07</v>
-      </c>
-      <c r="E33" s="165">
-        <v>0.71</v>
-      </c>
-      <c r="F33" s="176">
-        <v>0.69</v>
-      </c>
-      <c r="G33" s="164">
-        <v>25.35</v>
-      </c>
-      <c r="H33" s="164">
-        <v>35.06</v>
-      </c>
-      <c r="I33" s="165">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="J33" s="177">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="K33" s="164">
-        <v>29.66</v>
-      </c>
-      <c r="L33" s="164">
-        <v>41.61</v>
-      </c>
-      <c r="M33" s="165">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="N33" s="177">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="O33" s="375" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="373"/>
-      <c r="B34" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="167">
-        <v>31.3</v>
-      </c>
-      <c r="D34" s="167">
-        <v>43.72</v>
-      </c>
-      <c r="E34" s="168">
-        <v>0.376</v>
-      </c>
-      <c r="F34" s="169">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="G34" s="167">
-        <v>31.2</v>
-      </c>
-      <c r="H34" s="167">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="I34" s="168">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="J34" s="169">
-        <v>0.69</v>
-      </c>
-      <c r="K34" s="167">
-        <v>33.03</v>
-      </c>
-      <c r="L34" s="167">
-        <v>44.45</v>
-      </c>
-      <c r="M34" s="168">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N34" s="169">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="O34" s="376"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="374"/>
-      <c r="B35" s="170" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="171">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D35" s="171">
-        <v>13.83</v>
-      </c>
-      <c r="E35" s="172">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="F35" s="173">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="G35" s="171">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="H35" s="171">
-        <v>11.68</v>
-      </c>
-      <c r="I35" s="145">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="J35" s="173">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="K35" s="171">
-        <v>7.06</v>
-      </c>
-      <c r="L35" s="171">
-        <v>9.43</v>
-      </c>
-      <c r="M35" s="172">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="N35" s="173">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="O35" s="377"/>
+      <c r="O34" s="424"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="129"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="372" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="163" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="164">
-        <v>17.04</v>
-      </c>
-      <c r="D36" s="164">
-        <v>29.19</v>
-      </c>
-      <c r="E36" s="165">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="F36" s="178">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="G36" s="164">
-        <v>25.62</v>
-      </c>
-      <c r="H36" s="164">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="I36" s="165">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="J36" s="179">
-        <v>0.69</v>
-      </c>
-      <c r="K36" s="164">
-        <v>29.97</v>
-      </c>
-      <c r="L36" s="164">
-        <v>42.17</v>
-      </c>
-      <c r="M36" s="165">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="N36" s="178">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="O36" s="375" t="s">
-        <v>132</v>
+      <c r="B36" s="129" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="373"/>
-      <c r="B37" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="167">
-        <v>31.25</v>
-      </c>
-      <c r="D37" s="167">
-        <v>43.82</v>
-      </c>
-      <c r="E37" s="168">
-        <v>0.373</v>
-      </c>
-      <c r="F37" s="169">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="G37" s="167">
-        <v>31.53</v>
-      </c>
-      <c r="H37" s="167">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="I37" s="168">
-        <v>0.374</v>
-      </c>
-      <c r="J37" s="169">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="K37" s="167">
-        <v>33.32</v>
-      </c>
-      <c r="L37" s="167">
-        <v>45.04</v>
-      </c>
-      <c r="M37" s="168">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="N37" s="169">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="O37" s="376"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="374"/>
-      <c r="B38" s="170" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="171">
-        <v>8.34</v>
-      </c>
-      <c r="D38" s="171">
-        <v>14.06</v>
-      </c>
-      <c r="E38" s="172">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="F38" s="173">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="G38" s="171">
-        <v>8.81</v>
-      </c>
-      <c r="H38" s="171">
-        <v>11.71</v>
-      </c>
-      <c r="I38" s="145">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="J38" s="173">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="K38" s="171">
-        <v>7.47</v>
-      </c>
-      <c r="L38" s="171">
-        <v>9.82</v>
-      </c>
-      <c r="M38" s="172">
-        <v>0.18</v>
-      </c>
-      <c r="N38" s="173">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="O38" s="377"/>
+      <c r="B37" s="129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="129" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="129"/>
+      <c r="B39" s="129" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="129" t="s">
-        <v>152</v>
-      </c>
+      <c r="B40" s="208"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="129" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="129" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="129" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="208"/>
+      <c r="B44" s="129" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="129" t="s">
-        <v>156</v>
-      </c>
+      <c r="B45" s="208"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="129" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="129" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="129" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="208"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="129" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="129" t="s">
+      <c r="B49" s="129" t="s">
         <v>163</v>
       </c>
     </row>
@@ -11348,23 +12175,23 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="O26:O28"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:N18"/>
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="O36:O38"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="O29:O31"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="A13:O13"/>
@@ -11375,4 +12202,1718 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="55.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="417" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="417"/>
+      <c r="C1" s="417"/>
+      <c r="D1" s="417"/>
+      <c r="E1" s="417"/>
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="417"/>
+      <c r="O1" s="417"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="436" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="437"/>
+      <c r="E2" s="437"/>
+      <c r="F2" s="438"/>
+      <c r="G2" s="436" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="437"/>
+      <c r="I2" s="437"/>
+      <c r="J2" s="451"/>
+      <c r="K2" s="439" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="440"/>
+      <c r="M2" s="440"/>
+      <c r="N2" s="441"/>
+      <c r="O2" s="151" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="155"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="428" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="164">
+        <v>21.19</v>
+      </c>
+      <c r="D4" s="164">
+        <v>30.8</v>
+      </c>
+      <c r="E4" s="165">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F4" s="177">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G4" s="213"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="213">
+        <v>27.64</v>
+      </c>
+      <c r="L4" s="164">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="M4" s="214">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N4" s="177">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O4" s="431" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="442" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="443"/>
+      <c r="S4" s="444"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="429"/>
+      <c r="B5" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="167">
+        <v>25.99</v>
+      </c>
+      <c r="D5" s="167">
+        <v>35.1</v>
+      </c>
+      <c r="E5" s="168">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F5" s="169">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G5" s="216"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="216">
+        <v>30.64</v>
+      </c>
+      <c r="L5" s="216">
+        <v>40.51</v>
+      </c>
+      <c r="M5" s="218">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N5" s="169">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="O5" s="432"/>
+      <c r="Q5" s="224" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="224" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="224" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="430"/>
+      <c r="B6" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="171">
+        <v>6.67</v>
+      </c>
+      <c r="D6" s="171">
+        <v>9.68</v>
+      </c>
+      <c r="E6" s="172">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F6" s="173">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="220">
+        <v>7.46</v>
+      </c>
+      <c r="L6" s="171">
+        <v>10.24</v>
+      </c>
+      <c r="M6" s="222">
+        <v>0.108</v>
+      </c>
+      <c r="N6" s="173">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="O6" s="433"/>
+      <c r="Q6" s="225" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="223">
+        <v>6.96</v>
+      </c>
+      <c r="S6" s="223">
+        <v>343.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="428" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="164">
+        <v>21.19</v>
+      </c>
+      <c r="D7" s="164">
+        <v>30.8</v>
+      </c>
+      <c r="E7" s="165">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F7" s="177">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G7" s="213"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="213">
+        <v>27.64</v>
+      </c>
+      <c r="L7" s="164">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="M7" s="214">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N7" s="177">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O7" s="431" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="225" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="157">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S7" s="223">
+        <v>240.16879700000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="429"/>
+      <c r="B8" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="167">
+        <v>25.99</v>
+      </c>
+      <c r="D8" s="167">
+        <v>35.1</v>
+      </c>
+      <c r="E8" s="168">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F8" s="169">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G8" s="216"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="216">
+        <v>30.64</v>
+      </c>
+      <c r="L8" s="216">
+        <v>40.51</v>
+      </c>
+      <c r="M8" s="218">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N8" s="169">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="O8" s="432"/>
+      <c r="Q8" s="225" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="157">
+        <v>13.369142999999999</v>
+      </c>
+      <c r="S8" s="223">
+        <v>255.60251099999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="430"/>
+      <c r="B9" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="171">
+        <v>6.67</v>
+      </c>
+      <c r="D9" s="171">
+        <v>9.68</v>
+      </c>
+      <c r="E9" s="172">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F9" s="173">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="220">
+        <v>7.46</v>
+      </c>
+      <c r="L9" s="171">
+        <v>10.24</v>
+      </c>
+      <c r="M9" s="222">
+        <v>0.108</v>
+      </c>
+      <c r="N9" s="173">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="O9" s="433"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="428" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="164">
+        <v>21.18</v>
+      </c>
+      <c r="D10" s="164">
+        <v>30.8</v>
+      </c>
+      <c r="E10" s="165">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F10" s="177">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G10" s="213"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="213">
+        <v>27.61</v>
+      </c>
+      <c r="L10" s="164">
+        <v>37.9</v>
+      </c>
+      <c r="M10" s="214">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="N10" s="177">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O10" s="431" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="429"/>
+      <c r="B11" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="167">
+        <v>25.98</v>
+      </c>
+      <c r="D11" s="167">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="E11" s="168">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F11" s="228">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G11" s="216"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="216">
+        <v>30.61</v>
+      </c>
+      <c r="L11" s="216">
+        <v>40.43</v>
+      </c>
+      <c r="M11" s="218">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N11" s="169">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="O11" s="432"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="430"/>
+      <c r="B12" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="171">
+        <v>6.67</v>
+      </c>
+      <c r="D12" s="171">
+        <v>9.68</v>
+      </c>
+      <c r="E12" s="172">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F12" s="173">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="220">
+        <v>7.45</v>
+      </c>
+      <c r="L12" s="171">
+        <v>10.23</v>
+      </c>
+      <c r="M12" s="222">
+        <v>0.109</v>
+      </c>
+      <c r="N12" s="173">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="O12" s="433"/>
+    </row>
+    <row r="13" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="434" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="435"/>
+      <c r="C13" s="435"/>
+      <c r="D13" s="435"/>
+      <c r="E13" s="435"/>
+      <c r="F13" s="435"/>
+      <c r="G13" s="435"/>
+      <c r="H13" s="435"/>
+      <c r="I13" s="435"/>
+      <c r="J13" s="435"/>
+      <c r="K13" s="435"/>
+      <c r="L13" s="435"/>
+      <c r="M13" s="435"/>
+      <c r="N13" s="435"/>
+      <c r="O13" s="435"/>
+    </row>
+    <row r="14" spans="1:19" s="460" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="458"/>
+      <c r="B14" s="459"/>
+      <c r="C14" s="459"/>
+      <c r="D14" s="459"/>
+      <c r="E14" s="459"/>
+      <c r="F14" s="459"/>
+      <c r="G14" s="459"/>
+      <c r="H14" s="459"/>
+      <c r="I14" s="459"/>
+      <c r="J14" s="459"/>
+      <c r="K14" s="459"/>
+      <c r="L14" s="459"/>
+      <c r="M14" s="459"/>
+      <c r="N14" s="459"/>
+      <c r="O14" s="459"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="458"/>
+      <c r="B15" s="459"/>
+      <c r="C15" s="459"/>
+      <c r="D15" s="459"/>
+      <c r="E15" s="459"/>
+      <c r="F15" s="459"/>
+      <c r="G15" s="459"/>
+      <c r="H15" s="459"/>
+      <c r="I15" s="459"/>
+      <c r="J15" s="459"/>
+      <c r="K15" s="459"/>
+      <c r="L15" s="459"/>
+      <c r="M15" s="459"/>
+      <c r="N15" s="459"/>
+      <c r="O15" s="459"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="436" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="437"/>
+      <c r="E16" s="437"/>
+      <c r="F16" s="438"/>
+      <c r="G16" s="436"/>
+      <c r="H16" s="437"/>
+      <c r="I16" s="437"/>
+      <c r="J16" s="451"/>
+      <c r="K16" s="439" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="440"/>
+      <c r="M16" s="440"/>
+      <c r="N16" s="441"/>
+      <c r="O16" s="151" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="152"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="155"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="455" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="164">
+        <v>21.18</v>
+      </c>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F18" s="177">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G18" s="213"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="213">
+        <v>20.63</v>
+      </c>
+      <c r="L18" s="164"/>
+      <c r="M18" s="214">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N18" s="177">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="O18" s="452" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="456"/>
+      <c r="B19" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="167">
+        <v>25.98</v>
+      </c>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F19" s="169">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G19" s="216"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="216">
+        <v>24.73</v>
+      </c>
+      <c r="L19" s="216"/>
+      <c r="M19" s="218">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="N19" s="169">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="O19" s="453"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="457"/>
+      <c r="B20" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="171">
+        <v>6.69</v>
+      </c>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="F20" s="173">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="220">
+        <v>8.64</v>
+      </c>
+      <c r="L20" s="171"/>
+      <c r="M20" s="222">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="N20" s="173">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="O20" s="454"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="129"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="129"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="129"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="129"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="129"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="208"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="129"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="129"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="129"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="129"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="129"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="129"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="129"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="129"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="129"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="129"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="129"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="417" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="418" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="418"/>
+      <c r="D38" s="418"/>
+      <c r="E38" s="418"/>
+      <c r="F38" s="418"/>
+      <c r="G38" s="418"/>
+      <c r="H38" s="418"/>
+      <c r="I38" s="418"/>
+      <c r="J38" s="418"/>
+      <c r="K38" s="418"/>
+      <c r="L38" s="418"/>
+      <c r="M38" s="418"/>
+      <c r="N38" s="418"/>
+      <c r="O38" s="418"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="436" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="437"/>
+      <c r="E39" s="437"/>
+      <c r="F39" s="438"/>
+      <c r="G39" s="436" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="437"/>
+      <c r="I39" s="437"/>
+      <c r="J39" s="451"/>
+      <c r="K39" s="439" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="440"/>
+      <c r="M39" s="440"/>
+      <c r="N39" s="441"/>
+      <c r="O39" s="149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="152"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="O40" s="152"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="425" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="158">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="D41" s="159">
+        <v>29.69</v>
+      </c>
+      <c r="E41" s="148">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F41" s="174">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G41" s="147">
+        <v>24.73</v>
+      </c>
+      <c r="H41" s="144">
+        <v>34.33</v>
+      </c>
+      <c r="I41" s="148">
+        <v>0.627</v>
+      </c>
+      <c r="J41" s="174">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="K41" s="147">
+        <v>29.54</v>
+      </c>
+      <c r="L41" s="144">
+        <v>41.75</v>
+      </c>
+      <c r="M41" s="148">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N41" s="174">
+        <v>0.621</v>
+      </c>
+      <c r="O41" s="422" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="426"/>
+      <c r="B42" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="133">
+        <v>31.68</v>
+      </c>
+      <c r="D42" s="133">
+        <v>44.51</v>
+      </c>
+      <c r="E42" s="136">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F42" s="137">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G42" s="134">
+        <v>30.25</v>
+      </c>
+      <c r="H42" s="133">
+        <v>39.29</v>
+      </c>
+      <c r="I42" s="135">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J42" s="137">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="K42" s="134">
+        <v>32.83</v>
+      </c>
+      <c r="L42" s="134">
+        <v>44.58</v>
+      </c>
+      <c r="M42" s="132">
+        <v>0.35</v>
+      </c>
+      <c r="N42" s="137">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="O42" s="423"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="427"/>
+      <c r="B43" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="160">
+        <v>8.39</v>
+      </c>
+      <c r="D43" s="161">
+        <v>14.44</v>
+      </c>
+      <c r="E43" s="139">
+        <v>0.129</v>
+      </c>
+      <c r="F43" s="140">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G43" s="141">
+        <v>9.01</v>
+      </c>
+      <c r="H43" s="141">
+        <v>11.84</v>
+      </c>
+      <c r="I43" s="162">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="J43" s="140">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="K43" s="141">
+        <v>7.45</v>
+      </c>
+      <c r="L43" s="142">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="M43" s="143">
+        <v>0.185</v>
+      </c>
+      <c r="N43" s="140">
+        <v>0.71</v>
+      </c>
+      <c r="O43" s="424"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="425" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="158">
+        <v>17.14</v>
+      </c>
+      <c r="D44" s="159">
+        <v>28.88</v>
+      </c>
+      <c r="E44" s="148">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F44" s="174">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G44" s="147">
+        <v>24.42</v>
+      </c>
+      <c r="H44" s="144">
+        <v>33.75</v>
+      </c>
+      <c r="I44" s="148">
+        <v>0.64</v>
+      </c>
+      <c r="J44" s="175">
+        <v>0.69</v>
+      </c>
+      <c r="K44" s="147">
+        <v>27.96</v>
+      </c>
+      <c r="L44" s="144">
+        <v>39.24</v>
+      </c>
+      <c r="M44" s="148">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N44" s="175">
+        <v>0.62</v>
+      </c>
+      <c r="O44" s="422" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="426"/>
+      <c r="B45" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="133">
+        <v>30.9</v>
+      </c>
+      <c r="D45" s="133">
+        <v>42.74</v>
+      </c>
+      <c r="E45" s="136">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F45" s="137">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G45" s="134">
+        <v>29.75</v>
+      </c>
+      <c r="H45" s="133">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="I45" s="135">
+        <v>0.434</v>
+      </c>
+      <c r="J45" s="137">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="K45" s="134">
+        <v>30.91</v>
+      </c>
+      <c r="L45" s="134">
+        <v>41.85</v>
+      </c>
+      <c r="M45" s="132">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="N45" s="137">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="O45" s="423"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="427"/>
+      <c r="B46" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="160">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D46" s="161">
+        <v>15.01</v>
+      </c>
+      <c r="E46" s="139">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F46" s="140">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G46" s="141">
+        <v>9.27</v>
+      </c>
+      <c r="H46" s="141">
+        <v>12.37</v>
+      </c>
+      <c r="I46" s="162">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="J46" s="140">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="K46" s="141">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="L46" s="142">
+        <v>10.72</v>
+      </c>
+      <c r="M46" s="143">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N46" s="140">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="O46" s="424"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="445" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="180" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="181">
+        <v>17</v>
+      </c>
+      <c r="D47" s="182">
+        <v>29.53</v>
+      </c>
+      <c r="E47" s="183">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F47" s="184">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="G47" s="185">
+        <v>24.99</v>
+      </c>
+      <c r="H47" s="186">
+        <v>34.83</v>
+      </c>
+      <c r="I47" s="183">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="J47" s="184">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="K47" s="185">
+        <v>29.85</v>
+      </c>
+      <c r="L47" s="186">
+        <v>42.29</v>
+      </c>
+      <c r="M47" s="183">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="N47" s="184">
+        <v>0.624</v>
+      </c>
+      <c r="O47" s="448" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="446"/>
+      <c r="B48" s="187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="156">
+        <v>31.55</v>
+      </c>
+      <c r="D48" s="156">
+        <v>44.61</v>
+      </c>
+      <c r="E48" s="188">
+        <v>0.35</v>
+      </c>
+      <c r="F48" s="189">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G48" s="190">
+        <v>30.66</v>
+      </c>
+      <c r="H48" s="156">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="I48" s="191">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J48" s="189">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K48" s="190">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L48" s="190">
+        <v>45.18</v>
+      </c>
+      <c r="M48" s="192">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N48" s="189">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="O48" s="449"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="447"/>
+      <c r="B49" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="194">
+        <v>8.08</v>
+      </c>
+      <c r="D49" s="195">
+        <v>13.67</v>
+      </c>
+      <c r="E49" s="196">
+        <v>0.219</v>
+      </c>
+      <c r="F49" s="197">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G49" s="198">
+        <v>8.84</v>
+      </c>
+      <c r="H49" s="198">
+        <v>11.76</v>
+      </c>
+      <c r="I49" s="199">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="J49" s="197">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K49" s="198">
+        <v>7.36</v>
+      </c>
+      <c r="L49" s="200">
+        <v>9.66</v>
+      </c>
+      <c r="M49" s="201">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="N49" s="197">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O49" s="450"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="419" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="164">
+        <v>16.98</v>
+      </c>
+      <c r="D50" s="164">
+        <v>29.07</v>
+      </c>
+      <c r="E50" s="165">
+        <v>0.71</v>
+      </c>
+      <c r="F50" s="176">
+        <v>0.69</v>
+      </c>
+      <c r="G50" s="164">
+        <v>25.35</v>
+      </c>
+      <c r="H50" s="164">
+        <v>35.06</v>
+      </c>
+      <c r="I50" s="165">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J50" s="177">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="K50" s="164">
+        <v>29.66</v>
+      </c>
+      <c r="L50" s="164">
+        <v>41.61</v>
+      </c>
+      <c r="M50" s="165">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="N50" s="177">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="O50" s="422" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="420"/>
+      <c r="B51" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="167">
+        <v>31.3</v>
+      </c>
+      <c r="D51" s="167">
+        <v>43.72</v>
+      </c>
+      <c r="E51" s="168">
+        <v>0.376</v>
+      </c>
+      <c r="F51" s="169">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G51" s="167">
+        <v>31.2</v>
+      </c>
+      <c r="H51" s="167">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="I51" s="168">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="J51" s="169">
+        <v>0.69</v>
+      </c>
+      <c r="K51" s="167">
+        <v>33.03</v>
+      </c>
+      <c r="L51" s="167">
+        <v>44.45</v>
+      </c>
+      <c r="M51" s="168">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N51" s="169">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="O51" s="423"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="421"/>
+      <c r="B52" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="171">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D52" s="171">
+        <v>13.83</v>
+      </c>
+      <c r="E52" s="172">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F52" s="173">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G52" s="171">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="H52" s="171">
+        <v>11.68</v>
+      </c>
+      <c r="I52" s="145">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="J52" s="173">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K52" s="171">
+        <v>7.06</v>
+      </c>
+      <c r="L52" s="171">
+        <v>9.43</v>
+      </c>
+      <c r="M52" s="172">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="N52" s="173">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="O52" s="424"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="419" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="164">
+        <v>17.04</v>
+      </c>
+      <c r="D53" s="164">
+        <v>29.19</v>
+      </c>
+      <c r="E53" s="165">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F53" s="178">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="G53" s="164">
+        <v>25.62</v>
+      </c>
+      <c r="H53" s="164">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="I53" s="165">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="J53" s="179">
+        <v>0.69</v>
+      </c>
+      <c r="K53" s="164">
+        <v>29.97</v>
+      </c>
+      <c r="L53" s="164">
+        <v>42.17</v>
+      </c>
+      <c r="M53" s="165">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="N53" s="178">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="O53" s="422" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="420"/>
+      <c r="B54" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="167">
+        <v>31.25</v>
+      </c>
+      <c r="D54" s="167">
+        <v>43.82</v>
+      </c>
+      <c r="E54" s="168">
+        <v>0.373</v>
+      </c>
+      <c r="F54" s="169">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G54" s="167">
+        <v>31.53</v>
+      </c>
+      <c r="H54" s="167">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="I54" s="168">
+        <v>0.374</v>
+      </c>
+      <c r="J54" s="169">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K54" s="167">
+        <v>33.32</v>
+      </c>
+      <c r="L54" s="167">
+        <v>45.04</v>
+      </c>
+      <c r="M54" s="168">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="N54" s="169">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="O54" s="423"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="421"/>
+      <c r="B55" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="171">
+        <v>8.34</v>
+      </c>
+      <c r="D55" s="171">
+        <v>14.06</v>
+      </c>
+      <c r="E55" s="172">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F55" s="173">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G55" s="171">
+        <v>8.81</v>
+      </c>
+      <c r="H55" s="171">
+        <v>11.71</v>
+      </c>
+      <c r="I55" s="145">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="J55" s="173">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K55" s="171">
+        <v>7.47</v>
+      </c>
+      <c r="L55" s="171">
+        <v>9.82</v>
+      </c>
+      <c r="M55" s="172">
+        <v>0.18</v>
+      </c>
+      <c r="N55" s="173">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="O55" s="424"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="129"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="208"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="208"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O4:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="472" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="473"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="475" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="476"/>
+      <c r="G1" s="477"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="153"/>
+      <c r="B2" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="154" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="461">
+        <v>21.18</v>
+      </c>
+      <c r="C3" s="462">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D3" s="463">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E3" s="464">
+        <v>20.63</v>
+      </c>
+      <c r="F3" s="465">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G3" s="470">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="466">
+        <v>25.98</v>
+      </c>
+      <c r="C4" s="467">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D4" s="468">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E4" s="216">
+        <v>24.73</v>
+      </c>
+      <c r="F4" s="469">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G4" s="468">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="466">
+        <v>6.69</v>
+      </c>
+      <c r="C5" s="467">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D5" s="468">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E5" s="216">
+        <v>8.64</v>
+      </c>
+      <c r="F5" s="469">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="G5" s="468">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modelling/docs/train_png_tracker.xlsx
+++ b/modelling/docs/train_png_tracker.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10965" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="13245" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Detect" sheetId="1" r:id="rId1"/>
     <sheet name="detect_summary" sheetId="3" r:id="rId2"/>
     <sheet name="VLR" sheetId="2" r:id="rId3"/>
     <sheet name="VLR (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="NEW MLP VLEN RESULTS" sheetId="10" r:id="rId5"/>
+    <sheet name="FINAL_VLEN_RESULTS" sheetId="9" r:id="rId6"/>
+    <sheet name="vessel_length_stats" sheetId="7" r:id="rId7"/>
+    <sheet name="Detect_Eval_on_train" sheetId="6" r:id="rId8"/>
+    <sheet name="Detect_Eval_on_test" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -401,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="286">
   <si>
     <t>all</t>
   </si>
@@ -3796,6 +3800,345 @@
   </si>
   <si>
     <t>Sample weights make very little difference; as does normalisation as RF is invariant to scale. Test results (above) based on predictions from model Run # 20250818_1835 (with defualt conf=0.25)</t>
+  </si>
+  <si>
+    <t>conf=0.01; iou = 0.65</t>
+  </si>
+  <si>
+    <t>AP50</t>
+  </si>
+  <si>
+    <t>AP50-95</t>
+  </si>
+  <si>
+    <t>mAP50-95</t>
+  </si>
+  <si>
+    <t>single-pol-2ch (baseline)</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>NON-AUGMENTED</t>
+  </si>
+  <si>
+    <t>20251009_1826</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- train: dual-pol-3ch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-augmented labels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- no swapping, no vessel length normalisation (y_train)
+- conf=0.01 and iou=0.65  (476 predictions)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- train: dual-pol-3ch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">augmented labels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- no swapping, no vessel length normalisation (y_train)
+- conf=0.01 and iou=0.65  (476 predictions)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- train: dual-pol-3ch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-augmented labels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- no swapping, no vessel length normalisation (y_train)
+- conf=0.01 and iou=0.65  (229 predictions - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>highest confidence/image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+- Note: 19 images have no detections.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- train: dual-pol-3ch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">augmented labels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- no swapping, no vessel length normalisation (y_train)
+- conf=0.01 and iou=0.65  (229  predictions - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>highest confidence/image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+- Note: 19 images have no detections.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">train </t>
+  </si>
+  <si>
+    <t>mlp_model_20251010_9932_dual_no_aug.keras</t>
+  </si>
+  <si>
+    <t>---&gt;</t>
+  </si>
+  <si>
+    <t>rf_reg_unnorm_dual_no_aug_conf-filtered.pkl</t>
+  </si>
+  <si>
+    <t>Overall      MAE:  26.41, RMSE:  39.46, R²:  0.543, VLA:  0.647</t>
+  </si>
+  <si>
+    <t>is_vessel    MAE:  32.42, RMSE:  44.85, R²:  0.376, VLA:  0.623 (n=2323)</t>
+  </si>
+  <si>
+    <t>is_fishing   MAE:   8.25, RMSE:  13.58, R²: -0.006, VLA:  0.719 (n=769)</t>
+  </si>
+  <si>
+    <t>Overall      MAE:  25.75, RMSE:  35.65, R²:  0.622, VLA:  0.643</t>
+  </si>
+  <si>
+    <t>is_vessel    MAE:  31.20, RMSE:  40.35, R²:  0.480, VLA:  0.623 (n=173)</t>
+  </si>
+  <si>
+    <t>is_fishing   MAE:   8.93, RMSE:  12.86, R²: -0.357, VLA:  0.704 (n=56)</t>
+  </si>
+  <si>
+    <t>===</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>R²</t>
+  </si>
+  <si>
+    <t>(n=2323)</t>
+  </si>
+  <si>
+    <t>(n=769)</t>
+  </si>
+  <si>
+    <t>(n=173)</t>
+  </si>
+  <si>
+    <t>(n=56)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- train: dual-pol-3ch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-augmented labels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- no swapping, no vessel length normalisation (y_train)
+- conf=0.01 and iou=0.65  (229  predictions - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>highest confidence/image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+- Note: 19 images have no detections.</t>
+    </r>
+  </si>
+  <si>
+    <t>rf_regressor</t>
+  </si>
+  <si>
+    <t>mlp_regressor</t>
+  </si>
+  <si>
+    <t>RF Hyperparameters:</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>min_samples_leaf</t>
+  </si>
+  <si>
+    <t>n_estimators</t>
+  </si>
+  <si>
+    <t>min_samples_split</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>lr scheduler</t>
+  </si>
+  <si>
+    <t>decay_steps</t>
+  </si>
+  <si>
+    <t>initial lr</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>InverseTimeDecay</t>
+  </si>
+  <si>
+    <t>patience</t>
+  </si>
+  <si>
+    <t>decay_rate</t>
+  </si>
+  <si>
+    <t>20251011_0635</t>
   </si>
 </sst>
 </file>
@@ -3807,7 +4150,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3962,6 +4305,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4007,7 +4362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -4473,11 +4828,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="562">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5553,6 +5917,239 @@
     <xf numFmtId="165" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5571,21 +6168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5613,9 +6195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5640,6 +6219,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5652,63 +6246,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5720,6 +6257,69 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5750,77 +6350,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5831,71 +6389,105 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5913,6 +6505,417 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95859</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="4363059" cy="3562847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>591404</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="561975"/>
+          <a:ext cx="6115904" cy="2705478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>153166</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="371475"/>
+          <a:ext cx="5487166" cy="3934374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>363553</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="5915025"/>
+          <a:ext cx="11488753" cy="3724795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>815476</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524626" y="1276350"/>
+          <a:ext cx="7225800" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8194" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8194"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1895475</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8197" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8197"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400833</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="1733550"/>
+          <a:ext cx="5611008" cy="4429743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>372249</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="1847850"/>
+          <a:ext cx="5544324" cy="4182059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6205,7 +7208,7 @@
   <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
@@ -6232,17 +7235,17 @@
       <c r="A1" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="372" t="s">
+      <c r="E1" s="450" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
-      <c r="K1" s="377" t="s">
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="K1" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="379"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="457"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -6332,7 +7335,7 @@
       <c r="N3" s="236">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="O3" s="380" t="s">
+      <c r="O3" s="458" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6365,7 +7368,7 @@
       <c r="N4" s="239">
         <v>0.105</v>
       </c>
-      <c r="O4" s="380"/>
+      <c r="O4" s="458"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -6396,7 +7399,7 @@
       <c r="N5" s="242">
         <v>1.29E-2</v>
       </c>
-      <c r="O5" s="380"/>
+      <c r="O5" s="458"/>
     </row>
     <row r="6" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -6439,7 +7442,7 @@
       <c r="N6" s="236">
         <v>3.27E-2</v>
       </c>
-      <c r="O6" s="380" t="s">
+      <c r="O6" s="458" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6476,7 +7479,7 @@
       <c r="N7" s="239">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="O7" s="380"/>
+      <c r="O7" s="458"/>
     </row>
     <row r="8" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -6507,7 +7510,7 @@
       <c r="N8" s="242">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="O8" s="380"/>
+      <c r="O8" s="458"/>
     </row>
     <row r="9" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
@@ -6550,7 +7553,7 @@
       <c r="N9" s="282">
         <v>0.189</v>
       </c>
-      <c r="O9" s="381" t="s">
+      <c r="O9" s="440" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6583,7 +7586,7 @@
       <c r="N10" s="282">
         <v>0.28799999999999998</v>
       </c>
-      <c r="O10" s="381"/>
+      <c r="O10" s="440"/>
     </row>
     <row r="11" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
@@ -6614,7 +7617,7 @@
       <c r="N11" s="286">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="O11" s="381"/>
+      <c r="O11" s="440"/>
     </row>
     <row r="12" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -6657,7 +7660,7 @@
       <c r="N12" s="282">
         <v>0.184</v>
       </c>
-      <c r="O12" s="381" t="s">
+      <c r="O12" s="440" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6690,7 +7693,7 @@
       <c r="N13" s="282">
         <v>0.27100000000000002</v>
       </c>
-      <c r="O13" s="381"/>
+      <c r="O13" s="440"/>
     </row>
     <row r="14" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -6721,7 +7724,7 @@
       <c r="N14" s="286">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="O14" s="381"/>
+      <c r="O14" s="440"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="298" t="s">
@@ -6766,17 +7769,17 @@
       <c r="N15" s="325">
         <v>0.28399999999999997</v>
       </c>
-      <c r="O15" s="406" t="s">
+      <c r="O15" s="426" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="409" t="s">
+      <c r="Q15" s="437" t="s">
         <v>215</v>
       </c>
-      <c r="R15" s="409"/>
-      <c r="S15" s="409"/>
-      <c r="T15" s="409"/>
-      <c r="U15" s="409"/>
-      <c r="V15" s="409"/>
+      <c r="R15" s="437"/>
+      <c r="S15" s="437"/>
+      <c r="T15" s="437"/>
+      <c r="U15" s="437"/>
+      <c r="V15" s="437"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="298"/>
@@ -6809,13 +7812,13 @@
       <c r="N16" s="321">
         <v>0.38200000000000001</v>
       </c>
-      <c r="O16" s="407"/>
-      <c r="Q16" s="409"/>
-      <c r="R16" s="409"/>
-      <c r="S16" s="409"/>
-      <c r="T16" s="409"/>
-      <c r="U16" s="409"/>
-      <c r="V16" s="409"/>
+      <c r="O16" s="427"/>
+      <c r="Q16" s="437"/>
+      <c r="R16" s="437"/>
+      <c r="S16" s="437"/>
+      <c r="T16" s="437"/>
+      <c r="U16" s="437"/>
+      <c r="V16" s="437"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="303"/>
@@ -6846,32 +7849,32 @@
       <c r="N17" s="323">
         <v>0.186</v>
       </c>
-      <c r="O17" s="408"/>
-      <c r="Q17" s="409"/>
-      <c r="R17" s="409"/>
-      <c r="S17" s="409"/>
-      <c r="T17" s="409"/>
-      <c r="U17" s="409"/>
-      <c r="V17" s="409"/>
+      <c r="O17" s="428"/>
+      <c r="Q17" s="437"/>
+      <c r="R17" s="437"/>
+      <c r="S17" s="437"/>
+      <c r="T17" s="437"/>
+      <c r="U17" s="437"/>
+      <c r="V17" s="437"/>
     </row>
     <row r="18" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="382" t="s">
+      <c r="A18" s="459" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="383"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="383"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="383"/>
-      <c r="I18" s="383"/>
-      <c r="J18" s="383"/>
-      <c r="K18" s="383"/>
-      <c r="L18" s="383"/>
-      <c r="M18" s="383"/>
-      <c r="N18" s="383"/>
-      <c r="O18" s="383"/>
+      <c r="B18" s="460"/>
+      <c r="C18" s="460"/>
+      <c r="D18" s="460"/>
+      <c r="E18" s="460"/>
+      <c r="F18" s="460"/>
+      <c r="G18" s="460"/>
+      <c r="H18" s="460"/>
+      <c r="I18" s="460"/>
+      <c r="J18" s="460"/>
+      <c r="K18" s="460"/>
+      <c r="L18" s="460"/>
+      <c r="M18" s="460"/>
+      <c r="N18" s="460"/>
+      <c r="O18" s="460"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
@@ -6914,7 +7917,7 @@
       <c r="N19" s="270">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O19" s="381" t="s">
+      <c r="O19" s="440" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6947,7 +7950,7 @@
       <c r="N20" s="273">
         <v>0.38500000000000001</v>
       </c>
-      <c r="O20" s="381"/>
+      <c r="O20" s="440"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
@@ -6978,7 +7981,7 @@
       <c r="N21" s="276">
         <v>0.151</v>
       </c>
-      <c r="O21" s="381"/>
+      <c r="O21" s="440"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -7021,7 +8024,7 @@
       <c r="N22" s="236">
         <v>0.27</v>
       </c>
-      <c r="O22" s="381" t="s">
+      <c r="O22" s="440" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7054,7 +8057,7 @@
       <c r="N23" s="239">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O23" s="381"/>
+      <c r="O23" s="440"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -7085,7 +8088,7 @@
       <c r="N24" s="242">
         <v>0.159</v>
       </c>
-      <c r="O24" s="381"/>
+      <c r="O24" s="440"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -7128,7 +8131,7 @@
       <c r="N25" s="236">
         <v>0.152</v>
       </c>
-      <c r="O25" s="381" t="s">
+      <c r="O25" s="440" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7161,7 +8164,7 @@
       <c r="N26" s="239">
         <v>0.224</v>
       </c>
-      <c r="O26" s="381"/>
+      <c r="O26" s="440"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -7192,7 +8195,7 @@
       <c r="N27" s="242">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="O27" s="381"/>
+      <c r="O27" s="440"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
@@ -7235,7 +8238,7 @@
       <c r="N28" s="270">
         <v>0.27900000000000003</v>
       </c>
-      <c r="O28" s="410" t="s">
+      <c r="O28" s="441" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7268,7 +8271,7 @@
       <c r="N29" s="282">
         <v>0.36699999999999999</v>
       </c>
-      <c r="O29" s="411"/>
+      <c r="O29" s="442"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
@@ -7299,7 +8302,7 @@
       <c r="N30" s="276">
         <v>0.191</v>
       </c>
-      <c r="O30" s="412"/>
+      <c r="O30" s="443"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -7342,7 +8345,7 @@
       <c r="N31" s="284">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O31" s="410" t="s">
+      <c r="O31" s="441" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7377,7 +8380,7 @@
       <c r="N32" s="284">
         <v>0.33500000000000002</v>
       </c>
-      <c r="O32" s="411"/>
+      <c r="O32" s="442"/>
     </row>
     <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
@@ -7408,7 +8411,7 @@
       <c r="N33" s="284">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O33" s="412"/>
+      <c r="O33" s="443"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
@@ -7451,7 +8454,7 @@
       <c r="N34" s="269">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O34" s="410" t="s">
+      <c r="O34" s="441" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7486,7 +8489,7 @@
       <c r="N35" s="257">
         <v>0.33500000000000002</v>
       </c>
-      <c r="O35" s="411"/>
+      <c r="O35" s="442"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
@@ -7517,7 +8520,7 @@
       <c r="N36" s="275">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O36" s="412"/>
+      <c r="O36" s="443"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="287" t="s">
@@ -7560,7 +8563,7 @@
       <c r="N37" s="253">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O37" s="367" t="s">
+      <c r="O37" s="429" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7595,7 +8598,7 @@
       <c r="N38" s="254">
         <v>0.36499999999999999</v>
       </c>
-      <c r="O38" s="367"/>
+      <c r="O38" s="429"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
@@ -7626,7 +8629,7 @@
       <c r="N39" s="255">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O39" s="367"/>
+      <c r="O39" s="429"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
@@ -7669,7 +8672,7 @@
       <c r="N40" s="269">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O40" s="367" t="s">
+      <c r="O40" s="429" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7704,7 +8707,7 @@
       <c r="N41" s="272">
         <v>0.378</v>
       </c>
-      <c r="O41" s="367"/>
+      <c r="O41" s="429"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
@@ -7735,7 +8738,7 @@
       <c r="N42" s="275">
         <v>0.192</v>
       </c>
-      <c r="O42" s="367"/>
+      <c r="O42" s="429"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -7778,7 +8781,7 @@
       <c r="N43" s="236">
         <v>0.28599999999999998</v>
       </c>
-      <c r="O43" s="367" t="s">
+      <c r="O43" s="429" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7811,7 +8814,7 @@
       <c r="N44" s="239">
         <v>0.38900000000000001</v>
       </c>
-      <c r="O44" s="367"/>
+      <c r="O44" s="429"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
@@ -7842,7 +8845,7 @@
       <c r="N45" s="242">
         <v>0.183</v>
       </c>
-      <c r="O45" s="367"/>
+      <c r="O45" s="429"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -7885,7 +8888,7 @@
       <c r="N46" s="253">
         <v>0.28699999999999998</v>
       </c>
-      <c r="O46" s="410" t="s">
+      <c r="O46" s="441" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7918,7 +8921,7 @@
       <c r="N47" s="254">
         <v>0.38</v>
       </c>
-      <c r="O47" s="411"/>
+      <c r="O47" s="442"/>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
@@ -7949,26 +8952,26 @@
       <c r="N48" s="264">
         <v>0.19500000000000001</v>
       </c>
-      <c r="O48" s="412"/>
+      <c r="O48" s="443"/>
     </row>
     <row r="49" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="386" t="s">
+      <c r="A49" s="463" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="387"/>
-      <c r="C49" s="387"/>
-      <c r="D49" s="387"/>
-      <c r="E49" s="387"/>
-      <c r="F49" s="387"/>
-      <c r="G49" s="387"/>
-      <c r="H49" s="387"/>
-      <c r="I49" s="387"/>
-      <c r="J49" s="387"/>
-      <c r="K49" s="387"/>
-      <c r="L49" s="387"/>
-      <c r="M49" s="387"/>
-      <c r="N49" s="387"/>
-      <c r="O49" s="387"/>
+      <c r="B49" s="464"/>
+      <c r="C49" s="464"/>
+      <c r="D49" s="464"/>
+      <c r="E49" s="464"/>
+      <c r="F49" s="464"/>
+      <c r="G49" s="464"/>
+      <c r="H49" s="464"/>
+      <c r="I49" s="464"/>
+      <c r="J49" s="464"/>
+      <c r="K49" s="464"/>
+      <c r="L49" s="464"/>
+      <c r="M49" s="464"/>
+      <c r="N49" s="464"/>
+      <c r="O49" s="464"/>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -8013,7 +9016,7 @@
       <c r="N50" s="236">
         <v>0.27600000000000002</v>
       </c>
-      <c r="O50" s="364" t="s">
+      <c r="O50" s="447" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8046,7 +9049,7 @@
       <c r="N51" s="239">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O51" s="365"/>
+      <c r="O51" s="448"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
@@ -8077,7 +9080,7 @@
       <c r="N52" s="242">
         <v>0.19</v>
       </c>
-      <c r="O52" s="366"/>
+      <c r="O52" s="449"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
@@ -8122,7 +9125,7 @@
       <c r="N53" s="263">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O53" s="369" t="s">
+      <c r="O53" s="438" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8155,7 +9158,7 @@
       <c r="N54" s="254">
         <v>0.378</v>
       </c>
-      <c r="O54" s="388"/>
+      <c r="O54" s="465"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
@@ -8186,7 +9189,7 @@
       <c r="N55" s="264">
         <v>0.16900000000000001</v>
       </c>
-      <c r="O55" s="389"/>
+      <c r="O55" s="466"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
@@ -8231,7 +9234,7 @@
       <c r="N56" s="340">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O56" s="361" t="s">
+      <c r="O56" s="444" t="s">
         <v>180</v>
       </c>
     </row>
@@ -8264,7 +9267,7 @@
       <c r="N57" s="341">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O57" s="362"/>
+      <c r="O57" s="445"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
@@ -8295,7 +9298,7 @@
       <c r="N58" s="342">
         <v>0.19700000000000001</v>
       </c>
-      <c r="O58" s="363"/>
+      <c r="O58" s="446"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
@@ -8310,7 +9313,7 @@
       <c r="D59" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="373" t="s">
+      <c r="E59" s="451" t="s">
         <v>214</v>
       </c>
       <c r="F59" s="19" t="s">
@@ -8340,7 +9343,7 @@
       <c r="N59" s="253">
         <v>0.27900000000000003</v>
       </c>
-      <c r="O59" s="394" t="s">
+      <c r="O59" s="467" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8351,7 +9354,7 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="90"/>
-      <c r="E60" s="374"/>
+      <c r="E60" s="452"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="57" t="s">
@@ -8375,7 +9378,7 @@
       <c r="N60" s="254">
         <v>0.378</v>
       </c>
-      <c r="O60" s="395"/>
+      <c r="O60" s="468"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
@@ -8406,7 +9409,7 @@
       <c r="N61" s="255">
         <v>0.18</v>
       </c>
-      <c r="O61" s="396"/>
+      <c r="O61" s="469"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
@@ -8451,7 +9454,7 @@
       <c r="N62" s="253">
         <v>0.27600000000000002</v>
       </c>
-      <c r="O62" s="384" t="s">
+      <c r="O62" s="461" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8486,7 +9489,7 @@
       <c r="N63" s="254">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O63" s="385"/>
+      <c r="O63" s="462"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
@@ -8517,7 +9520,7 @@
       <c r="N64" s="255">
         <v>0.16700000000000001</v>
       </c>
-      <c r="O64" s="385"/>
+      <c r="O64" s="462"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
@@ -8562,7 +9565,7 @@
       <c r="N65" s="265">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O65" s="384" t="s">
+      <c r="O65" s="461" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8597,7 +9600,7 @@
       <c r="N66" s="266">
         <v>0.38400000000000001</v>
       </c>
-      <c r="O66" s="385"/>
+      <c r="O66" s="462"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
@@ -8630,26 +9633,26 @@
       <c r="N67" s="267">
         <v>0.185</v>
       </c>
-      <c r="O67" s="385"/>
+      <c r="O67" s="462"/>
     </row>
     <row r="68" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="399" t="s">
+      <c r="A68" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="400"/>
-      <c r="C68" s="400"/>
-      <c r="D68" s="400"/>
-      <c r="E68" s="400"/>
-      <c r="F68" s="400"/>
-      <c r="G68" s="400"/>
-      <c r="H68" s="400"/>
-      <c r="I68" s="400"/>
-      <c r="J68" s="400"/>
-      <c r="K68" s="400"/>
-      <c r="L68" s="400"/>
-      <c r="M68" s="400"/>
-      <c r="N68" s="400"/>
-      <c r="O68" s="401"/>
+      <c r="B68" s="432"/>
+      <c r="C68" s="432"/>
+      <c r="D68" s="432"/>
+      <c r="E68" s="432"/>
+      <c r="F68" s="432"/>
+      <c r="G68" s="432"/>
+      <c r="H68" s="432"/>
+      <c r="I68" s="432"/>
+      <c r="J68" s="432"/>
+      <c r="K68" s="432"/>
+      <c r="L68" s="432"/>
+      <c r="M68" s="432"/>
+      <c r="N68" s="432"/>
+      <c r="O68" s="433"/>
     </row>
     <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
@@ -8694,7 +9697,7 @@
       <c r="N69" s="259">
         <v>0.126</v>
       </c>
-      <c r="O69" s="404" t="s">
+      <c r="O69" s="424" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8729,7 +9732,7 @@
       <c r="N70" s="260">
         <v>0.20699999999999999</v>
       </c>
-      <c r="O70" s="405"/>
+      <c r="O70" s="425"/>
     </row>
     <row r="71" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="124"/>
@@ -8760,7 +9763,7 @@
       <c r="N71" s="261">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="O71" s="405"/>
+      <c r="O71" s="425"/>
     </row>
     <row r="72" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="116" t="s">
@@ -8805,7 +9808,7 @@
       <c r="N72" s="260">
         <v>0.112</v>
       </c>
-      <c r="O72" s="404" t="s">
+      <c r="O72" s="424" t="s">
         <v>178</v>
       </c>
     </row>
@@ -8842,7 +9845,7 @@
       <c r="N73" s="260">
         <v>0.19800000000000001</v>
       </c>
-      <c r="O73" s="405"/>
+      <c r="O73" s="425"/>
     </row>
     <row r="74" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="124"/>
@@ -8873,7 +9876,7 @@
       <c r="N74" s="260">
         <v>2.69E-2</v>
       </c>
-      <c r="O74" s="405"/>
+      <c r="O74" s="425"/>
     </row>
     <row r="75" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="116" t="s">
@@ -8918,7 +9921,7 @@
       <c r="N75" s="259">
         <v>0.107</v>
       </c>
-      <c r="O75" s="404" t="s">
+      <c r="O75" s="424" t="s">
         <v>181</v>
       </c>
     </row>
@@ -8953,7 +9956,7 @@
       <c r="N76" s="260">
         <v>0.189</v>
       </c>
-      <c r="O76" s="405"/>
+      <c r="O76" s="425"/>
     </row>
     <row r="77" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="124"/>
@@ -8984,7 +9987,7 @@
       <c r="N77" s="261">
         <v>2.53E-2</v>
       </c>
-      <c r="O77" s="405"/>
+      <c r="O77" s="425"/>
     </row>
     <row r="78" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="116" t="s">
@@ -9029,7 +10032,7 @@
       <c r="N78" s="259">
         <v>0.128</v>
       </c>
-      <c r="O78" s="404" t="s">
+      <c r="O78" s="424" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9066,7 +10069,7 @@
       <c r="N79" s="260">
         <v>0.20799999999999999</v>
       </c>
-      <c r="O79" s="405"/>
+      <c r="O79" s="425"/>
     </row>
     <row r="80" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="124"/>
@@ -9097,7 +10100,7 @@
       <c r="N80" s="261">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="O80" s="405"/>
+      <c r="O80" s="425"/>
     </row>
     <row r="81" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="116" t="s">
@@ -9142,7 +10145,7 @@
       <c r="N81" s="259">
         <v>0.14399999999999999</v>
       </c>
-      <c r="O81" s="404" t="s">
+      <c r="O81" s="424" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9152,7 +10155,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="122"/>
-      <c r="D82" s="403" t="s">
+      <c r="D82" s="435" t="s">
         <v>94</v>
       </c>
       <c r="E82" s="120"/>
@@ -9179,13 +10182,13 @@
       <c r="N82" s="260">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O82" s="405"/>
+      <c r="O82" s="425"/>
     </row>
     <row r="83" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="124"/>
       <c r="B83" s="125"/>
       <c r="C83" s="125"/>
-      <c r="D83" s="371"/>
+      <c r="D83" s="436"/>
       <c r="E83" s="124"/>
       <c r="F83" s="124"/>
       <c r="G83" s="124"/>
@@ -9210,26 +10213,26 @@
       <c r="N83" s="249">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="O83" s="405"/>
+      <c r="O83" s="425"/>
     </row>
     <row r="84" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="402" t="s">
+      <c r="A84" s="434" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="400"/>
-      <c r="C84" s="400"/>
-      <c r="D84" s="400"/>
-      <c r="E84" s="400"/>
-      <c r="F84" s="400"/>
-      <c r="G84" s="400"/>
-      <c r="H84" s="400"/>
-      <c r="I84" s="400"/>
-      <c r="J84" s="400"/>
-      <c r="K84" s="400"/>
-      <c r="L84" s="400"/>
-      <c r="M84" s="400"/>
-      <c r="N84" s="400"/>
-      <c r="O84" s="400"/>
+      <c r="B84" s="432"/>
+      <c r="C84" s="432"/>
+      <c r="D84" s="432"/>
+      <c r="E84" s="432"/>
+      <c r="F84" s="432"/>
+      <c r="G84" s="432"/>
+      <c r="H84" s="432"/>
+      <c r="I84" s="432"/>
+      <c r="J84" s="432"/>
+      <c r="K84" s="432"/>
+      <c r="L84" s="432"/>
+      <c r="M84" s="432"/>
+      <c r="N84" s="432"/>
+      <c r="O84" s="432"/>
     </row>
     <row r="85" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="67" t="s">
@@ -9274,12 +10277,12 @@
       <c r="N85" s="288">
         <v>0.28199999999999997</v>
       </c>
-      <c r="O85" s="361" t="s">
+      <c r="O85" s="444" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="397" t="s">
+      <c r="A86" s="470" t="s">
         <v>97</v>
       </c>
       <c r="B86" s="69" t="s">
@@ -9311,10 +10314,10 @@
       <c r="N86" s="289">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O86" s="362"/>
+      <c r="O86" s="445"/>
     </row>
     <row r="87" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="398"/>
+      <c r="A87" s="471"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
@@ -9342,26 +10345,26 @@
       <c r="N87" s="290">
         <v>0.183</v>
       </c>
-      <c r="O87" s="363"/>
+      <c r="O87" s="446"/>
     </row>
     <row r="88" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="402" t="s">
+      <c r="A88" s="434" t="s">
         <v>203</v>
       </c>
-      <c r="B88" s="400"/>
-      <c r="C88" s="400"/>
-      <c r="D88" s="400"/>
-      <c r="E88" s="400"/>
-      <c r="F88" s="400"/>
-      <c r="G88" s="400"/>
-      <c r="H88" s="400"/>
-      <c r="I88" s="400"/>
-      <c r="J88" s="400"/>
-      <c r="K88" s="400"/>
-      <c r="L88" s="400"/>
-      <c r="M88" s="400"/>
-      <c r="N88" s="400"/>
-      <c r="O88" s="400"/>
+      <c r="B88" s="432"/>
+      <c r="C88" s="432"/>
+      <c r="D88" s="432"/>
+      <c r="E88" s="432"/>
+      <c r="F88" s="432"/>
+      <c r="G88" s="432"/>
+      <c r="H88" s="432"/>
+      <c r="I88" s="432"/>
+      <c r="J88" s="432"/>
+      <c r="K88" s="432"/>
+      <c r="L88" s="432"/>
+      <c r="M88" s="432"/>
+      <c r="N88" s="432"/>
+      <c r="O88" s="432"/>
     </row>
     <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="67" t="s">
@@ -9406,7 +10409,7 @@
       <c r="N89" s="256">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O89" s="367" t="s">
+      <c r="O89" s="429" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9439,7 +10442,7 @@
       <c r="N90" s="257">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O90" s="368"/>
+      <c r="O90" s="430"/>
     </row>
     <row r="91" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31"/>
@@ -9470,26 +10473,26 @@
       <c r="N91" s="258">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O91" s="368"/>
+      <c r="O91" s="430"/>
     </row>
     <row r="92" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="375" t="s">
+      <c r="A92" s="453" t="s">
         <v>175</v>
       </c>
-      <c r="B92" s="376"/>
-      <c r="C92" s="376"/>
-      <c r="D92" s="376"/>
-      <c r="E92" s="376"/>
-      <c r="F92" s="376"/>
-      <c r="G92" s="376"/>
-      <c r="H92" s="376"/>
-      <c r="I92" s="376"/>
-      <c r="J92" s="376"/>
-      <c r="K92" s="376"/>
-      <c r="L92" s="376"/>
-      <c r="M92" s="376"/>
-      <c r="N92" s="376"/>
-      <c r="O92" s="376"/>
+      <c r="B92" s="454"/>
+      <c r="C92" s="454"/>
+      <c r="D92" s="454"/>
+      <c r="E92" s="454"/>
+      <c r="F92" s="454"/>
+      <c r="G92" s="454"/>
+      <c r="H92" s="454"/>
+      <c r="I92" s="454"/>
+      <c r="J92" s="454"/>
+      <c r="K92" s="454"/>
+      <c r="L92" s="454"/>
+      <c r="M92" s="454"/>
+      <c r="N92" s="454"/>
+      <c r="O92" s="454"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
@@ -9534,7 +10537,7 @@
       <c r="N93" s="253">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O93" s="367" t="s">
+      <c r="O93" s="429" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9569,7 +10572,7 @@
       <c r="N94" s="254">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O94" s="368"/>
+      <c r="O94" s="430"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
@@ -9600,7 +10603,7 @@
       <c r="N95" s="255">
         <v>0.17</v>
       </c>
-      <c r="O95" s="368"/>
+      <c r="O95" s="430"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
@@ -9645,7 +10648,7 @@
       <c r="N96" s="253">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O96" s="367" t="s">
+      <c r="O96" s="429" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9680,7 +10683,7 @@
       <c r="N97" s="254">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O97" s="368"/>
+      <c r="O97" s="430"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
@@ -9711,26 +10714,26 @@
       <c r="N98" s="255">
         <v>0.17599999999999999</v>
       </c>
-      <c r="O98" s="368"/>
+      <c r="O98" s="430"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="390" t="s">
+      <c r="A99" s="472" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="391"/>
-      <c r="C99" s="391"/>
-      <c r="D99" s="391"/>
-      <c r="E99" s="391"/>
-      <c r="F99" s="391"/>
-      <c r="G99" s="391"/>
-      <c r="H99" s="391"/>
-      <c r="I99" s="391"/>
-      <c r="J99" s="391"/>
-      <c r="K99" s="391"/>
-      <c r="L99" s="391"/>
-      <c r="M99" s="391"/>
-      <c r="N99" s="391"/>
-      <c r="O99" s="391"/>
+      <c r="B99" s="473"/>
+      <c r="C99" s="473"/>
+      <c r="D99" s="473"/>
+      <c r="E99" s="473"/>
+      <c r="F99" s="473"/>
+      <c r="G99" s="473"/>
+      <c r="H99" s="473"/>
+      <c r="I99" s="473"/>
+      <c r="J99" s="473"/>
+      <c r="K99" s="473"/>
+      <c r="L99" s="473"/>
+      <c r="M99" s="473"/>
+      <c r="N99" s="473"/>
+      <c r="O99" s="473"/>
     </row>
     <row r="100" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="207" t="s">
@@ -9764,23 +10767,23 @@
       <c r="O100" s="203"/>
     </row>
     <row r="101" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="415" t="s">
+      <c r="A101" s="478" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="416"/>
-      <c r="C101" s="416"/>
-      <c r="D101" s="416"/>
-      <c r="E101" s="416"/>
-      <c r="F101" s="416"/>
-      <c r="G101" s="416"/>
-      <c r="H101" s="416"/>
-      <c r="I101" s="416"/>
-      <c r="J101" s="416"/>
-      <c r="K101" s="416"/>
-      <c r="L101" s="416"/>
-      <c r="M101" s="416"/>
-      <c r="N101" s="416"/>
-      <c r="O101" s="416"/>
+      <c r="B101" s="479"/>
+      <c r="C101" s="479"/>
+      <c r="D101" s="479"/>
+      <c r="E101" s="479"/>
+      <c r="F101" s="479"/>
+      <c r="G101" s="479"/>
+      <c r="H101" s="479"/>
+      <c r="I101" s="479"/>
+      <c r="J101" s="479"/>
+      <c r="K101" s="479"/>
+      <c r="L101" s="479"/>
+      <c r="M101" s="479"/>
+      <c r="N101" s="479"/>
+      <c r="O101" s="479"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="101" t="s">
@@ -9825,7 +10828,7 @@
       <c r="N102" s="337">
         <v>0.27300000000000002</v>
       </c>
-      <c r="O102" s="392" t="s">
+      <c r="O102" s="474" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9860,7 +10863,7 @@
       <c r="N103" s="338">
         <v>0.36</v>
       </c>
-      <c r="O103" s="393"/>
+      <c r="O103" s="475"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="108"/>
@@ -9891,26 +10894,26 @@
       <c r="N104" s="339">
         <v>0.186</v>
       </c>
-      <c r="O104" s="393"/>
+      <c r="O104" s="475"/>
     </row>
     <row r="105" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="413" t="s">
+      <c r="A105" s="476" t="s">
         <v>202</v>
       </c>
-      <c r="B105" s="414"/>
-      <c r="C105" s="414"/>
-      <c r="D105" s="414"/>
-      <c r="E105" s="414"/>
-      <c r="F105" s="414"/>
-      <c r="G105" s="414"/>
-      <c r="H105" s="414"/>
-      <c r="I105" s="414"/>
-      <c r="J105" s="414"/>
-      <c r="K105" s="414"/>
-      <c r="L105" s="414"/>
-      <c r="M105" s="414"/>
-      <c r="N105" s="414"/>
-      <c r="O105" s="414"/>
+      <c r="B105" s="477"/>
+      <c r="C105" s="477"/>
+      <c r="D105" s="477"/>
+      <c r="E105" s="477"/>
+      <c r="F105" s="477"/>
+      <c r="G105" s="477"/>
+      <c r="H105" s="477"/>
+      <c r="I105" s="477"/>
+      <c r="J105" s="477"/>
+      <c r="K105" s="477"/>
+      <c r="L105" s="477"/>
+      <c r="M105" s="477"/>
+      <c r="N105" s="477"/>
+      <c r="O105" s="477"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
@@ -9955,7 +10958,7 @@
       <c r="N106" s="250">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O106" s="369" t="s">
+      <c r="O106" s="438" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9990,7 +10993,7 @@
       <c r="N107" s="251">
         <v>0.372</v>
       </c>
-      <c r="O107" s="370"/>
+      <c r="O107" s="439"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
@@ -10021,7 +11024,7 @@
       <c r="N108" s="252">
         <v>0.219</v>
       </c>
-      <c r="O108" s="371"/>
+      <c r="O108" s="436"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
@@ -10066,7 +11069,7 @@
       <c r="N109" s="330">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O109" s="410" t="s">
+      <c r="O109" s="441" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10101,7 +11104,7 @@
       <c r="N110" s="333">
         <v>0.39</v>
       </c>
-      <c r="O110" s="411"/>
+      <c r="O110" s="442"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
@@ -10132,7 +11135,7 @@
       <c r="N111" s="336">
         <v>0.22</v>
       </c>
-      <c r="O111" s="412"/>
+      <c r="O111" s="443"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="101" t="s">
@@ -10177,7 +11180,7 @@
       <c r="N112" s="296">
         <v>0.312</v>
       </c>
-      <c r="O112" s="406" t="s">
+      <c r="O112" s="426" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10212,7 +11215,7 @@
       <c r="N113" s="302">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O113" s="407"/>
+      <c r="O113" s="427"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="108"/>
@@ -10243,7 +11246,7 @@
       <c r="N114" s="307">
         <v>0.23100000000000001</v>
       </c>
-      <c r="O114" s="408"/>
+      <c r="O114" s="428"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
@@ -10288,7 +11291,7 @@
       <c r="N115" s="236">
         <v>0.30099999999999999</v>
       </c>
-      <c r="O115" s="369" t="s">
+      <c r="O115" s="438" t="s">
         <v>208</v>
       </c>
     </row>
@@ -10323,7 +11326,7 @@
       <c r="N116" s="239">
         <v>0.38400000000000001</v>
       </c>
-      <c r="O116" s="370"/>
+      <c r="O116" s="439"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
@@ -10354,28 +11357,17 @@
       <c r="N117" s="242">
         <v>0.219</v>
       </c>
-      <c r="O117" s="371"/>
+      <c r="O117" s="436"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="O106:O108"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="O102:O104"/>
+    <mergeCell ref="O96:O98"/>
+    <mergeCell ref="O89:O91"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A101:O101"/>
-    <mergeCell ref="O78:O80"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="Q15:V17"/>
-    <mergeCell ref="O115:O117"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="O46:O48"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="O109:O111"/>
-    <mergeCell ref="O112:O114"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="O37:O39"/>
@@ -10392,15 +11384,26 @@
     <mergeCell ref="O59:O61"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="O65:O67"/>
+    <mergeCell ref="Q15:V17"/>
+    <mergeCell ref="O115:O117"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="O109:O111"/>
+    <mergeCell ref="O112:O114"/>
     <mergeCell ref="O56:O58"/>
     <mergeCell ref="O50:O52"/>
     <mergeCell ref="O85:O87"/>
+    <mergeCell ref="O78:O80"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="O15:O17"/>
     <mergeCell ref="O93:O95"/>
-    <mergeCell ref="O106:O108"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="O102:O104"/>
-    <mergeCell ref="O96:O98"/>
-    <mergeCell ref="O89:O91"/>
     <mergeCell ref="A68:O68"/>
     <mergeCell ref="A84:O84"/>
     <mergeCell ref="A88:O88"/>
@@ -10423,17 +11426,17 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="2" max="3" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
@@ -10449,20 +11452,20 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="372" t="s">
+      <c r="E1" s="450" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="377" t="s">
+      <c r="K1" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="379"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="457"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -10555,7 +11558,7 @@
       <c r="N3" s="352">
         <v>0.27300000000000002</v>
       </c>
-      <c r="O3" s="392" t="s">
+      <c r="O3" s="474" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10588,7 +11591,7 @@
       <c r="N4" s="353">
         <v>0.36</v>
       </c>
-      <c r="O4" s="393"/>
+      <c r="O4" s="475"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="108"/>
@@ -10619,7 +11622,7 @@
       <c r="N5" s="354">
         <v>0.186</v>
       </c>
-      <c r="O5" s="393"/>
+      <c r="O5" s="475"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="298" t="s">
@@ -10664,7 +11667,7 @@
       <c r="N6" s="360">
         <v>0.28399999999999997</v>
       </c>
-      <c r="O6" s="406" t="s">
+      <c r="O6" s="426" t="s">
         <v>218</v>
       </c>
     </row>
@@ -10697,7 +11700,7 @@
       <c r="N7" s="358">
         <v>0.38200000000000001</v>
       </c>
-      <c r="O7" s="407"/>
+      <c r="O7" s="427"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="303"/>
@@ -10728,7 +11731,7 @@
       <c r="N8" s="359">
         <v>0.186</v>
       </c>
-      <c r="O8" s="408"/>
+      <c r="O8" s="428"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
@@ -10773,7 +11776,7 @@
       <c r="N9" s="355">
         <v>0.312</v>
       </c>
-      <c r="O9" s="406" t="s">
+      <c r="O9" s="426" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10806,7 +11809,7 @@
       <c r="N10" s="356">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O10" s="407"/>
+      <c r="O10" s="427"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="108"/>
@@ -10837,7 +11840,7 @@
       <c r="N11" s="357">
         <v>0.23100000000000001</v>
       </c>
-      <c r="O11" s="408"/>
+      <c r="O11" s="428"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10869,23 +11872,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="501" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="417"/>
-      <c r="O1" s="417"/>
+      <c r="B1" s="501"/>
+      <c r="C1" s="501"/>
+      <c r="D1" s="501"/>
+      <c r="E1" s="501"/>
+      <c r="F1" s="501"/>
+      <c r="G1" s="501"/>
+      <c r="H1" s="501"/>
+      <c r="I1" s="501"/>
+      <c r="J1" s="501"/>
+      <c r="K1" s="501"/>
+      <c r="L1" s="501"/>
+      <c r="M1" s="501"/>
+      <c r="N1" s="501"/>
+      <c r="O1" s="501"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="149" t="s">
@@ -10894,24 +11897,24 @@
       <c r="B2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="436" t="s">
+      <c r="C2" s="498" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="438"/>
-      <c r="G2" s="436" t="s">
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="500"/>
+      <c r="G2" s="498" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="437"/>
-      <c r="I2" s="437"/>
-      <c r="J2" s="438"/>
-      <c r="K2" s="439" t="s">
+      <c r="H2" s="499"/>
+      <c r="I2" s="499"/>
+      <c r="J2" s="500"/>
+      <c r="K2" s="495" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="440"/>
-      <c r="M2" s="440"/>
-      <c r="N2" s="441"/>
+      <c r="L2" s="496"/>
+      <c r="M2" s="496"/>
+      <c r="N2" s="497"/>
       <c r="O2" s="151" t="s">
         <v>108</v>
       </c>
@@ -10950,7 +11953,7 @@
       <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="480" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="212" t="s">
@@ -10984,17 +11987,17 @@
       <c r="N4" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O4" s="431" t="s">
+      <c r="O4" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Q4" s="442" t="s">
+      <c r="Q4" s="486" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="443"/>
-      <c r="S4" s="444"/>
+      <c r="R4" s="487"/>
+      <c r="S4" s="488"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="429"/>
+      <c r="A5" s="481"/>
       <c r="B5" s="215" t="s">
         <v>1</v>
       </c>
@@ -11026,7 +12029,7 @@
       <c r="N5" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O5" s="432"/>
+      <c r="O5" s="484"/>
       <c r="Q5" s="224" t="s">
         <v>118</v>
       </c>
@@ -11038,7 +12041,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="430"/>
+      <c r="A6" s="482"/>
       <c r="B6" s="219" t="s">
         <v>2</v>
       </c>
@@ -11070,7 +12073,7 @@
       <c r="N6" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O6" s="433"/>
+      <c r="O6" s="485"/>
       <c r="Q6" s="225" t="s">
         <v>116</v>
       </c>
@@ -11082,7 +12085,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="428" t="s">
+      <c r="A7" s="480" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="212" t="s">
@@ -11116,7 +12119,7 @@
       <c r="N7" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O7" s="431" t="s">
+      <c r="O7" s="483" t="s">
         <v>166</v>
       </c>
       <c r="Q7" s="225" t="s">
@@ -11130,7 +12133,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="429"/>
+      <c r="A8" s="481"/>
       <c r="B8" s="215" t="s">
         <v>1</v>
       </c>
@@ -11162,7 +12165,7 @@
       <c r="N8" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O8" s="432"/>
+      <c r="O8" s="484"/>
       <c r="Q8" s="225" t="s">
         <v>115</v>
       </c>
@@ -11174,7 +12177,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="430"/>
+      <c r="A9" s="482"/>
       <c r="B9" s="219" t="s">
         <v>2</v>
       </c>
@@ -11206,10 +12209,10 @@
       <c r="N9" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O9" s="433"/>
+      <c r="O9" s="485"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="428" t="s">
+      <c r="A10" s="480" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="212" t="s">
@@ -11243,12 +12246,12 @@
       <c r="N10" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O10" s="431" t="s">
+      <c r="O10" s="483" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="429"/>
+      <c r="A11" s="481"/>
       <c r="B11" s="215" t="s">
         <v>1</v>
       </c>
@@ -11280,10 +12283,10 @@
       <c r="N11" s="169">
         <v>0.52300000000000002</v>
       </c>
-      <c r="O11" s="432"/>
+      <c r="O11" s="484"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="430"/>
+      <c r="A12" s="482"/>
       <c r="B12" s="219" t="s">
         <v>2</v>
       </c>
@@ -11315,26 +12318,26 @@
       <c r="N12" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O12" s="433"/>
+      <c r="O12" s="485"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="434" t="s">
+      <c r="A13" s="512" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="435"/>
-      <c r="C13" s="435"/>
-      <c r="D13" s="435"/>
-      <c r="E13" s="435"/>
-      <c r="F13" s="435"/>
-      <c r="G13" s="435"/>
-      <c r="H13" s="435"/>
-      <c r="I13" s="435"/>
-      <c r="J13" s="435"/>
-      <c r="K13" s="435"/>
-      <c r="L13" s="435"/>
-      <c r="M13" s="435"/>
-      <c r="N13" s="435"/>
-      <c r="O13" s="435"/>
+      <c r="B13" s="513"/>
+      <c r="C13" s="513"/>
+      <c r="D13" s="513"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="513"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
+      <c r="K13" s="513"/>
+      <c r="L13" s="513"/>
+      <c r="M13" s="513"/>
+      <c r="N13" s="513"/>
+      <c r="O13" s="513"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="129"/>
@@ -11346,25 +12349,25 @@
       <c r="O16" s="129"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="417" t="s">
+      <c r="A17" s="501" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="418" t="s">
+      <c r="B17" s="502" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="418"/>
-      <c r="D17" s="418"/>
-      <c r="E17" s="418"/>
-      <c r="F17" s="418"/>
-      <c r="G17" s="418"/>
-      <c r="H17" s="418"/>
-      <c r="I17" s="418"/>
-      <c r="J17" s="418"/>
-      <c r="K17" s="418"/>
-      <c r="L17" s="418"/>
-      <c r="M17" s="418"/>
-      <c r="N17" s="418"/>
-      <c r="O17" s="418"/>
+      <c r="C17" s="502"/>
+      <c r="D17" s="502"/>
+      <c r="E17" s="502"/>
+      <c r="F17" s="502"/>
+      <c r="G17" s="502"/>
+      <c r="H17" s="502"/>
+      <c r="I17" s="502"/>
+      <c r="J17" s="502"/>
+      <c r="K17" s="502"/>
+      <c r="L17" s="502"/>
+      <c r="M17" s="502"/>
+      <c r="N17" s="502"/>
+      <c r="O17" s="502"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="149" t="s">
@@ -11373,24 +12376,24 @@
       <c r="B18" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="436" t="s">
+      <c r="C18" s="498" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="437"/>
-      <c r="E18" s="437"/>
-      <c r="F18" s="438"/>
-      <c r="G18" s="436" t="s">
+      <c r="D18" s="499"/>
+      <c r="E18" s="499"/>
+      <c r="F18" s="500"/>
+      <c r="G18" s="498" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="437"/>
-      <c r="I18" s="437"/>
-      <c r="J18" s="438"/>
-      <c r="K18" s="439" t="s">
+      <c r="H18" s="499"/>
+      <c r="I18" s="499"/>
+      <c r="J18" s="500"/>
+      <c r="K18" s="495" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="440"/>
-      <c r="M18" s="440"/>
-      <c r="N18" s="441"/>
+      <c r="L18" s="496"/>
+      <c r="M18" s="496"/>
+      <c r="N18" s="497"/>
       <c r="O18" s="149" t="s">
         <v>108</v>
       </c>
@@ -11437,7 +12440,7 @@
       <c r="O19" s="152"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="425" t="s">
+      <c r="A20" s="509" t="s">
         <v>130</v>
       </c>
       <c r="B20" s="146" t="s">
@@ -11479,12 +12482,12 @@
       <c r="N20" s="174">
         <v>0.621</v>
       </c>
-      <c r="O20" s="422" t="s">
+      <c r="O20" s="506" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="426"/>
+      <c r="A21" s="510"/>
       <c r="B21" s="131" t="s">
         <v>1</v>
       </c>
@@ -11524,10 +12527,10 @@
       <c r="N21" s="137">
         <v>0.60799999999999998</v>
       </c>
-      <c r="O21" s="423"/>
+      <c r="O21" s="507"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="427"/>
+      <c r="A22" s="511"/>
       <c r="B22" s="138" t="s">
         <v>2</v>
       </c>
@@ -11567,10 +12570,10 @@
       <c r="N22" s="140">
         <v>0.71</v>
       </c>
-      <c r="O22" s="424"/>
+      <c r="O22" s="508"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="425" t="s">
+      <c r="A23" s="509" t="s">
         <v>131</v>
       </c>
       <c r="B23" s="146" t="s">
@@ -11612,12 +12615,12 @@
       <c r="N23" s="175">
         <v>0.62</v>
       </c>
-      <c r="O23" s="422" t="s">
+      <c r="O23" s="506" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="426"/>
+      <c r="A24" s="510"/>
       <c r="B24" s="131" t="s">
         <v>1</v>
       </c>
@@ -11657,10 +12660,10 @@
       <c r="N24" s="137">
         <v>0.60899999999999999</v>
       </c>
-      <c r="O24" s="423"/>
+      <c r="O24" s="507"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="427"/>
+      <c r="A25" s="511"/>
       <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
@@ -11700,10 +12703,10 @@
       <c r="N25" s="140">
         <v>0.69099999999999995</v>
       </c>
-      <c r="O25" s="424"/>
+      <c r="O25" s="508"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="445" t="s">
+      <c r="A26" s="489" t="s">
         <v>127</v>
       </c>
       <c r="B26" s="180" t="s">
@@ -11745,12 +12748,12 @@
       <c r="N26" s="184">
         <v>0.624</v>
       </c>
-      <c r="O26" s="448" t="s">
+      <c r="O26" s="492" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="446"/>
+      <c r="A27" s="490"/>
       <c r="B27" s="187" t="s">
         <v>1</v>
       </c>
@@ -11790,10 +12793,10 @@
       <c r="N27" s="189">
         <v>0.61199999999999999</v>
       </c>
-      <c r="O27" s="449"/>
+      <c r="O27" s="493"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="447"/>
+      <c r="A28" s="491"/>
       <c r="B28" s="193" t="s">
         <v>2</v>
       </c>
@@ -11833,10 +12836,10 @@
       <c r="N28" s="197">
         <v>0.70499999999999996</v>
       </c>
-      <c r="O28" s="450"/>
+      <c r="O28" s="494"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="419" t="s">
+      <c r="A29" s="503" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="163" t="s">
@@ -11878,12 +12881,12 @@
       <c r="N29" s="177">
         <v>0.61699999999999999</v>
       </c>
-      <c r="O29" s="422" t="s">
+      <c r="O29" s="506" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="420"/>
+      <c r="A30" s="504"/>
       <c r="B30" s="166" t="s">
         <v>1</v>
       </c>
@@ -11923,10 +12926,10 @@
       <c r="N30" s="169">
         <v>0.60199999999999998</v>
       </c>
-      <c r="O30" s="423"/>
+      <c r="O30" s="507"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="421"/>
+      <c r="A31" s="505"/>
       <c r="B31" s="170" t="s">
         <v>2</v>
       </c>
@@ -11966,10 +12969,10 @@
       <c r="N31" s="173">
         <v>0.72199999999999998</v>
       </c>
-      <c r="O31" s="424"/>
+      <c r="O31" s="508"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="419" t="s">
+      <c r="A32" s="503" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="163" t="s">
@@ -12011,12 +13014,12 @@
       <c r="N32" s="178">
         <v>0.61599999999999999</v>
       </c>
-      <c r="O32" s="422" t="s">
+      <c r="O32" s="506" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="420"/>
+      <c r="A33" s="504"/>
       <c r="B33" s="166" t="s">
         <v>1</v>
       </c>
@@ -12056,10 +13059,10 @@
       <c r="N33" s="169">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O33" s="423"/>
+      <c r="O33" s="507"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="421"/>
+      <c r="A34" s="505"/>
       <c r="B34" s="170" t="s">
         <v>2</v>
       </c>
@@ -12099,7 +13102,7 @@
       <c r="N34" s="173">
         <v>0.70199999999999996</v>
       </c>
-      <c r="O34" s="424"/>
+      <c r="O34" s="508"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="129"/>
@@ -12172,16 +13175,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:N18"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A17:O17"/>
     <mergeCell ref="A32:A34"/>
@@ -12198,6 +13191,16 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="O10:O12"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="O26:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12206,1588 +13209,2011 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="417" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="501" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="417"/>
-      <c r="O1" s="417"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="C1" s="501"/>
+      <c r="D1" s="501"/>
+      <c r="E1" s="501"/>
+      <c r="F1" s="501"/>
+      <c r="G1" s="501"/>
+      <c r="H1" s="501"/>
+      <c r="I1" s="501"/>
+      <c r="J1" s="501"/>
+      <c r="K1" s="501"/>
+      <c r="L1" s="501"/>
+      <c r="M1" s="501"/>
+      <c r="N1" s="501"/>
+      <c r="O1" s="501"/>
+      <c r="P1" s="501"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="C2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="436" t="s">
+      <c r="D2" s="498" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="438"/>
-      <c r="G2" s="436" t="s">
+      <c r="E2" s="499"/>
+      <c r="F2" s="499"/>
+      <c r="G2" s="500"/>
+      <c r="H2" s="498" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="437"/>
-      <c r="I2" s="437"/>
-      <c r="J2" s="451"/>
-      <c r="K2" s="439" t="s">
+      <c r="I2" s="499"/>
+      <c r="J2" s="499"/>
+      <c r="K2" s="525"/>
+      <c r="L2" s="495" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="440"/>
-      <c r="M2" s="440"/>
-      <c r="N2" s="441"/>
-      <c r="O2" s="151" t="s">
+      <c r="M2" s="496"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="497"/>
+      <c r="P2" s="151" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="E3" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="F3" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="G3" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="154"/>
       <c r="H3" s="154"/>
       <c r="I3" s="154"/>
       <c r="J3" s="154"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="154"/>
+      <c r="L3" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="154" t="s">
+      <c r="M3" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="154" t="s">
+      <c r="N3" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="154" t="s">
+      <c r="O3" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="155"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="428" t="s">
+      <c r="P3" s="155"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="520" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="480" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="C4" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="164">
+      <c r="D4" s="164">
         <v>21.19</v>
       </c>
-      <c r="D4" s="164">
+      <c r="E4" s="164">
         <v>30.8</v>
       </c>
-      <c r="E4" s="165">
+      <c r="F4" s="165">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F4" s="177">
+      <c r="G4" s="177">
         <v>0.63100000000000001</v>
       </c>
-      <c r="G4" s="213"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="213">
+      <c r="H4" s="213"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="213">
         <v>27.64</v>
       </c>
-      <c r="L4" s="164">
+      <c r="M4" s="164">
         <v>37.979999999999997</v>
       </c>
-      <c r="M4" s="214">
+      <c r="N4" s="214">
         <v>0.57499999999999996</v>
       </c>
-      <c r="N4" s="177">
+      <c r="O4" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O4" s="431" t="s">
+      <c r="P4" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Q4" s="442" t="s">
+      <c r="R4" s="486" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="443"/>
-      <c r="S4" s="444"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="429"/>
-      <c r="B5" s="215" t="s">
+      <c r="S4" s="487"/>
+      <c r="T4" s="488"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="521"/>
+      <c r="B5" s="481"/>
+      <c r="C5" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="167">
+      <c r="D5" s="167">
         <v>25.99</v>
       </c>
-      <c r="D5" s="167">
+      <c r="E5" s="167">
         <v>35.1</v>
       </c>
-      <c r="E5" s="168">
+      <c r="F5" s="168">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F5" s="169">
+      <c r="G5" s="169">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="216">
+      <c r="H5" s="216"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="216">
         <v>30.64</v>
       </c>
-      <c r="L5" s="216">
+      <c r="M5" s="216">
         <v>40.51</v>
       </c>
-      <c r="M5" s="218">
+      <c r="N5" s="218">
         <v>0.46400000000000002</v>
       </c>
-      <c r="N5" s="169">
+      <c r="O5" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O5" s="432"/>
-      <c r="Q5" s="224" t="s">
+      <c r="P5" s="484"/>
+      <c r="R5" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="R5" s="224" t="s">
+      <c r="S5" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="224" t="s">
+      <c r="T5" s="224" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="430"/>
-      <c r="B6" s="219" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="521"/>
+      <c r="B6" s="482"/>
+      <c r="C6" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="171">
+      <c r="D6" s="171">
         <v>6.67</v>
       </c>
-      <c r="D6" s="171">
+      <c r="E6" s="171">
         <v>9.68</v>
       </c>
-      <c r="E6" s="172">
+      <c r="F6" s="172">
         <v>0.48899999999999999</v>
       </c>
-      <c r="F6" s="173">
+      <c r="G6" s="173">
         <v>0.71599999999999997</v>
       </c>
-      <c r="G6" s="220"/>
       <c r="H6" s="220"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="220">
+      <c r="I6" s="220"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="220">
         <v>7.46</v>
       </c>
-      <c r="L6" s="171">
+      <c r="M6" s="171">
         <v>10.24</v>
       </c>
-      <c r="M6" s="222">
+      <c r="N6" s="222">
         <v>0.108</v>
       </c>
-      <c r="N6" s="173">
+      <c r="O6" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O6" s="433"/>
-      <c r="Q6" s="225" t="s">
+      <c r="P6" s="485"/>
+      <c r="R6" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="R6" s="223">
+      <c r="S6" s="223">
         <v>6.96</v>
       </c>
-      <c r="S6" s="223">
+      <c r="T6" s="223">
         <v>343.4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="428" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="521"/>
+      <c r="B7" s="480" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="212" t="s">
+      <c r="C7" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="164">
+      <c r="D7" s="164">
         <v>21.19</v>
       </c>
-      <c r="D7" s="164">
+      <c r="E7" s="164">
         <v>30.8</v>
       </c>
-      <c r="E7" s="165">
+      <c r="F7" s="165">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F7" s="177">
+      <c r="G7" s="177">
         <v>0.63100000000000001</v>
       </c>
-      <c r="G7" s="213"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="213">
+      <c r="H7" s="213"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="213">
         <v>27.64</v>
       </c>
-      <c r="L7" s="164">
+      <c r="M7" s="164">
         <v>37.979999999999997</v>
       </c>
-      <c r="M7" s="214">
+      <c r="N7" s="214">
         <v>0.57499999999999996</v>
       </c>
-      <c r="N7" s="177">
+      <c r="O7" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O7" s="431" t="s">
+      <c r="P7" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="Q7" s="225" t="s">
+      <c r="R7" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="R7" s="157">
+      <c r="S7" s="157">
         <v>10.199999999999999</v>
       </c>
-      <c r="S7" s="223">
+      <c r="T7" s="223">
         <v>240.16879700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="429"/>
-      <c r="B8" s="215" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="521"/>
+      <c r="B8" s="481"/>
+      <c r="C8" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="167">
+      <c r="D8" s="167">
         <v>25.99</v>
       </c>
-      <c r="D8" s="167">
+      <c r="E8" s="167">
         <v>35.1</v>
       </c>
-      <c r="E8" s="168">
+      <c r="F8" s="168">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F8" s="169">
+      <c r="G8" s="169">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G8" s="216"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="216">
+      <c r="H8" s="216"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="216">
         <v>30.64</v>
       </c>
-      <c r="L8" s="216">
+      <c r="M8" s="216">
         <v>40.51</v>
       </c>
-      <c r="M8" s="218">
+      <c r="N8" s="218">
         <v>0.46400000000000002</v>
       </c>
-      <c r="N8" s="169">
+      <c r="O8" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O8" s="432"/>
-      <c r="Q8" s="225" t="s">
+      <c r="P8" s="484"/>
+      <c r="R8" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="R8" s="157">
+      <c r="S8" s="157">
         <v>13.369142999999999</v>
       </c>
-      <c r="S8" s="223">
+      <c r="T8" s="223">
         <v>255.60251099999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="430"/>
-      <c r="B9" s="219" t="s">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="521"/>
+      <c r="B9" s="482"/>
+      <c r="C9" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="171">
+      <c r="D9" s="171">
         <v>6.67</v>
       </c>
-      <c r="D9" s="171">
+      <c r="E9" s="171">
         <v>9.68</v>
       </c>
-      <c r="E9" s="172">
+      <c r="F9" s="172">
         <v>0.48899999999999999</v>
       </c>
-      <c r="F9" s="173">
+      <c r="G9" s="173">
         <v>0.71599999999999997</v>
       </c>
-      <c r="G9" s="220"/>
       <c r="H9" s="220"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="220">
+      <c r="I9" s="220"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="220">
         <v>7.46</v>
       </c>
-      <c r="L9" s="171">
+      <c r="M9" s="171">
         <v>10.24</v>
       </c>
-      <c r="M9" s="222">
+      <c r="N9" s="222">
         <v>0.108</v>
       </c>
-      <c r="N9" s="173">
+      <c r="O9" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O9" s="433"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="428" t="s">
+      <c r="P9" s="485"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="521"/>
+      <c r="B10" s="480" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="212" t="s">
+      <c r="C10" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="164">
+      <c r="D10" s="164">
         <v>21.18</v>
       </c>
-      <c r="D10" s="164">
+      <c r="E10" s="164">
         <v>30.8</v>
       </c>
-      <c r="E10" s="165">
+      <c r="F10" s="165">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F10" s="177">
+      <c r="G10" s="177">
         <v>0.63100000000000001</v>
       </c>
-      <c r="G10" s="213"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="213">
+      <c r="H10" s="213"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="213">
         <v>27.61</v>
       </c>
-      <c r="L10" s="164">
+      <c r="M10" s="164">
         <v>37.9</v>
       </c>
-      <c r="M10" s="214">
+      <c r="N10" s="214">
         <v>0.57699999999999996</v>
       </c>
-      <c r="N10" s="177">
+      <c r="O10" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O10" s="431" t="s">
+      <c r="P10" s="483" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="429"/>
-      <c r="B11" s="215" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="521"/>
+      <c r="B11" s="481"/>
+      <c r="C11" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="167">
+      <c r="D11" s="167">
         <v>25.98</v>
       </c>
-      <c r="D11" s="167">
+      <c r="E11" s="167">
         <v>35.090000000000003</v>
       </c>
-      <c r="E11" s="168">
+      <c r="F11" s="168">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F11" s="228">
+      <c r="G11" s="228">
         <v>0.60299999999999998</v>
       </c>
-      <c r="G11" s="216"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="216">
+      <c r="H11" s="216"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="216">
         <v>30.61</v>
       </c>
-      <c r="L11" s="216">
+      <c r="M11" s="216">
         <v>40.43</v>
       </c>
-      <c r="M11" s="218">
+      <c r="N11" s="218">
         <v>0.46600000000000003</v>
       </c>
-      <c r="N11" s="169">
+      <c r="O11" s="169">
         <v>0.52300000000000002</v>
       </c>
-      <c r="O11" s="432"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="430"/>
-      <c r="B12" s="219" t="s">
+      <c r="P11" s="484"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="521"/>
+      <c r="B12" s="482"/>
+      <c r="C12" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="171">
+      <c r="D12" s="171">
         <v>6.67</v>
       </c>
-      <c r="D12" s="171">
+      <c r="E12" s="171">
         <v>9.68</v>
       </c>
-      <c r="E12" s="172">
+      <c r="F12" s="172">
         <v>0.48899999999999999</v>
       </c>
-      <c r="F12" s="173">
+      <c r="G12" s="173">
         <v>0.71599999999999997</v>
       </c>
-      <c r="G12" s="220"/>
       <c r="H12" s="220"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="220">
+      <c r="I12" s="220"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="220">
         <v>7.45</v>
       </c>
-      <c r="L12" s="171">
+      <c r="M12" s="171">
         <v>10.23</v>
       </c>
-      <c r="M12" s="222">
+      <c r="N12" s="222">
         <v>0.109</v>
       </c>
-      <c r="N12" s="173">
+      <c r="O12" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O12" s="433"/>
-    </row>
-    <row r="13" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="434" t="s">
+      <c r="P12" s="485"/>
+    </row>
+    <row r="13" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="512" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="435"/>
-      <c r="C13" s="435"/>
-      <c r="D13" s="435"/>
-      <c r="E13" s="435"/>
-      <c r="F13" s="435"/>
-      <c r="G13" s="435"/>
-      <c r="H13" s="435"/>
-      <c r="I13" s="435"/>
-      <c r="J13" s="435"/>
-      <c r="K13" s="435"/>
-      <c r="L13" s="435"/>
-      <c r="M13" s="435"/>
-      <c r="N13" s="435"/>
-      <c r="O13" s="435"/>
-    </row>
-    <row r="14" spans="1:19" s="460" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="458"/>
-      <c r="B14" s="459"/>
-      <c r="C14" s="459"/>
-      <c r="D14" s="459"/>
-      <c r="E14" s="459"/>
-      <c r="F14" s="459"/>
-      <c r="G14" s="459"/>
-      <c r="H14" s="459"/>
-      <c r="I14" s="459"/>
-      <c r="J14" s="459"/>
-      <c r="K14" s="459"/>
-      <c r="L14" s="459"/>
-      <c r="M14" s="459"/>
-      <c r="N14" s="459"/>
-      <c r="O14" s="459"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="458"/>
-      <c r="B15" s="459"/>
-      <c r="C15" s="459"/>
-      <c r="D15" s="459"/>
-      <c r="E15" s="459"/>
-      <c r="F15" s="459"/>
-      <c r="G15" s="459"/>
-      <c r="H15" s="459"/>
-      <c r="I15" s="459"/>
-      <c r="J15" s="459"/>
-      <c r="K15" s="459"/>
-      <c r="L15" s="459"/>
-      <c r="M15" s="459"/>
-      <c r="N15" s="459"/>
-      <c r="O15" s="459"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="149" t="s">
+      <c r="C13" s="513"/>
+      <c r="D13" s="513"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="513"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
+      <c r="K13" s="513"/>
+      <c r="L13" s="513"/>
+      <c r="M13" s="513"/>
+      <c r="N13" s="513"/>
+      <c r="O13" s="513"/>
+      <c r="P13" s="513"/>
+    </row>
+    <row r="14" spans="1:20" s="364" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="362"/>
+      <c r="C14" s="363"/>
+      <c r="D14" s="363"/>
+      <c r="E14" s="363"/>
+      <c r="F14" s="363"/>
+      <c r="G14" s="363"/>
+      <c r="H14" s="363"/>
+      <c r="I14" s="363"/>
+      <c r="J14" s="363"/>
+      <c r="K14" s="363"/>
+      <c r="L14" s="363"/>
+      <c r="M14" s="363"/>
+      <c r="N14" s="363"/>
+      <c r="O14" s="363"/>
+      <c r="P14" s="363"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="362"/>
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="363"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="363"/>
+      <c r="I15" s="363"/>
+      <c r="J15" s="363"/>
+      <c r="K15" s="363"/>
+      <c r="L15" s="363"/>
+      <c r="M15" s="363"/>
+      <c r="N15" s="363"/>
+      <c r="O15" s="363"/>
+      <c r="P15" s="363"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="C16" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="436" t="s">
+      <c r="D16" s="498" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="437"/>
-      <c r="E16" s="437"/>
-      <c r="F16" s="438"/>
-      <c r="G16" s="436"/>
-      <c r="H16" s="437"/>
-      <c r="I16" s="437"/>
-      <c r="J16" s="451"/>
-      <c r="K16" s="439" t="s">
+      <c r="E16" s="499"/>
+      <c r="F16" s="499"/>
+      <c r="G16" s="500"/>
+      <c r="H16" s="498"/>
+      <c r="I16" s="499"/>
+      <c r="J16" s="499"/>
+      <c r="K16" s="525"/>
+      <c r="L16" s="495" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="440"/>
-      <c r="M16" s="440"/>
-      <c r="N16" s="441"/>
-      <c r="O16" s="151" t="s">
+      <c r="M16" s="496"/>
+      <c r="N16" s="496"/>
+      <c r="O16" s="497"/>
+      <c r="P16" s="151" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154" t="s">
+    <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="154" t="s">
+      <c r="E17" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="154" t="s">
+      <c r="F17" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="154" t="s">
+      <c r="G17" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="154"/>
       <c r="H17" s="154"/>
       <c r="I17" s="154"/>
       <c r="J17" s="154"/>
-      <c r="K17" s="154" t="s">
+      <c r="K17" s="154"/>
+      <c r="L17" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="154" t="s">
+      <c r="M17" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="154" t="s">
+      <c r="N17" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="N17" s="154" t="s">
+      <c r="O17" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="155"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="455" t="s">
+      <c r="P17" s="155"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="520"/>
+      <c r="B18" s="514" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="212" t="s">
+      <c r="C18" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="164">
+      <c r="D18" s="164">
         <v>21.18</v>
       </c>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165">
+      <c r="E18" s="164"/>
+      <c r="F18" s="165">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F18" s="177">
+      <c r="G18" s="177">
         <v>0.63100000000000001</v>
       </c>
-      <c r="G18" s="213"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="213">
+      <c r="H18" s="213"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="213">
         <v>20.63</v>
       </c>
-      <c r="L18" s="164"/>
-      <c r="M18" s="214">
+      <c r="M18" s="164"/>
+      <c r="N18" s="214">
         <v>0.73499999999999999</v>
       </c>
-      <c r="N18" s="177">
+      <c r="O18" s="177">
         <v>0.60599999999999998</v>
       </c>
-      <c r="O18" s="452" t="s">
+      <c r="P18" s="522" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="456"/>
-      <c r="B19" s="215" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="521"/>
+      <c r="B19" s="515"/>
+      <c r="C19" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="167">
+      <c r="D19" s="167">
         <v>25.98</v>
       </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="168">
+      <c r="E19" s="167"/>
+      <c r="F19" s="168">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F19" s="169">
+      <c r="G19" s="169">
         <v>0.60299999999999998</v>
       </c>
-      <c r="G19" s="216"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="216">
+      <c r="H19" s="216"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="216">
         <v>24.73</v>
       </c>
-      <c r="L19" s="216"/>
-      <c r="M19" s="218">
+      <c r="M19" s="216"/>
+      <c r="N19" s="218">
         <v>0.64800000000000002</v>
       </c>
-      <c r="N19" s="169">
+      <c r="O19" s="169">
         <v>0.57099999999999995</v>
       </c>
-      <c r="O19" s="453"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="457"/>
-      <c r="B20" s="219" t="s">
+      <c r="P19" s="523"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="521"/>
+      <c r="B20" s="516"/>
+      <c r="C20" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="171">
+      <c r="D20" s="171">
         <v>6.69</v>
       </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172">
+      <c r="E20" s="171"/>
+      <c r="F20" s="172">
         <v>0.48499999999999999</v>
       </c>
-      <c r="F20" s="173">
+      <c r="G20" s="173">
         <v>0.71499999999999997</v>
       </c>
-      <c r="G20" s="220"/>
       <c r="H20" s="220"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="220">
+      <c r="I20" s="220"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="220">
         <v>8.64</v>
       </c>
-      <c r="L20" s="171"/>
-      <c r="M20" s="222">
+      <c r="M20" s="171"/>
+      <c r="N20" s="222">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="N20" s="173">
+      <c r="O20" s="173">
         <v>0.70799999999999996</v>
       </c>
-      <c r="O20" s="454"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="129"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="129"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="129"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="129"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="208"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="129"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="129"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="129"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="129"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="129"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="129"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="524"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="514" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="164">
+        <v>15.57</v>
+      </c>
+      <c r="E21" s="164"/>
+      <c r="F21" s="165">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G21" s="177">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H21" s="213"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="213">
+        <v>22.15</v>
+      </c>
+      <c r="M21" s="164"/>
+      <c r="N21" s="214">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="O21" s="177">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="P21" s="517" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="515"/>
+      <c r="C22" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="167">
+        <v>25.35</v>
+      </c>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G22" s="169">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H22" s="216"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="216">
+        <v>27.76</v>
+      </c>
+      <c r="M22" s="216"/>
+      <c r="N22" s="218">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="O22" s="169">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="P22" s="518"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="516"/>
+      <c r="C23" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="171">
+        <v>6.18</v>
+      </c>
+      <c r="E23" s="171"/>
+      <c r="F23" s="172">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G23" s="173">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="220">
+        <v>8.56</v>
+      </c>
+      <c r="M23" s="171"/>
+      <c r="N23" s="222">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="O23" s="173">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="P23" s="519"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="514" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="164">
+        <v>21.19</v>
+      </c>
+      <c r="E24" s="164"/>
+      <c r="F24" s="165">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G24" s="177">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H24" s="213"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="213">
+        <v>22.01</v>
+      </c>
+      <c r="M24" s="164"/>
+      <c r="N24" s="214">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O24" s="177">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="P24" s="517" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="515"/>
+      <c r="C25" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="167">
+        <v>25.98</v>
+      </c>
+      <c r="E25" s="167"/>
+      <c r="F25" s="168">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G25" s="169">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H25" s="216"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="216">
+        <v>27.41</v>
+      </c>
+      <c r="M25" s="216"/>
+      <c r="N25" s="218">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="O25" s="169">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="P25" s="518"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="516"/>
+      <c r="C26" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="171">
+        <v>6.69</v>
+      </c>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G26" s="173">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="220">
+        <v>8.92</v>
+      </c>
+      <c r="M26" s="171"/>
+      <c r="N26" s="222">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="O26" s="408">
+        <v>0.68</v>
+      </c>
+      <c r="P26" s="519"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="514" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="164">
+        <v>21.19</v>
+      </c>
+      <c r="E27" s="164"/>
+      <c r="F27" s="165">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G27" s="177">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H27" s="213"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="213">
+        <v>21.29</v>
+      </c>
+      <c r="M27" s="164"/>
+      <c r="N27" s="214">
+        <v>0.74</v>
+      </c>
+      <c r="O27" s="177">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="P27" s="517" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="515"/>
+      <c r="C28" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="167">
+        <v>25.98</v>
+      </c>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G28" s="169">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H28" s="216"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="216">
+        <v>25.51</v>
+      </c>
+      <c r="M28" s="216"/>
+      <c r="N28" s="218">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="O28" s="169">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P28" s="518"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="516"/>
+      <c r="C29" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="171">
+        <v>6.69</v>
+      </c>
+      <c r="E29" s="171"/>
+      <c r="F29" s="172">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G29" s="173">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="220">
+        <v>8.24</v>
+      </c>
+      <c r="M29" s="171"/>
+      <c r="N29" s="222">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="O29" s="408">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="P29" s="519"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="514" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="164">
+        <v>15.57</v>
+      </c>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G30" s="177">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H30" s="213"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="213">
+        <v>21.85</v>
+      </c>
+      <c r="M30" s="164"/>
+      <c r="N30" s="214">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O30" s="177">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="P30" s="517" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="515"/>
+      <c r="C31" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="167">
+        <v>25.35</v>
+      </c>
+      <c r="E31" s="167"/>
+      <c r="F31" s="168">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G31" s="169">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H31" s="216"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="216">
+        <v>26.45</v>
+      </c>
+      <c r="M31" s="216"/>
+      <c r="N31" s="218">
+        <v>0.621</v>
+      </c>
+      <c r="O31" s="169">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="P31" s="518"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="516"/>
+      <c r="C32" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="171">
+        <v>6.18</v>
+      </c>
+      <c r="E32" s="171"/>
+      <c r="F32" s="172">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G32" s="173">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="220">
+        <v>7.67</v>
+      </c>
+      <c r="M32" s="171"/>
+      <c r="N32" s="222">
+        <v>0.02</v>
+      </c>
+      <c r="O32" s="408">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="P32" s="519"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="129"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="129"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="129"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="129"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="129"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="129"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="129"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O37" s="129"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="417" t="s">
+      <c r="C36" s="129"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="129"/>
+      <c r="P37" s="129"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="129"/>
+      <c r="P38" s="129"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="367"/>
+      <c r="P39" s="129"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="129"/>
+      <c r="P40" s="129"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="129"/>
+      <c r="P41" s="129"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="129"/>
+      <c r="P42" s="129"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="129"/>
+      <c r="P43" s="129"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="129"/>
+      <c r="P44" s="129"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="129"/>
+      <c r="P45" s="129"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="129"/>
+      <c r="P46" s="129"/>
+    </row>
+    <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="501" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="418" t="s">
+      <c r="C47" s="502" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="418"/>
-      <c r="D38" s="418"/>
-      <c r="E38" s="418"/>
-      <c r="F38" s="418"/>
-      <c r="G38" s="418"/>
-      <c r="H38" s="418"/>
-      <c r="I38" s="418"/>
-      <c r="J38" s="418"/>
-      <c r="K38" s="418"/>
-      <c r="L38" s="418"/>
-      <c r="M38" s="418"/>
-      <c r="N38" s="418"/>
-      <c r="O38" s="418"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="149" t="s">
+      <c r="D47" s="502"/>
+      <c r="E47" s="502"/>
+      <c r="F47" s="502"/>
+      <c r="G47" s="502"/>
+      <c r="H47" s="502"/>
+      <c r="I47" s="502"/>
+      <c r="J47" s="502"/>
+      <c r="K47" s="502"/>
+      <c r="L47" s="502"/>
+      <c r="M47" s="502"/>
+      <c r="N47" s="502"/>
+      <c r="O47" s="502"/>
+      <c r="P47" s="502"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="149" t="s">
+      <c r="C48" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="436" t="s">
+      <c r="D48" s="498" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="437"/>
-      <c r="E39" s="437"/>
-      <c r="F39" s="438"/>
-      <c r="G39" s="436" t="s">
+      <c r="E48" s="499"/>
+      <c r="F48" s="499"/>
+      <c r="G48" s="500"/>
+      <c r="H48" s="498" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="437"/>
-      <c r="I39" s="437"/>
-      <c r="J39" s="451"/>
-      <c r="K39" s="439" t="s">
+      <c r="I48" s="499"/>
+      <c r="J48" s="499"/>
+      <c r="K48" s="525"/>
+      <c r="L48" s="495" t="s">
         <v>111</v>
       </c>
-      <c r="L39" s="440"/>
-      <c r="M39" s="440"/>
-      <c r="N39" s="441"/>
-      <c r="O39" s="149" t="s">
+      <c r="M48" s="496"/>
+      <c r="N48" s="496"/>
+      <c r="O48" s="497"/>
+      <c r="P48" s="149" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="152"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="154" t="s">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="154" t="s">
+      <c r="E49" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="154" t="s">
+      <c r="F49" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="154" t="s">
+      <c r="G49" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="154" t="s">
+      <c r="H49" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="154" t="s">
+      <c r="I49" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="154" t="s">
+      <c r="J49" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="154" t="s">
+      <c r="K49" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="K40" s="154" t="s">
+      <c r="L49" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="L40" s="154" t="s">
+      <c r="M49" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="M40" s="154" t="s">
+      <c r="N49" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="N40" s="154" t="s">
+      <c r="O49" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="O40" s="152"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="425" t="s">
+      <c r="P49" s="152"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="509" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="146" t="s">
+      <c r="C50" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="158">
+      <c r="D50" s="158">
         <v>17.239999999999998</v>
       </c>
-      <c r="D41" s="159">
+      <c r="E50" s="159">
         <v>29.69</v>
       </c>
-      <c r="E41" s="148">
+      <c r="F50" s="148">
         <v>0.69699999999999995</v>
       </c>
-      <c r="F41" s="174">
+      <c r="G50" s="174">
         <v>0.69399999999999995</v>
       </c>
-      <c r="G41" s="147">
+      <c r="H50" s="147">
         <v>24.73</v>
       </c>
-      <c r="H41" s="144">
+      <c r="I50" s="144">
         <v>34.33</v>
       </c>
-      <c r="I41" s="148">
+      <c r="J50" s="148">
         <v>0.627</v>
       </c>
-      <c r="J41" s="174">
+      <c r="K50" s="174">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K41" s="147">
+      <c r="L50" s="147">
         <v>29.54</v>
       </c>
-      <c r="L41" s="144">
+      <c r="M50" s="144">
         <v>41.75</v>
       </c>
-      <c r="M41" s="148">
+      <c r="N50" s="148">
         <v>0.48599999999999999</v>
       </c>
-      <c r="N41" s="174">
+      <c r="O50" s="174">
         <v>0.621</v>
       </c>
-      <c r="O41" s="422" t="s">
+      <c r="P50" s="506" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="426"/>
-      <c r="B42" s="131" t="s">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="510"/>
+      <c r="C51" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="133">
+      <c r="D51" s="133">
         <v>31.68</v>
       </c>
-      <c r="D42" s="133">
+      <c r="E51" s="133">
         <v>44.51</v>
       </c>
-      <c r="E42" s="136">
+      <c r="F51" s="136">
         <v>0.35299999999999998</v>
       </c>
-      <c r="F42" s="137">
+      <c r="G51" s="137">
         <v>0.66600000000000004</v>
       </c>
-      <c r="G42" s="134">
+      <c r="H51" s="134">
         <v>30.25</v>
       </c>
-      <c r="H42" s="133">
+      <c r="I51" s="133">
         <v>39.29</v>
       </c>
-      <c r="I42" s="135">
+      <c r="J51" s="135">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J42" s="137">
+      <c r="K51" s="137">
         <v>0.69899999999999995</v>
       </c>
-      <c r="K42" s="134">
+      <c r="L51" s="134">
         <v>32.83</v>
       </c>
-      <c r="L42" s="134">
+      <c r="M51" s="134">
         <v>44.58</v>
       </c>
-      <c r="M42" s="132">
+      <c r="N51" s="132">
         <v>0.35</v>
       </c>
-      <c r="N42" s="137">
+      <c r="O51" s="137">
         <v>0.60799999999999998</v>
       </c>
-      <c r="O42" s="423"/>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="427"/>
-      <c r="B43" s="138" t="s">
+      <c r="P51" s="507"/>
+    </row>
+    <row r="52" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="511"/>
+      <c r="C52" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="160">
+      <c r="D52" s="160">
         <v>8.39</v>
       </c>
-      <c r="D43" s="161">
+      <c r="E52" s="161">
         <v>14.44</v>
       </c>
-      <c r="E43" s="139">
+      <c r="F52" s="139">
         <v>0.129</v>
       </c>
-      <c r="F43" s="140">
+      <c r="G52" s="140">
         <v>0.71199999999999997</v>
       </c>
-      <c r="G43" s="141">
+      <c r="H52" s="141">
         <v>9.01</v>
       </c>
-      <c r="H43" s="141">
+      <c r="I52" s="141">
         <v>11.84</v>
       </c>
-      <c r="I43" s="162">
+      <c r="J52" s="162">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="J43" s="140">
+      <c r="K52" s="140">
         <v>0.69299999999999995</v>
       </c>
-      <c r="K43" s="141">
+      <c r="L52" s="141">
         <v>7.45</v>
       </c>
-      <c r="L43" s="142">
+      <c r="M52" s="142">
         <v>9.7799999999999994</v>
       </c>
-      <c r="M43" s="143">
+      <c r="N52" s="143">
         <v>0.185</v>
       </c>
-      <c r="N43" s="140">
+      <c r="O52" s="140">
         <v>0.71</v>
       </c>
-      <c r="O43" s="424"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="425" t="s">
+      <c r="P52" s="508"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="509" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="146" t="s">
+      <c r="C53" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="158">
+      <c r="D53" s="158">
         <v>17.14</v>
       </c>
-      <c r="D44" s="159">
+      <c r="E53" s="159">
         <v>28.88</v>
       </c>
-      <c r="E44" s="148">
+      <c r="F53" s="148">
         <v>0.71399999999999997</v>
       </c>
-      <c r="F44" s="174">
+      <c r="G53" s="174">
         <v>0.68500000000000005</v>
       </c>
-      <c r="G44" s="147">
+      <c r="H53" s="147">
         <v>24.42</v>
       </c>
-      <c r="H44" s="144">
+      <c r="I53" s="144">
         <v>33.75</v>
       </c>
-      <c r="I44" s="148">
+      <c r="J53" s="148">
         <v>0.64</v>
       </c>
-      <c r="J44" s="175">
+      <c r="K53" s="175">
         <v>0.69</v>
       </c>
-      <c r="K44" s="147">
+      <c r="L53" s="147">
         <v>27.96</v>
       </c>
-      <c r="L44" s="144">
+      <c r="M53" s="144">
         <v>39.24</v>
       </c>
-      <c r="M44" s="148">
+      <c r="N53" s="148">
         <v>0.54600000000000004</v>
       </c>
-      <c r="N44" s="175">
+      <c r="O53" s="175">
         <v>0.62</v>
       </c>
-      <c r="O44" s="422" t="s">
+      <c r="P53" s="506" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="426"/>
-      <c r="B45" s="131" t="s">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="510"/>
+      <c r="C54" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="133">
+      <c r="D54" s="133">
         <v>30.9</v>
       </c>
-      <c r="D45" s="133">
+      <c r="E54" s="133">
         <v>42.74</v>
       </c>
-      <c r="E45" s="136">
+      <c r="F54" s="136">
         <v>0.40300000000000002</v>
       </c>
-      <c r="F45" s="137">
+      <c r="G54" s="137">
         <v>0.65700000000000003</v>
       </c>
-      <c r="G45" s="134">
+      <c r="H54" s="134">
         <v>29.75</v>
       </c>
-      <c r="H45" s="133">
+      <c r="I54" s="133">
         <v>38.549999999999997</v>
       </c>
-      <c r="I45" s="135">
+      <c r="J54" s="135">
         <v>0.434</v>
       </c>
-      <c r="J45" s="137">
+      <c r="K54" s="137">
         <v>0.69199999999999995</v>
       </c>
-      <c r="K45" s="134">
+      <c r="L54" s="134">
         <v>30.91</v>
       </c>
-      <c r="L45" s="134">
+      <c r="M54" s="134">
         <v>41.85</v>
       </c>
-      <c r="M45" s="132">
+      <c r="N54" s="132">
         <v>0.42799999999999999</v>
       </c>
-      <c r="N45" s="137">
+      <c r="O54" s="137">
         <v>0.60899999999999999</v>
       </c>
-      <c r="O45" s="423"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="427"/>
-      <c r="B46" s="138" t="s">
+      <c r="P54" s="507"/>
+    </row>
+    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="511"/>
+      <c r="C55" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="160">
+      <c r="D55" s="160">
         <v>8.7100000000000009</v>
       </c>
-      <c r="D46" s="161">
+      <c r="E55" s="161">
         <v>15.01</v>
       </c>
-      <c r="E46" s="139">
+      <c r="F55" s="139">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F46" s="140">
+      <c r="G55" s="140">
         <v>0.70199999999999996</v>
       </c>
-      <c r="G46" s="141">
+      <c r="H55" s="141">
         <v>9.27</v>
       </c>
-      <c r="H46" s="141">
+      <c r="I55" s="141">
         <v>12.37</v>
       </c>
-      <c r="I46" s="162">
+      <c r="J55" s="162">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="J46" s="140">
+      <c r="K55" s="140">
         <v>0.68600000000000005</v>
       </c>
-      <c r="K46" s="141">
+      <c r="L55" s="141">
         <v>8.1199999999999992</v>
       </c>
-      <c r="L46" s="142">
+      <c r="M55" s="142">
         <v>10.72</v>
       </c>
-      <c r="M46" s="143">
+      <c r="N55" s="143">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N46" s="140">
+      <c r="O55" s="140">
         <v>0.69099999999999995</v>
       </c>
-      <c r="O46" s="424"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="445" t="s">
+      <c r="P55" s="508"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="489" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="180" t="s">
+      <c r="C56" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="181">
+      <c r="D56" s="181">
         <v>17</v>
       </c>
-      <c r="D47" s="182">
+      <c r="E56" s="182">
         <v>29.53</v>
       </c>
-      <c r="E47" s="183">
+      <c r="F56" s="183">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F47" s="184">
+      <c r="G56" s="184">
         <v>0.69299999999999995</v>
       </c>
-      <c r="G47" s="185">
+      <c r="H56" s="185">
         <v>24.99</v>
       </c>
-      <c r="H47" s="186">
+      <c r="I56" s="186">
         <v>34.83</v>
       </c>
-      <c r="I47" s="183">
+      <c r="J56" s="183">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J47" s="184">
+      <c r="K56" s="184">
         <v>0.69899999999999995</v>
       </c>
-      <c r="K47" s="185">
+      <c r="L56" s="185">
         <v>29.85</v>
       </c>
-      <c r="L47" s="186">
+      <c r="M56" s="186">
         <v>42.29</v>
       </c>
-      <c r="M47" s="183">
+      <c r="N56" s="183">
         <v>0.47299999999999998</v>
       </c>
-      <c r="N47" s="184">
+      <c r="O56" s="184">
         <v>0.624</v>
       </c>
-      <c r="O47" s="448" t="s">
+      <c r="P56" s="492" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="446"/>
-      <c r="B48" s="187" t="s">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="490"/>
+      <c r="C57" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="156">
+      <c r="D57" s="156">
         <v>31.55</v>
       </c>
-      <c r="D48" s="156">
+      <c r="E57" s="156">
         <v>44.61</v>
       </c>
-      <c r="E48" s="188">
+      <c r="F57" s="188">
         <v>0.35</v>
       </c>
-      <c r="F48" s="189">
+      <c r="G57" s="189">
         <v>0.66900000000000004</v>
       </c>
-      <c r="G48" s="190">
+      <c r="H57" s="190">
         <v>30.66</v>
       </c>
-      <c r="H48" s="156">
+      <c r="I57" s="156">
         <v>39.880000000000003</v>
       </c>
-      <c r="I48" s="191">
+      <c r="J57" s="191">
         <v>0.39400000000000002</v>
       </c>
-      <c r="J48" s="189">
+      <c r="K57" s="189">
         <v>0.70099999999999996</v>
       </c>
-      <c r="K48" s="190">
+      <c r="L57" s="190">
         <v>33.200000000000003</v>
       </c>
-      <c r="L48" s="190">
+      <c r="M57" s="190">
         <v>45.18</v>
       </c>
-      <c r="M48" s="192">
+      <c r="N57" s="192">
         <v>0.33300000000000002</v>
       </c>
-      <c r="N48" s="189">
+      <c r="O57" s="189">
         <v>0.61199999999999999</v>
       </c>
-      <c r="O48" s="449"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="447"/>
-      <c r="B49" s="193" t="s">
+      <c r="P57" s="493"/>
+    </row>
+    <row r="58" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="491"/>
+      <c r="C58" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="194">
+      <c r="D58" s="194">
         <v>8.08</v>
       </c>
-      <c r="D49" s="195">
+      <c r="E58" s="195">
         <v>13.67</v>
       </c>
-      <c r="E49" s="196">
+      <c r="F58" s="196">
         <v>0.219</v>
       </c>
-      <c r="F49" s="197">
+      <c r="G58" s="197">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G49" s="198">
+      <c r="H58" s="198">
         <v>8.84</v>
       </c>
-      <c r="H49" s="198">
+      <c r="I58" s="198">
         <v>11.76</v>
       </c>
-      <c r="I49" s="199">
+      <c r="J58" s="199">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="J49" s="197">
+      <c r="K58" s="197">
         <v>0.69499999999999995</v>
       </c>
-      <c r="K49" s="198">
+      <c r="L58" s="198">
         <v>7.36</v>
       </c>
-      <c r="L49" s="200">
+      <c r="M58" s="200">
         <v>9.66</v>
       </c>
-      <c r="M49" s="201">
+      <c r="N58" s="201">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N49" s="197">
+      <c r="O58" s="197">
         <v>0.70499999999999996</v>
       </c>
-      <c r="O49" s="450"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="419" t="s">
+      <c r="P58" s="494"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="503" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="163" t="s">
+      <c r="C59" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="164">
+      <c r="D59" s="164">
         <v>16.98</v>
       </c>
-      <c r="D50" s="164">
+      <c r="E59" s="164">
         <v>29.07</v>
       </c>
-      <c r="E50" s="165">
+      <c r="F59" s="165">
         <v>0.71</v>
       </c>
-      <c r="F50" s="176">
+      <c r="G59" s="176">
         <v>0.69</v>
       </c>
-      <c r="G50" s="164">
+      <c r="H59" s="164">
         <v>25.35</v>
       </c>
-      <c r="H50" s="164">
+      <c r="I59" s="164">
         <v>35.06</v>
       </c>
-      <c r="I50" s="165">
+      <c r="J59" s="165">
         <v>0.61099999999999999</v>
       </c>
-      <c r="J50" s="177">
+      <c r="K59" s="177">
         <v>0.69299999999999995</v>
       </c>
-      <c r="K50" s="164">
+      <c r="L59" s="164">
         <v>29.66</v>
       </c>
-      <c r="L50" s="164">
+      <c r="M59" s="164">
         <v>41.61</v>
       </c>
-      <c r="M50" s="165">
+      <c r="N59" s="165">
         <v>0.48899999999999999</v>
       </c>
-      <c r="N50" s="177">
+      <c r="O59" s="177">
         <v>0.61699999999999999</v>
       </c>
-      <c r="O50" s="422" t="s">
+      <c r="P59" s="506" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="420"/>
-      <c r="B51" s="166" t="s">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="504"/>
+      <c r="C60" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="167">
+      <c r="D60" s="167">
         <v>31.3</v>
       </c>
-      <c r="D51" s="167">
+      <c r="E60" s="167">
         <v>43.72</v>
       </c>
-      <c r="E51" s="168">
+      <c r="F60" s="168">
         <v>0.376</v>
       </c>
-      <c r="F51" s="169">
+      <c r="G60" s="169">
         <v>0.66300000000000003</v>
       </c>
-      <c r="G51" s="167">
+      <c r="H60" s="167">
         <v>31.2</v>
       </c>
-      <c r="H51" s="167">
+      <c r="I60" s="167">
         <v>40.159999999999997</v>
       </c>
-      <c r="I51" s="168">
+      <c r="J60" s="168">
         <v>0.38600000000000001</v>
       </c>
-      <c r="J51" s="169">
+      <c r="K60" s="169">
         <v>0.69</v>
       </c>
-      <c r="K51" s="167">
+      <c r="L60" s="167">
         <v>33.03</v>
       </c>
-      <c r="L51" s="167">
+      <c r="M60" s="167">
         <v>44.45</v>
       </c>
-      <c r="M51" s="168">
+      <c r="N60" s="168">
         <v>0.35399999999999998</v>
       </c>
-      <c r="N51" s="169">
+      <c r="O60" s="169">
         <v>0.60199999999999998</v>
       </c>
-      <c r="O51" s="423"/>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="421"/>
-      <c r="B52" s="170" t="s">
+      <c r="P60" s="507"/>
+    </row>
+    <row r="61" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="505"/>
+      <c r="C61" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="171">
+      <c r="D61" s="171">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D52" s="171">
+      <c r="E61" s="171">
         <v>13.83</v>
       </c>
-      <c r="E52" s="172">
+      <c r="F61" s="172">
         <v>0.20100000000000001</v>
       </c>
-      <c r="F52" s="173">
+      <c r="G61" s="173">
         <v>0.70699999999999996</v>
       </c>
-      <c r="G52" s="171">
+      <c r="H61" s="171">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H52" s="171">
+      <c r="I61" s="171">
         <v>11.68</v>
       </c>
-      <c r="I52" s="145">
+      <c r="J61" s="145">
         <v>-4.7E-2</v>
       </c>
-      <c r="J52" s="173">
+      <c r="K61" s="173">
         <v>0.70099999999999996</v>
       </c>
-      <c r="K52" s="171">
+      <c r="L61" s="171">
         <v>7.06</v>
       </c>
-      <c r="L52" s="171">
+      <c r="M61" s="171">
         <v>9.43</v>
       </c>
-      <c r="M52" s="172">
+      <c r="N61" s="172">
         <v>0.24199999999999999</v>
       </c>
-      <c r="N52" s="173">
+      <c r="O61" s="173">
         <v>0.72199999999999998</v>
       </c>
-      <c r="O52" s="424"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="419" t="s">
+      <c r="P61" s="508"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="503" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="163" t="s">
+      <c r="C62" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="164">
+      <c r="D62" s="164">
         <v>17.04</v>
       </c>
-      <c r="D53" s="164">
+      <c r="E62" s="164">
         <v>29.19</v>
       </c>
-      <c r="E53" s="165">
+      <c r="F62" s="165">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F53" s="178">
+      <c r="G62" s="178">
         <v>0.68700000000000006</v>
       </c>
-      <c r="G53" s="164">
+      <c r="H62" s="164">
         <v>25.62</v>
       </c>
-      <c r="H53" s="164">
+      <c r="I62" s="164">
         <v>35.380000000000003</v>
       </c>
-      <c r="I53" s="165">
+      <c r="J62" s="165">
         <v>0.60399999999999998</v>
       </c>
-      <c r="J53" s="179">
+      <c r="K62" s="179">
         <v>0.69</v>
       </c>
-      <c r="K53" s="164">
+      <c r="L62" s="164">
         <v>29.97</v>
       </c>
-      <c r="L53" s="164">
+      <c r="M62" s="164">
         <v>42.17</v>
       </c>
-      <c r="M53" s="165">
+      <c r="N62" s="165">
         <v>0.47599999999999998</v>
       </c>
-      <c r="N53" s="178">
+      <c r="O62" s="178">
         <v>0.61599999999999999</v>
       </c>
-      <c r="O53" s="422" t="s">
+      <c r="P62" s="506" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="420"/>
-      <c r="B54" s="166" t="s">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="504"/>
+      <c r="C63" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="167">
+      <c r="D63" s="167">
         <v>31.25</v>
       </c>
-      <c r="D54" s="167">
+      <c r="E63" s="167">
         <v>43.82</v>
       </c>
-      <c r="E54" s="168">
+      <c r="F63" s="168">
         <v>0.373</v>
       </c>
-      <c r="F54" s="169">
+      <c r="G63" s="169">
         <v>0.66400000000000003</v>
       </c>
-      <c r="G54" s="167">
+      <c r="H63" s="167">
         <v>31.53</v>
       </c>
-      <c r="H54" s="167">
+      <c r="I63" s="167">
         <v>40.549999999999997</v>
       </c>
-      <c r="I54" s="168">
+      <c r="J63" s="168">
         <v>0.374</v>
       </c>
-      <c r="J54" s="169">
+      <c r="K63" s="169">
         <v>0.68799999999999994</v>
       </c>
-      <c r="K54" s="167">
+      <c r="L63" s="167">
         <v>33.32</v>
       </c>
-      <c r="L54" s="167">
+      <c r="M63" s="167">
         <v>45.04</v>
       </c>
-      <c r="M54" s="168">
+      <c r="N63" s="168">
         <v>0.33700000000000002</v>
       </c>
-      <c r="N54" s="169">
+      <c r="O63" s="169">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O54" s="423"/>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="421"/>
-      <c r="B55" s="170" t="s">
+      <c r="P63" s="507"/>
+    </row>
+    <row r="64" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="505"/>
+      <c r="C64" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="171">
+      <c r="D64" s="171">
         <v>8.34</v>
       </c>
-      <c r="D55" s="171">
+      <c r="E64" s="171">
         <v>14.06</v>
       </c>
-      <c r="E55" s="172">
+      <c r="F64" s="172">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F55" s="173">
+      <c r="G64" s="173">
         <v>0.70099999999999996</v>
       </c>
-      <c r="G55" s="171">
+      <c r="H64" s="171">
         <v>8.81</v>
       </c>
-      <c r="H55" s="171">
+      <c r="I64" s="171">
         <v>11.71</v>
       </c>
-      <c r="I55" s="145">
+      <c r="J64" s="145">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="J55" s="173">
+      <c r="K64" s="173">
         <v>0.69499999999999995</v>
       </c>
-      <c r="K55" s="171">
+      <c r="L64" s="171">
         <v>7.47</v>
       </c>
-      <c r="L55" s="171">
+      <c r="M64" s="171">
         <v>9.82</v>
       </c>
-      <c r="M55" s="172">
+      <c r="N64" s="172">
         <v>0.18</v>
       </c>
-      <c r="N55" s="173">
+      <c r="O64" s="173">
         <v>0.70199999999999996</v>
       </c>
-      <c r="O55" s="424"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="129"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="129" t="s">
+      <c r="P64" s="508"/>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C65" s="129"/>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C66" s="129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="129" t="s">
+    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C67" s="129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="129" t="s">
+    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C68" s="129" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="129" t="s">
+    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C69" s="129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="208"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="129" t="s">
+    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C70" s="208"/>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C71" s="129" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="129" t="s">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C72" s="129" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="129" t="s">
+    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C73" s="129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="129" t="s">
+    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C74" s="129" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="208"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="129" t="s">
+    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C75" s="208"/>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C76" s="129" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="129" t="s">
+    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C77" s="129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="129" t="s">
+    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C78" s="129" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="129" t="s">
+    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C79" s="129" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q80" s="540">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="O53:O55"/>
+  <mergeCells count="41">
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="P62:P64"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="P56:P58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="B47:P47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="P30:P32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13796,124 +15222,1466 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="471" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="472" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="473"/>
-      <c r="D1" s="474"/>
-      <c r="E1" s="475" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="476"/>
-      <c r="G1" s="477"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="154" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="461">
-        <v>21.18</v>
-      </c>
-      <c r="C3" s="462">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="D3" s="463">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="E3" s="464">
-        <v>20.63</v>
-      </c>
-      <c r="F3" s="465">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="G3" s="470">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="466">
-        <v>25.98</v>
-      </c>
-      <c r="C4" s="467">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="D4" s="468">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="E4" s="216">
-        <v>24.73</v>
-      </c>
-      <c r="F4" s="469">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="G4" s="468">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="215" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="466">
-        <v>6.69</v>
-      </c>
-      <c r="C5" s="467">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D5" s="468">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="E5" s="216">
-        <v>8.64</v>
-      </c>
-      <c r="F5" s="469">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="G5" s="468">
-        <v>0.70799999999999996</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="537" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="536"/>
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="538" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="537" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
+      <c r="M1" s="536"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="403"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="129" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="129" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="541" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="155"/>
+      <c r="L2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="558"/>
+      <c r="P2" s="558"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="514" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="164">
+        <v>21.19</v>
+      </c>
+      <c r="D3" s="165">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="E3" s="177">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F3" s="213">
+        <v>21.29</v>
+      </c>
+      <c r="G3" s="214">
+        <v>0.74</v>
+      </c>
+      <c r="H3" s="177">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I3" s="517" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="515"/>
+      <c r="B4" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="167">
+        <v>25.98</v>
+      </c>
+      <c r="D4" s="168">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E4" s="169">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="F4" s="216">
+        <v>25.51</v>
+      </c>
+      <c r="G4" s="218">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H4" s="169">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I4" s="518"/>
+      <c r="L4" s="379" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="379" t="s">
+        <v>272</v>
+      </c>
+      <c r="N4" s="379" t="s">
+        <v>274</v>
+      </c>
+      <c r="O4" s="379" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="516"/>
+      <c r="B5" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="171">
+        <v>6.69</v>
+      </c>
+      <c r="D5" s="172">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E5" s="173">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F5" s="220">
+        <v>8.24</v>
+      </c>
+      <c r="G5" s="222">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="H5" s="408">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="I5" s="519"/>
+      <c r="L5" s="557">
+        <v>10</v>
+      </c>
+      <c r="M5" s="557">
+        <v>5</v>
+      </c>
+      <c r="N5" s="557">
+        <v>2</v>
+      </c>
+      <c r="O5" s="557">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="414"/>
+      <c r="C9" s="526" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="526"/>
+      <c r="E9" s="526"/>
+      <c r="F9" s="526" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="526"/>
+      <c r="H9" s="526"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="409" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="409" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="409" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="409" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="409" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="409" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="409" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="415" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="416">
+        <v>21.19</v>
+      </c>
+      <c r="D11" s="417">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="E11" s="418">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F11" s="416">
+        <v>21.29</v>
+      </c>
+      <c r="G11" s="417">
+        <v>0.74</v>
+      </c>
+      <c r="H11" s="418">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="410" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="411">
+        <v>25.98</v>
+      </c>
+      <c r="D12" s="395">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E12" s="412">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="F12" s="413">
+        <v>25.51</v>
+      </c>
+      <c r="G12" s="395">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H12" s="412">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="419" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="420">
+        <v>6.69</v>
+      </c>
+      <c r="D13" s="396">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E13" s="421">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F13" s="422">
+        <v>8.24</v>
+      </c>
+      <c r="G13" s="396">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="H13" s="423">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17">
+        <v>21.19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18">
+        <v>25.98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19">
+        <v>6.69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="I19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="403"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>21.29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22">
+        <v>0.74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23">
+        <v>25.51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24">
+        <v>8.24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="I24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="542"/>
+      <c r="B27" s="542"/>
+      <c r="C27" s="542"/>
+      <c r="D27" s="542"/>
+      <c r="E27" s="542"/>
+      <c r="F27" s="542"/>
+      <c r="G27" s="542"/>
+      <c r="H27" s="542"/>
+      <c r="I27" s="542"/>
+      <c r="J27" s="542"/>
+      <c r="K27" s="542"/>
+      <c r="L27" s="542"/>
+      <c r="M27" s="542"/>
+      <c r="N27" s="542"/>
+      <c r="O27" s="542"/>
+      <c r="P27" s="542"/>
+      <c r="Q27" s="542"/>
+      <c r="R27" s="542"/>
+      <c r="S27" s="542"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="541" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="155"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="514" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="517" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="515"/>
+      <c r="B31" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="518"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="516"/>
+      <c r="B32" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="171"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="408"/>
+      <c r="I32" s="519"/>
+      <c r="P32" s="540"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="414"/>
+      <c r="C36" s="526" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="526"/>
+      <c r="E36" s="526"/>
+      <c r="F36" s="526" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="526"/>
+      <c r="H36" s="526"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="409" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="409" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="409" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="409" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="409" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="409" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="409" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="415" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="543">
+        <v>26.68</v>
+      </c>
+      <c r="D38" s="544">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E38" s="561">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F38" s="545">
+        <v>26.38</v>
+      </c>
+      <c r="G38" s="546">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H38" s="561">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="410" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="547">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="D39" s="548">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E39" s="549">
+        <v>0.622</v>
+      </c>
+      <c r="F39" s="550">
+        <v>31.87</v>
+      </c>
+      <c r="G39" s="551">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H39" s="549">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="419" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="552">
+        <v>8.27</v>
+      </c>
+      <c r="D40" s="553">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E40" s="556">
+        <v>0.71</v>
+      </c>
+      <c r="F40" s="554">
+        <v>9.41</v>
+      </c>
+      <c r="G40" s="555">
+        <v>-0.69199999999999995</v>
+      </c>
+      <c r="H40" s="556">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="129"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="129"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" t="s">
+        <v>259</v>
+      </c>
+      <c r="J44" s="379" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" s="379" t="s">
+        <v>276</v>
+      </c>
+      <c r="L44" s="379" t="s">
+        <v>277</v>
+      </c>
+      <c r="M44" s="379" t="s">
+        <v>278</v>
+      </c>
+      <c r="N44" s="379" t="s">
+        <v>280</v>
+      </c>
+      <c r="O44" s="379" t="s">
+        <v>279</v>
+      </c>
+      <c r="P44" s="379" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q44" s="379" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45">
+        <v>26.68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="J45" s="559">
+        <v>32</v>
+      </c>
+      <c r="K45" s="559">
+        <v>500</v>
+      </c>
+      <c r="L45" s="559" t="s">
+        <v>281</v>
+      </c>
+      <c r="M45" s="559" t="s">
+        <v>282</v>
+      </c>
+      <c r="N45" s="559">
+        <v>0.01</v>
+      </c>
+      <c r="O45" s="560">
+        <v>4000</v>
+      </c>
+      <c r="P45" s="559">
+        <v>0.2</v>
+      </c>
+      <c r="Q45" s="559">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="E46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46">
+        <v>0.622</v>
+      </c>
+      <c r="I46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47">
+        <v>8.27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47">
+        <v>0.71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="403"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50">
+        <v>26.38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51">
+        <v>31.87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51">
+        <v>0.621</v>
+      </c>
+      <c r="I51" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>9.41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52">
+        <v>-0.69199999999999995</v>
+      </c>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="I52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="I30:I32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="AcroExch.Document.7" shapeId="8194" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="AcroExch.Document.7" shapeId="8194" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="AcroExch.Document.7" shapeId="8197" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1895475</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="AcroExch.Document.7" shapeId="8197" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="365" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="365" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="365" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="365" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="406" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="407">
+        <v>62.3</v>
+      </c>
+      <c r="C2" s="407">
+        <v>91</v>
+      </c>
+      <c r="D2" s="407">
+        <v>7</v>
+      </c>
+      <c r="E2" s="407">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="404" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="405">
+        <v>22.9</v>
+      </c>
+      <c r="C3" s="405">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D3" s="405">
+        <v>7</v>
+      </c>
+      <c r="E3" s="405">
+        <v>86.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="388" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="388" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="388" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="388" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="388" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="388" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="390" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="399" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="393">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D2" s="393">
+        <v>0.36</v>
+      </c>
+      <c r="F2" s="390" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="401">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H2" s="401">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="392"/>
+      <c r="B3" s="400" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="394">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D3" s="394">
+        <v>0.186</v>
+      </c>
+      <c r="F3" s="391" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="395">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="H3" s="395">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="391" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="399" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="395">
+        <v>0.76</v>
+      </c>
+      <c r="D4" s="395">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F4" s="392" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="402">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H4" s="402">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="392"/>
+      <c r="B5" s="400" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="396">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D5" s="396">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="390" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="399" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="397">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D6" s="397">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="389"/>
+      <c r="B7" s="400" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="398">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D7" s="398">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="129"/>
+      <c r="B1" s="527" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="527"/>
+      <c r="D1" s="527"/>
+      <c r="E1" s="527"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="129"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="370" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="369" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="370" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="370" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="532" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="376" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="368">
+        <v>221</v>
+      </c>
+      <c r="D4" s="377">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="E4" s="377">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="533"/>
+      <c r="B5" s="373" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="374">
+        <v>32</v>
+      </c>
+      <c r="D5" s="375">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E5" s="375">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="528" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="376" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="368">
+        <v>221</v>
+      </c>
+      <c r="D6" s="377">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E6" s="377">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="529"/>
+      <c r="B7" s="373" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="374">
+        <v>32</v>
+      </c>
+      <c r="D7" s="375">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E7" s="375">
+        <v>0.128</v>
+      </c>
+      <c r="I7" s="380"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="530" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="371" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="364">
+        <v>221</v>
+      </c>
+      <c r="D8" s="372">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E8" s="372">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I8" s="381"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="531"/>
+      <c r="B9" s="373" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="374">
+        <v>32</v>
+      </c>
+      <c r="D9" s="375">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E9" s="375">
+        <v>0.129</v>
+      </c>
+      <c r="I9" s="534"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="I10" s="535"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="379" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="379" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="379" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="384" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="382">
+        <v>253</v>
+      </c>
+      <c r="C13" s="386">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D13" s="386">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="385" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="382">
+        <v>253</v>
+      </c>
+      <c r="C14" s="386">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D14" s="386">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="383" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="383">
+        <v>253</v>
+      </c>
+      <c r="C15" s="387">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15" s="387">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I9:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/modelling/docs/train_png_tracker.xlsx
+++ b/modelling/docs/train_png_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="13245" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Detect" sheetId="1" r:id="rId1"/>
@@ -4318,7 +4318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4358,6 +4358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6090,27 +6096,222 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6125,201 +6326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6350,12 +6356,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6365,21 +6452,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6389,9 +6461,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6422,72 +6493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6745,23 +6751,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6810,23 +6803,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7235,17 +7215,17 @@
       <c r="A1" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="450" t="s">
+      <c r="E1" s="460" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="K1" s="455" t="s">
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="K1" s="465" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="456"/>
-      <c r="M1" s="456"/>
-      <c r="N1" s="457"/>
+      <c r="L1" s="466"/>
+      <c r="M1" s="466"/>
+      <c r="N1" s="467"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -7335,7 +7315,7 @@
       <c r="N3" s="236">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="O3" s="458" t="s">
+      <c r="O3" s="468" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7368,7 +7348,7 @@
       <c r="N4" s="239">
         <v>0.105</v>
       </c>
-      <c r="O4" s="458"/>
+      <c r="O4" s="468"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -7399,7 +7379,7 @@
       <c r="N5" s="242">
         <v>1.29E-2</v>
       </c>
-      <c r="O5" s="458"/>
+      <c r="O5" s="468"/>
     </row>
     <row r="6" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -7442,7 +7422,7 @@
       <c r="N6" s="236">
         <v>3.27E-2</v>
       </c>
-      <c r="O6" s="458" t="s">
+      <c r="O6" s="468" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7479,7 +7459,7 @@
       <c r="N7" s="239">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="O7" s="458"/>
+      <c r="O7" s="468"/>
     </row>
     <row r="8" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -7510,7 +7490,7 @@
       <c r="N8" s="242">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="O8" s="458"/>
+      <c r="O8" s="468"/>
     </row>
     <row r="9" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
@@ -7553,7 +7533,7 @@
       <c r="N9" s="282">
         <v>0.189</v>
       </c>
-      <c r="O9" s="440" t="s">
+      <c r="O9" s="469" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7586,7 +7566,7 @@
       <c r="N10" s="282">
         <v>0.28799999999999998</v>
       </c>
-      <c r="O10" s="440"/>
+      <c r="O10" s="469"/>
     </row>
     <row r="11" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
@@ -7617,7 +7597,7 @@
       <c r="N11" s="286">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="O11" s="440"/>
+      <c r="O11" s="469"/>
     </row>
     <row r="12" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -7660,7 +7640,7 @@
       <c r="N12" s="282">
         <v>0.184</v>
       </c>
-      <c r="O12" s="440" t="s">
+      <c r="O12" s="469" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7693,7 +7673,7 @@
       <c r="N13" s="282">
         <v>0.27100000000000002</v>
       </c>
-      <c r="O13" s="440"/>
+      <c r="O13" s="469"/>
     </row>
     <row r="14" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -7724,7 +7704,7 @@
       <c r="N14" s="286">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="O14" s="440"/>
+      <c r="O14" s="469"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="298" t="s">
@@ -7769,17 +7749,17 @@
       <c r="N15" s="325">
         <v>0.28399999999999997</v>
       </c>
-      <c r="O15" s="426" t="s">
+      <c r="O15" s="487" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="437" t="s">
+      <c r="Q15" s="483" t="s">
         <v>215</v>
       </c>
-      <c r="R15" s="437"/>
-      <c r="S15" s="437"/>
-      <c r="T15" s="437"/>
-      <c r="U15" s="437"/>
-      <c r="V15" s="437"/>
+      <c r="R15" s="483"/>
+      <c r="S15" s="483"/>
+      <c r="T15" s="483"/>
+      <c r="U15" s="483"/>
+      <c r="V15" s="483"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="298"/>
@@ -7812,13 +7792,13 @@
       <c r="N16" s="321">
         <v>0.38200000000000001</v>
       </c>
-      <c r="O16" s="427"/>
-      <c r="Q16" s="437"/>
-      <c r="R16" s="437"/>
-      <c r="S16" s="437"/>
-      <c r="T16" s="437"/>
-      <c r="U16" s="437"/>
-      <c r="V16" s="437"/>
+      <c r="O16" s="488"/>
+      <c r="Q16" s="483"/>
+      <c r="R16" s="483"/>
+      <c r="S16" s="483"/>
+      <c r="T16" s="483"/>
+      <c r="U16" s="483"/>
+      <c r="V16" s="483"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="303"/>
@@ -7849,32 +7829,32 @@
       <c r="N17" s="323">
         <v>0.186</v>
       </c>
-      <c r="O17" s="428"/>
-      <c r="Q17" s="437"/>
-      <c r="R17" s="437"/>
-      <c r="S17" s="437"/>
-      <c r="T17" s="437"/>
-      <c r="U17" s="437"/>
-      <c r="V17" s="437"/>
+      <c r="O17" s="489"/>
+      <c r="Q17" s="483"/>
+      <c r="R17" s="483"/>
+      <c r="S17" s="483"/>
+      <c r="T17" s="483"/>
+      <c r="U17" s="483"/>
+      <c r="V17" s="483"/>
     </row>
     <row r="18" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="459" t="s">
+      <c r="A18" s="470" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="460"/>
-      <c r="C18" s="460"/>
-      <c r="D18" s="460"/>
-      <c r="E18" s="460"/>
-      <c r="F18" s="460"/>
-      <c r="G18" s="460"/>
-      <c r="H18" s="460"/>
-      <c r="I18" s="460"/>
-      <c r="J18" s="460"/>
-      <c r="K18" s="460"/>
-      <c r="L18" s="460"/>
-      <c r="M18" s="460"/>
-      <c r="N18" s="460"/>
-      <c r="O18" s="460"/>
+      <c r="B18" s="471"/>
+      <c r="C18" s="471"/>
+      <c r="D18" s="471"/>
+      <c r="E18" s="471"/>
+      <c r="F18" s="471"/>
+      <c r="G18" s="471"/>
+      <c r="H18" s="471"/>
+      <c r="I18" s="471"/>
+      <c r="J18" s="471"/>
+      <c r="K18" s="471"/>
+      <c r="L18" s="471"/>
+      <c r="M18" s="471"/>
+      <c r="N18" s="471"/>
+      <c r="O18" s="471"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
@@ -7917,7 +7897,7 @@
       <c r="N19" s="270">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O19" s="440" t="s">
+      <c r="O19" s="469" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7950,7 +7930,7 @@
       <c r="N20" s="273">
         <v>0.38500000000000001</v>
       </c>
-      <c r="O20" s="440"/>
+      <c r="O20" s="469"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
@@ -7981,7 +7961,7 @@
       <c r="N21" s="276">
         <v>0.151</v>
       </c>
-      <c r="O21" s="440"/>
+      <c r="O21" s="469"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -8024,7 +8004,7 @@
       <c r="N22" s="236">
         <v>0.27</v>
       </c>
-      <c r="O22" s="440" t="s">
+      <c r="O22" s="469" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8057,7 +8037,7 @@
       <c r="N23" s="239">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O23" s="440"/>
+      <c r="O23" s="469"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -8088,7 +8068,7 @@
       <c r="N24" s="242">
         <v>0.159</v>
       </c>
-      <c r="O24" s="440"/>
+      <c r="O24" s="469"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -8131,7 +8111,7 @@
       <c r="N25" s="236">
         <v>0.152</v>
       </c>
-      <c r="O25" s="440" t="s">
+      <c r="O25" s="469" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8164,7 +8144,7 @@
       <c r="N26" s="239">
         <v>0.224</v>
       </c>
-      <c r="O26" s="440"/>
+      <c r="O26" s="469"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -8195,7 +8175,7 @@
       <c r="N27" s="242">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="O27" s="440"/>
+      <c r="O27" s="469"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
@@ -8238,7 +8218,7 @@
       <c r="N28" s="270">
         <v>0.27900000000000003</v>
       </c>
-      <c r="O28" s="441" t="s">
+      <c r="O28" s="484" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8271,7 +8251,7 @@
       <c r="N29" s="282">
         <v>0.36699999999999999</v>
       </c>
-      <c r="O29" s="442"/>
+      <c r="O29" s="485"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
@@ -8302,7 +8282,7 @@
       <c r="N30" s="276">
         <v>0.191</v>
       </c>
-      <c r="O30" s="443"/>
+      <c r="O30" s="486"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -8345,7 +8325,7 @@
       <c r="N31" s="284">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O31" s="441" t="s">
+      <c r="O31" s="484" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8380,7 +8360,7 @@
       <c r="N32" s="284">
         <v>0.33500000000000002</v>
       </c>
-      <c r="O32" s="442"/>
+      <c r="O32" s="485"/>
     </row>
     <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
@@ -8411,7 +8391,7 @@
       <c r="N33" s="284">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O33" s="443"/>
+      <c r="O33" s="486"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
@@ -8454,7 +8434,7 @@
       <c r="N34" s="269">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O34" s="441" t="s">
+      <c r="O34" s="484" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8489,7 +8469,7 @@
       <c r="N35" s="257">
         <v>0.33500000000000002</v>
       </c>
-      <c r="O35" s="442"/>
+      <c r="O35" s="485"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
@@ -8520,7 +8500,7 @@
       <c r="N36" s="275">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O36" s="443"/>
+      <c r="O36" s="486"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="287" t="s">
@@ -8563,7 +8543,7 @@
       <c r="N37" s="253">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O37" s="429" t="s">
+      <c r="O37" s="454" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8598,7 +8578,7 @@
       <c r="N38" s="254">
         <v>0.36499999999999999</v>
       </c>
-      <c r="O38" s="429"/>
+      <c r="O38" s="454"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
@@ -8629,7 +8609,7 @@
       <c r="N39" s="255">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O39" s="429"/>
+      <c r="O39" s="454"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
@@ -8672,7 +8652,7 @@
       <c r="N40" s="269">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O40" s="429" t="s">
+      <c r="O40" s="454" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8707,7 +8687,7 @@
       <c r="N41" s="272">
         <v>0.378</v>
       </c>
-      <c r="O41" s="429"/>
+      <c r="O41" s="454"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
@@ -8738,7 +8718,7 @@
       <c r="N42" s="275">
         <v>0.192</v>
       </c>
-      <c r="O42" s="429"/>
+      <c r="O42" s="454"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
@@ -8781,7 +8761,7 @@
       <c r="N43" s="236">
         <v>0.28599999999999998</v>
       </c>
-      <c r="O43" s="429" t="s">
+      <c r="O43" s="454" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8814,7 +8794,7 @@
       <c r="N44" s="239">
         <v>0.38900000000000001</v>
       </c>
-      <c r="O44" s="429"/>
+      <c r="O44" s="454"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
@@ -8845,7 +8825,7 @@
       <c r="N45" s="242">
         <v>0.183</v>
       </c>
-      <c r="O45" s="429"/>
+      <c r="O45" s="454"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
@@ -8888,7 +8868,7 @@
       <c r="N46" s="253">
         <v>0.28699999999999998</v>
       </c>
-      <c r="O46" s="441" t="s">
+      <c r="O46" s="484" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8921,7 +8901,7 @@
       <c r="N47" s="254">
         <v>0.38</v>
       </c>
-      <c r="O47" s="442"/>
+      <c r="O47" s="485"/>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
@@ -8952,26 +8932,26 @@
       <c r="N48" s="264">
         <v>0.19500000000000001</v>
       </c>
-      <c r="O48" s="443"/>
+      <c r="O48" s="486"/>
     </row>
     <row r="49" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="463" t="s">
+      <c r="A49" s="474" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="464"/>
-      <c r="C49" s="464"/>
-      <c r="D49" s="464"/>
-      <c r="E49" s="464"/>
-      <c r="F49" s="464"/>
-      <c r="G49" s="464"/>
-      <c r="H49" s="464"/>
-      <c r="I49" s="464"/>
-      <c r="J49" s="464"/>
-      <c r="K49" s="464"/>
-      <c r="L49" s="464"/>
-      <c r="M49" s="464"/>
-      <c r="N49" s="464"/>
-      <c r="O49" s="464"/>
+      <c r="B49" s="475"/>
+      <c r="C49" s="475"/>
+      <c r="D49" s="475"/>
+      <c r="E49" s="475"/>
+      <c r="F49" s="475"/>
+      <c r="G49" s="475"/>
+      <c r="H49" s="475"/>
+      <c r="I49" s="475"/>
+      <c r="J49" s="475"/>
+      <c r="K49" s="475"/>
+      <c r="L49" s="475"/>
+      <c r="M49" s="475"/>
+      <c r="N49" s="475"/>
+      <c r="O49" s="475"/>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -9016,7 +8996,7 @@
       <c r="N50" s="236">
         <v>0.27600000000000002</v>
       </c>
-      <c r="O50" s="447" t="s">
+      <c r="O50" s="493" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9049,7 +9029,7 @@
       <c r="N51" s="239">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O51" s="448"/>
+      <c r="O51" s="494"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
@@ -9080,7 +9060,7 @@
       <c r="N52" s="242">
         <v>0.19</v>
       </c>
-      <c r="O52" s="449"/>
+      <c r="O52" s="495"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
@@ -9125,7 +9105,7 @@
       <c r="N53" s="263">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O53" s="438" t="s">
+      <c r="O53" s="447" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9158,7 +9138,7 @@
       <c r="N54" s="254">
         <v>0.378</v>
       </c>
-      <c r="O54" s="465"/>
+      <c r="O54" s="476"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
@@ -9189,7 +9169,7 @@
       <c r="N55" s="264">
         <v>0.16900000000000001</v>
       </c>
-      <c r="O55" s="466"/>
+      <c r="O55" s="477"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
@@ -9234,7 +9214,7 @@
       <c r="N56" s="340">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O56" s="444" t="s">
+      <c r="O56" s="490" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9267,7 +9247,7 @@
       <c r="N57" s="341">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O57" s="445"/>
+      <c r="O57" s="491"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
@@ -9298,7 +9278,7 @@
       <c r="N58" s="342">
         <v>0.19700000000000001</v>
       </c>
-      <c r="O58" s="446"/>
+      <c r="O58" s="492"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
@@ -9313,7 +9293,7 @@
       <c r="D59" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="451" t="s">
+      <c r="E59" s="461" t="s">
         <v>214</v>
       </c>
       <c r="F59" s="19" t="s">
@@ -9343,7 +9323,7 @@
       <c r="N59" s="253">
         <v>0.27900000000000003</v>
       </c>
-      <c r="O59" s="467" t="s">
+      <c r="O59" s="478" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9354,7 +9334,7 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="90"/>
-      <c r="E60" s="452"/>
+      <c r="E60" s="462"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="57" t="s">
@@ -9378,7 +9358,7 @@
       <c r="N60" s="254">
         <v>0.378</v>
       </c>
-      <c r="O60" s="468"/>
+      <c r="O60" s="479"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
@@ -9409,7 +9389,7 @@
       <c r="N61" s="255">
         <v>0.18</v>
       </c>
-      <c r="O61" s="469"/>
+      <c r="O61" s="480"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
@@ -9454,7 +9434,7 @@
       <c r="N62" s="253">
         <v>0.27600000000000002</v>
       </c>
-      <c r="O62" s="461" t="s">
+      <c r="O62" s="472" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9489,7 +9469,7 @@
       <c r="N63" s="254">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O63" s="462"/>
+      <c r="O63" s="473"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
@@ -9520,7 +9500,7 @@
       <c r="N64" s="255">
         <v>0.16700000000000001</v>
       </c>
-      <c r="O64" s="462"/>
+      <c r="O64" s="473"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
@@ -9565,7 +9545,7 @@
       <c r="N65" s="265">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O65" s="461" t="s">
+      <c r="O65" s="472" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9600,7 +9580,7 @@
       <c r="N66" s="266">
         <v>0.38400000000000001</v>
       </c>
-      <c r="O66" s="462"/>
+      <c r="O66" s="473"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
@@ -9633,26 +9613,26 @@
       <c r="N67" s="267">
         <v>0.185</v>
       </c>
-      <c r="O67" s="462"/>
+      <c r="O67" s="473"/>
     </row>
     <row r="68" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="431" t="s">
+      <c r="A68" s="498" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="432"/>
-      <c r="C68" s="432"/>
-      <c r="D68" s="432"/>
-      <c r="E68" s="432"/>
-      <c r="F68" s="432"/>
-      <c r="G68" s="432"/>
-      <c r="H68" s="432"/>
-      <c r="I68" s="432"/>
-      <c r="J68" s="432"/>
-      <c r="K68" s="432"/>
-      <c r="L68" s="432"/>
-      <c r="M68" s="432"/>
-      <c r="N68" s="432"/>
-      <c r="O68" s="433"/>
+      <c r="B68" s="499"/>
+      <c r="C68" s="499"/>
+      <c r="D68" s="499"/>
+      <c r="E68" s="499"/>
+      <c r="F68" s="499"/>
+      <c r="G68" s="499"/>
+      <c r="H68" s="499"/>
+      <c r="I68" s="499"/>
+      <c r="J68" s="499"/>
+      <c r="K68" s="499"/>
+      <c r="L68" s="499"/>
+      <c r="M68" s="499"/>
+      <c r="N68" s="499"/>
+      <c r="O68" s="500"/>
     </row>
     <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
@@ -9697,7 +9677,7 @@
       <c r="N69" s="259">
         <v>0.126</v>
       </c>
-      <c r="O69" s="424" t="s">
+      <c r="O69" s="496" t="s">
         <v>177</v>
       </c>
     </row>
@@ -9732,7 +9712,7 @@
       <c r="N70" s="260">
         <v>0.20699999999999999</v>
       </c>
-      <c r="O70" s="425"/>
+      <c r="O70" s="497"/>
     </row>
     <row r="71" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="124"/>
@@ -9763,7 +9743,7 @@
       <c r="N71" s="261">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="O71" s="425"/>
+      <c r="O71" s="497"/>
     </row>
     <row r="72" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="116" t="s">
@@ -9808,7 +9788,7 @@
       <c r="N72" s="260">
         <v>0.112</v>
       </c>
-      <c r="O72" s="424" t="s">
+      <c r="O72" s="496" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9845,7 +9825,7 @@
       <c r="N73" s="260">
         <v>0.19800000000000001</v>
       </c>
-      <c r="O73" s="425"/>
+      <c r="O73" s="497"/>
     </row>
     <row r="74" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="124"/>
@@ -9876,7 +9856,7 @@
       <c r="N74" s="260">
         <v>2.69E-2</v>
       </c>
-      <c r="O74" s="425"/>
+      <c r="O74" s="497"/>
     </row>
     <row r="75" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="116" t="s">
@@ -9921,7 +9901,7 @@
       <c r="N75" s="259">
         <v>0.107</v>
       </c>
-      <c r="O75" s="424" t="s">
+      <c r="O75" s="496" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9956,7 +9936,7 @@
       <c r="N76" s="260">
         <v>0.189</v>
       </c>
-      <c r="O76" s="425"/>
+      <c r="O76" s="497"/>
     </row>
     <row r="77" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="124"/>
@@ -9987,7 +9967,7 @@
       <c r="N77" s="261">
         <v>2.53E-2</v>
       </c>
-      <c r="O77" s="425"/>
+      <c r="O77" s="497"/>
     </row>
     <row r="78" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="116" t="s">
@@ -10032,7 +10012,7 @@
       <c r="N78" s="259">
         <v>0.128</v>
       </c>
-      <c r="O78" s="424" t="s">
+      <c r="O78" s="496" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10069,7 +10049,7 @@
       <c r="N79" s="260">
         <v>0.20799999999999999</v>
       </c>
-      <c r="O79" s="425"/>
+      <c r="O79" s="497"/>
     </row>
     <row r="80" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="124"/>
@@ -10100,7 +10080,7 @@
       <c r="N80" s="261">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="O80" s="425"/>
+      <c r="O80" s="497"/>
     </row>
     <row r="81" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="116" t="s">
@@ -10145,7 +10125,7 @@
       <c r="N81" s="259">
         <v>0.14399999999999999</v>
       </c>
-      <c r="O81" s="424" t="s">
+      <c r="O81" s="496" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10155,7 +10135,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="122"/>
-      <c r="D82" s="435" t="s">
+      <c r="D82" s="502" t="s">
         <v>94</v>
       </c>
       <c r="E82" s="120"/>
@@ -10182,13 +10162,13 @@
       <c r="N82" s="260">
         <v>0.23599999999999999</v>
       </c>
-      <c r="O82" s="425"/>
+      <c r="O82" s="497"/>
     </row>
     <row r="83" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="124"/>
       <c r="B83" s="125"/>
       <c r="C83" s="125"/>
-      <c r="D83" s="436"/>
+      <c r="D83" s="449"/>
       <c r="E83" s="124"/>
       <c r="F83" s="124"/>
       <c r="G83" s="124"/>
@@ -10213,26 +10193,26 @@
       <c r="N83" s="249">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="O83" s="425"/>
+      <c r="O83" s="497"/>
     </row>
     <row r="84" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="434" t="s">
+      <c r="A84" s="501" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="432"/>
-      <c r="C84" s="432"/>
-      <c r="D84" s="432"/>
-      <c r="E84" s="432"/>
-      <c r="F84" s="432"/>
-      <c r="G84" s="432"/>
-      <c r="H84" s="432"/>
-      <c r="I84" s="432"/>
-      <c r="J84" s="432"/>
-      <c r="K84" s="432"/>
-      <c r="L84" s="432"/>
-      <c r="M84" s="432"/>
-      <c r="N84" s="432"/>
-      <c r="O84" s="432"/>
+      <c r="B84" s="499"/>
+      <c r="C84" s="499"/>
+      <c r="D84" s="499"/>
+      <c r="E84" s="499"/>
+      <c r="F84" s="499"/>
+      <c r="G84" s="499"/>
+      <c r="H84" s="499"/>
+      <c r="I84" s="499"/>
+      <c r="J84" s="499"/>
+      <c r="K84" s="499"/>
+      <c r="L84" s="499"/>
+      <c r="M84" s="499"/>
+      <c r="N84" s="499"/>
+      <c r="O84" s="499"/>
     </row>
     <row r="85" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="67" t="s">
@@ -10277,12 +10257,12 @@
       <c r="N85" s="288">
         <v>0.28199999999999997</v>
       </c>
-      <c r="O85" s="444" t="s">
+      <c r="O85" s="490" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="470" t="s">
+      <c r="A86" s="481" t="s">
         <v>97</v>
       </c>
       <c r="B86" s="69" t="s">
@@ -10314,10 +10294,10 @@
       <c r="N86" s="289">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O86" s="445"/>
+      <c r="O86" s="491"/>
     </row>
     <row r="87" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="471"/>
+      <c r="A87" s="482"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
@@ -10345,26 +10325,26 @@
       <c r="N87" s="290">
         <v>0.183</v>
       </c>
-      <c r="O87" s="446"/>
+      <c r="O87" s="492"/>
     </row>
     <row r="88" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="434" t="s">
+      <c r="A88" s="501" t="s">
         <v>203</v>
       </c>
-      <c r="B88" s="432"/>
-      <c r="C88" s="432"/>
-      <c r="D88" s="432"/>
-      <c r="E88" s="432"/>
-      <c r="F88" s="432"/>
-      <c r="G88" s="432"/>
-      <c r="H88" s="432"/>
-      <c r="I88" s="432"/>
-      <c r="J88" s="432"/>
-      <c r="K88" s="432"/>
-      <c r="L88" s="432"/>
-      <c r="M88" s="432"/>
-      <c r="N88" s="432"/>
-      <c r="O88" s="432"/>
+      <c r="B88" s="499"/>
+      <c r="C88" s="499"/>
+      <c r="D88" s="499"/>
+      <c r="E88" s="499"/>
+      <c r="F88" s="499"/>
+      <c r="G88" s="499"/>
+      <c r="H88" s="499"/>
+      <c r="I88" s="499"/>
+      <c r="J88" s="499"/>
+      <c r="K88" s="499"/>
+      <c r="L88" s="499"/>
+      <c r="M88" s="499"/>
+      <c r="N88" s="499"/>
+      <c r="O88" s="499"/>
     </row>
     <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="67" t="s">
@@ -10409,7 +10389,7 @@
       <c r="N89" s="256">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O89" s="429" t="s">
+      <c r="O89" s="454" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10442,7 +10422,7 @@
       <c r="N90" s="257">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O90" s="430"/>
+      <c r="O90" s="455"/>
     </row>
     <row r="91" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31"/>
@@ -10473,26 +10453,26 @@
       <c r="N91" s="258">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O91" s="430"/>
+      <c r="O91" s="455"/>
     </row>
     <row r="92" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="453" t="s">
+      <c r="A92" s="463" t="s">
         <v>175</v>
       </c>
-      <c r="B92" s="454"/>
-      <c r="C92" s="454"/>
-      <c r="D92" s="454"/>
-      <c r="E92" s="454"/>
-      <c r="F92" s="454"/>
-      <c r="G92" s="454"/>
-      <c r="H92" s="454"/>
-      <c r="I92" s="454"/>
-      <c r="J92" s="454"/>
-      <c r="K92" s="454"/>
-      <c r="L92" s="454"/>
-      <c r="M92" s="454"/>
-      <c r="N92" s="454"/>
-      <c r="O92" s="454"/>
+      <c r="B92" s="464"/>
+      <c r="C92" s="464"/>
+      <c r="D92" s="464"/>
+      <c r="E92" s="464"/>
+      <c r="F92" s="464"/>
+      <c r="G92" s="464"/>
+      <c r="H92" s="464"/>
+      <c r="I92" s="464"/>
+      <c r="J92" s="464"/>
+      <c r="K92" s="464"/>
+      <c r="L92" s="464"/>
+      <c r="M92" s="464"/>
+      <c r="N92" s="464"/>
+      <c r="O92" s="464"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
@@ -10537,7 +10517,7 @@
       <c r="N93" s="253">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O93" s="429" t="s">
+      <c r="O93" s="454" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10572,7 +10552,7 @@
       <c r="N94" s="254">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O94" s="430"/>
+      <c r="O94" s="455"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
@@ -10603,7 +10583,7 @@
       <c r="N95" s="255">
         <v>0.17</v>
       </c>
-      <c r="O95" s="430"/>
+      <c r="O95" s="455"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
@@ -10648,7 +10628,7 @@
       <c r="N96" s="253">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O96" s="429" t="s">
+      <c r="O96" s="454" t="s">
         <v>185</v>
       </c>
     </row>
@@ -10683,7 +10663,7 @@
       <c r="N97" s="254">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O97" s="430"/>
+      <c r="O97" s="455"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
@@ -10714,26 +10694,26 @@
       <c r="N98" s="255">
         <v>0.17599999999999999</v>
       </c>
-      <c r="O98" s="430"/>
+      <c r="O98" s="455"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="472" t="s">
+      <c r="A99" s="450" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="473"/>
-      <c r="C99" s="473"/>
-      <c r="D99" s="473"/>
-      <c r="E99" s="473"/>
-      <c r="F99" s="473"/>
-      <c r="G99" s="473"/>
-      <c r="H99" s="473"/>
-      <c r="I99" s="473"/>
-      <c r="J99" s="473"/>
-      <c r="K99" s="473"/>
-      <c r="L99" s="473"/>
-      <c r="M99" s="473"/>
-      <c r="N99" s="473"/>
-      <c r="O99" s="473"/>
+      <c r="B99" s="451"/>
+      <c r="C99" s="451"/>
+      <c r="D99" s="451"/>
+      <c r="E99" s="451"/>
+      <c r="F99" s="451"/>
+      <c r="G99" s="451"/>
+      <c r="H99" s="451"/>
+      <c r="I99" s="451"/>
+      <c r="J99" s="451"/>
+      <c r="K99" s="451"/>
+      <c r="L99" s="451"/>
+      <c r="M99" s="451"/>
+      <c r="N99" s="451"/>
+      <c r="O99" s="451"/>
     </row>
     <row r="100" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="207" t="s">
@@ -10767,23 +10747,23 @@
       <c r="O100" s="203"/>
     </row>
     <row r="101" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="478" t="s">
+      <c r="A101" s="458" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="479"/>
-      <c r="C101" s="479"/>
-      <c r="D101" s="479"/>
-      <c r="E101" s="479"/>
-      <c r="F101" s="479"/>
-      <c r="G101" s="479"/>
-      <c r="H101" s="479"/>
-      <c r="I101" s="479"/>
-      <c r="J101" s="479"/>
-      <c r="K101" s="479"/>
-      <c r="L101" s="479"/>
-      <c r="M101" s="479"/>
-      <c r="N101" s="479"/>
-      <c r="O101" s="479"/>
+      <c r="B101" s="459"/>
+      <c r="C101" s="459"/>
+      <c r="D101" s="459"/>
+      <c r="E101" s="459"/>
+      <c r="F101" s="459"/>
+      <c r="G101" s="459"/>
+      <c r="H101" s="459"/>
+      <c r="I101" s="459"/>
+      <c r="J101" s="459"/>
+      <c r="K101" s="459"/>
+      <c r="L101" s="459"/>
+      <c r="M101" s="459"/>
+      <c r="N101" s="459"/>
+      <c r="O101" s="459"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="101" t="s">
@@ -10828,7 +10808,7 @@
       <c r="N102" s="337">
         <v>0.27300000000000002</v>
       </c>
-      <c r="O102" s="474" t="s">
+      <c r="O102" s="452" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10863,7 +10843,7 @@
       <c r="N103" s="338">
         <v>0.36</v>
       </c>
-      <c r="O103" s="475"/>
+      <c r="O103" s="453"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="108"/>
@@ -10894,26 +10874,26 @@
       <c r="N104" s="339">
         <v>0.186</v>
       </c>
-      <c r="O104" s="475"/>
+      <c r="O104" s="453"/>
     </row>
     <row r="105" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="476" t="s">
+      <c r="A105" s="456" t="s">
         <v>202</v>
       </c>
-      <c r="B105" s="477"/>
-      <c r="C105" s="477"/>
-      <c r="D105" s="477"/>
-      <c r="E105" s="477"/>
-      <c r="F105" s="477"/>
-      <c r="G105" s="477"/>
-      <c r="H105" s="477"/>
-      <c r="I105" s="477"/>
-      <c r="J105" s="477"/>
-      <c r="K105" s="477"/>
-      <c r="L105" s="477"/>
-      <c r="M105" s="477"/>
-      <c r="N105" s="477"/>
-      <c r="O105" s="477"/>
+      <c r="B105" s="457"/>
+      <c r="C105" s="457"/>
+      <c r="D105" s="457"/>
+      <c r="E105" s="457"/>
+      <c r="F105" s="457"/>
+      <c r="G105" s="457"/>
+      <c r="H105" s="457"/>
+      <c r="I105" s="457"/>
+      <c r="J105" s="457"/>
+      <c r="K105" s="457"/>
+      <c r="L105" s="457"/>
+      <c r="M105" s="457"/>
+      <c r="N105" s="457"/>
+      <c r="O105" s="457"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
@@ -10958,7 +10938,7 @@
       <c r="N106" s="250">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O106" s="438" t="s">
+      <c r="O106" s="447" t="s">
         <v>195</v>
       </c>
     </row>
@@ -10993,7 +10973,7 @@
       <c r="N107" s="251">
         <v>0.372</v>
       </c>
-      <c r="O107" s="439"/>
+      <c r="O107" s="448"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
@@ -11024,7 +11004,7 @@
       <c r="N108" s="252">
         <v>0.219</v>
       </c>
-      <c r="O108" s="436"/>
+      <c r="O108" s="449"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
@@ -11069,7 +11049,7 @@
       <c r="N109" s="330">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O109" s="441" t="s">
+      <c r="O109" s="484" t="s">
         <v>200</v>
       </c>
     </row>
@@ -11104,7 +11084,7 @@
       <c r="N110" s="333">
         <v>0.39</v>
       </c>
-      <c r="O110" s="442"/>
+      <c r="O110" s="485"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
@@ -11135,7 +11115,7 @@
       <c r="N111" s="336">
         <v>0.22</v>
       </c>
-      <c r="O111" s="443"/>
+      <c r="O111" s="486"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="101" t="s">
@@ -11180,7 +11160,7 @@
       <c r="N112" s="296">
         <v>0.312</v>
       </c>
-      <c r="O112" s="426" t="s">
+      <c r="O112" s="487" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11215,7 +11195,7 @@
       <c r="N113" s="302">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O113" s="427"/>
+      <c r="O113" s="488"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="108"/>
@@ -11246,7 +11226,7 @@
       <c r="N114" s="307">
         <v>0.23100000000000001</v>
       </c>
-      <c r="O114" s="428"/>
+      <c r="O114" s="489"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
@@ -11291,7 +11271,7 @@
       <c r="N115" s="236">
         <v>0.30099999999999999</v>
       </c>
-      <c r="O115" s="438" t="s">
+      <c r="O115" s="447" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11326,7 +11306,7 @@
       <c r="N116" s="239">
         <v>0.38400000000000001</v>
       </c>
-      <c r="O116" s="439"/>
+      <c r="O116" s="448"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
@@ -11357,17 +11337,37 @@
       <c r="N117" s="242">
         <v>0.219</v>
       </c>
-      <c r="O117" s="436"/>
+      <c r="O117" s="449"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O106:O108"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="O102:O104"/>
-    <mergeCell ref="O96:O98"/>
-    <mergeCell ref="O89:O91"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A101:O101"/>
+    <mergeCell ref="O78:O80"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="O93:O95"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="O75:O77"/>
+    <mergeCell ref="Q15:V17"/>
+    <mergeCell ref="O115:O117"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="O109:O111"/>
+    <mergeCell ref="O112:O114"/>
+    <mergeCell ref="O56:O58"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="O85:O87"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="O37:O39"/>
@@ -11384,33 +11384,13 @@
     <mergeCell ref="O59:O61"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="O65:O67"/>
-    <mergeCell ref="Q15:V17"/>
-    <mergeCell ref="O115:O117"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="O46:O48"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="O109:O111"/>
-    <mergeCell ref="O112:O114"/>
-    <mergeCell ref="O56:O58"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="O78:O80"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="O93:O95"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="O75:O77"/>
+    <mergeCell ref="O106:O108"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="O102:O104"/>
+    <mergeCell ref="O96:O98"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A101:O101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11452,20 +11432,20 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="450" t="s">
+      <c r="E1" s="460" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="455" t="s">
+      <c r="K1" s="465" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="456"/>
-      <c r="M1" s="456"/>
-      <c r="N1" s="457"/>
+      <c r="L1" s="466"/>
+      <c r="M1" s="466"/>
+      <c r="N1" s="467"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -11558,7 +11538,7 @@
       <c r="N3" s="352">
         <v>0.27300000000000002</v>
       </c>
-      <c r="O3" s="474" t="s">
+      <c r="O3" s="452" t="s">
         <v>191</v>
       </c>
     </row>
@@ -11591,7 +11571,7 @@
       <c r="N4" s="353">
         <v>0.36</v>
       </c>
-      <c r="O4" s="475"/>
+      <c r="O4" s="453"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="108"/>
@@ -11622,7 +11602,7 @@
       <c r="N5" s="354">
         <v>0.186</v>
       </c>
-      <c r="O5" s="475"/>
+      <c r="O5" s="453"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="298" t="s">
@@ -11667,7 +11647,7 @@
       <c r="N6" s="360">
         <v>0.28399999999999997</v>
       </c>
-      <c r="O6" s="426" t="s">
+      <c r="O6" s="487" t="s">
         <v>218</v>
       </c>
     </row>
@@ -11700,7 +11680,7 @@
       <c r="N7" s="358">
         <v>0.38200000000000001</v>
       </c>
-      <c r="O7" s="427"/>
+      <c r="O7" s="488"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="303"/>
@@ -11731,7 +11711,7 @@
       <c r="N8" s="359">
         <v>0.186</v>
       </c>
-      <c r="O8" s="428"/>
+      <c r="O8" s="489"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
@@ -11776,7 +11756,7 @@
       <c r="N9" s="355">
         <v>0.312</v>
       </c>
-      <c r="O9" s="426" t="s">
+      <c r="O9" s="487" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11809,7 +11789,7 @@
       <c r="N10" s="356">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O10" s="427"/>
+      <c r="O10" s="488"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="108"/>
@@ -11840,7 +11820,7 @@
       <c r="N11" s="357">
         <v>0.23100000000000001</v>
       </c>
-      <c r="O11" s="428"/>
+      <c r="O11" s="489"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11872,23 +11852,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="501" t="s">
+      <c r="A1" s="503" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
-      <c r="F1" s="501"/>
-      <c r="G1" s="501"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="501"/>
-      <c r="J1" s="501"/>
-      <c r="K1" s="501"/>
-      <c r="L1" s="501"/>
-      <c r="M1" s="501"/>
-      <c r="N1" s="501"/>
-      <c r="O1" s="501"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="503"/>
+      <c r="H1" s="503"/>
+      <c r="I1" s="503"/>
+      <c r="J1" s="503"/>
+      <c r="K1" s="503"/>
+      <c r="L1" s="503"/>
+      <c r="M1" s="503"/>
+      <c r="N1" s="503"/>
+      <c r="O1" s="503"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="149" t="s">
@@ -11897,24 +11877,24 @@
       <c r="B2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="498" t="s">
+      <c r="C2" s="522" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
-      <c r="F2" s="500"/>
-      <c r="G2" s="498" t="s">
+      <c r="D2" s="523"/>
+      <c r="E2" s="523"/>
+      <c r="F2" s="524"/>
+      <c r="G2" s="522" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="499"/>
-      <c r="I2" s="499"/>
-      <c r="J2" s="500"/>
-      <c r="K2" s="495" t="s">
+      <c r="H2" s="523"/>
+      <c r="I2" s="523"/>
+      <c r="J2" s="524"/>
+      <c r="K2" s="525" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="496"/>
-      <c r="M2" s="496"/>
-      <c r="N2" s="497"/>
+      <c r="L2" s="526"/>
+      <c r="M2" s="526"/>
+      <c r="N2" s="527"/>
       <c r="O2" s="151" t="s">
         <v>108</v>
       </c>
@@ -11953,7 +11933,7 @@
       <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="480" t="s">
+      <c r="A4" s="514" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="212" t="s">
@@ -11987,17 +11967,17 @@
       <c r="N4" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O4" s="483" t="s">
+      <c r="O4" s="517" t="s">
         <v>167</v>
       </c>
-      <c r="Q4" s="486" t="s">
+      <c r="Q4" s="528" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="487"/>
-      <c r="S4" s="488"/>
+      <c r="R4" s="529"/>
+      <c r="S4" s="530"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="481"/>
+      <c r="A5" s="515"/>
       <c r="B5" s="215" t="s">
         <v>1</v>
       </c>
@@ -12029,7 +12009,7 @@
       <c r="N5" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O5" s="484"/>
+      <c r="O5" s="518"/>
       <c r="Q5" s="224" t="s">
         <v>118</v>
       </c>
@@ -12041,7 +12021,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="482"/>
+      <c r="A6" s="516"/>
       <c r="B6" s="219" t="s">
         <v>2</v>
       </c>
@@ -12073,7 +12053,7 @@
       <c r="N6" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O6" s="485"/>
+      <c r="O6" s="519"/>
       <c r="Q6" s="225" t="s">
         <v>116</v>
       </c>
@@ -12085,7 +12065,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="480" t="s">
+      <c r="A7" s="514" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="212" t="s">
@@ -12119,7 +12099,7 @@
       <c r="N7" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O7" s="483" t="s">
+      <c r="O7" s="517" t="s">
         <v>166</v>
       </c>
       <c r="Q7" s="225" t="s">
@@ -12133,7 +12113,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="481"/>
+      <c r="A8" s="515"/>
       <c r="B8" s="215" t="s">
         <v>1</v>
       </c>
@@ -12165,7 +12145,7 @@
       <c r="N8" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O8" s="484"/>
+      <c r="O8" s="518"/>
       <c r="Q8" s="225" t="s">
         <v>115</v>
       </c>
@@ -12177,7 +12157,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="482"/>
+      <c r="A9" s="516"/>
       <c r="B9" s="219" t="s">
         <v>2</v>
       </c>
@@ -12209,10 +12189,10 @@
       <c r="N9" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O9" s="485"/>
+      <c r="O9" s="519"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="480" t="s">
+      <c r="A10" s="514" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="212" t="s">
@@ -12246,12 +12226,12 @@
       <c r="N10" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O10" s="483" t="s">
+      <c r="O10" s="517" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="481"/>
+      <c r="A11" s="515"/>
       <c r="B11" s="215" t="s">
         <v>1</v>
       </c>
@@ -12283,10 +12263,10 @@
       <c r="N11" s="169">
         <v>0.52300000000000002</v>
       </c>
-      <c r="O11" s="484"/>
+      <c r="O11" s="518"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="482"/>
+      <c r="A12" s="516"/>
       <c r="B12" s="219" t="s">
         <v>2</v>
       </c>
@@ -12318,26 +12298,26 @@
       <c r="N12" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O12" s="485"/>
+      <c r="O12" s="519"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="512" t="s">
+      <c r="A13" s="520" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
-      <c r="K13" s="513"/>
-      <c r="L13" s="513"/>
-      <c r="M13" s="513"/>
-      <c r="N13" s="513"/>
-      <c r="O13" s="513"/>
+      <c r="B13" s="521"/>
+      <c r="C13" s="521"/>
+      <c r="D13" s="521"/>
+      <c r="E13" s="521"/>
+      <c r="F13" s="521"/>
+      <c r="G13" s="521"/>
+      <c r="H13" s="521"/>
+      <c r="I13" s="521"/>
+      <c r="J13" s="521"/>
+      <c r="K13" s="521"/>
+      <c r="L13" s="521"/>
+      <c r="M13" s="521"/>
+      <c r="N13" s="521"/>
+      <c r="O13" s="521"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="129"/>
@@ -12349,25 +12329,25 @@
       <c r="O16" s="129"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="501" t="s">
+      <c r="A17" s="503" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="502" t="s">
+      <c r="B17" s="504" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="502"/>
-      <c r="D17" s="502"/>
-      <c r="E17" s="502"/>
-      <c r="F17" s="502"/>
-      <c r="G17" s="502"/>
-      <c r="H17" s="502"/>
-      <c r="I17" s="502"/>
-      <c r="J17" s="502"/>
-      <c r="K17" s="502"/>
-      <c r="L17" s="502"/>
-      <c r="M17" s="502"/>
-      <c r="N17" s="502"/>
-      <c r="O17" s="502"/>
+      <c r="C17" s="504"/>
+      <c r="D17" s="504"/>
+      <c r="E17" s="504"/>
+      <c r="F17" s="504"/>
+      <c r="G17" s="504"/>
+      <c r="H17" s="504"/>
+      <c r="I17" s="504"/>
+      <c r="J17" s="504"/>
+      <c r="K17" s="504"/>
+      <c r="L17" s="504"/>
+      <c r="M17" s="504"/>
+      <c r="N17" s="504"/>
+      <c r="O17" s="504"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="149" t="s">
@@ -12376,24 +12356,24 @@
       <c r="B18" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="498" t="s">
+      <c r="C18" s="522" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="499"/>
-      <c r="E18" s="499"/>
-      <c r="F18" s="500"/>
-      <c r="G18" s="498" t="s">
+      <c r="D18" s="523"/>
+      <c r="E18" s="523"/>
+      <c r="F18" s="524"/>
+      <c r="G18" s="522" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="499"/>
-      <c r="I18" s="499"/>
-      <c r="J18" s="500"/>
-      <c r="K18" s="495" t="s">
+      <c r="H18" s="523"/>
+      <c r="I18" s="523"/>
+      <c r="J18" s="524"/>
+      <c r="K18" s="525" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="496"/>
-      <c r="M18" s="496"/>
-      <c r="N18" s="497"/>
+      <c r="L18" s="526"/>
+      <c r="M18" s="526"/>
+      <c r="N18" s="527"/>
       <c r="O18" s="149" t="s">
         <v>108</v>
       </c>
@@ -12440,7 +12420,7 @@
       <c r="O19" s="152"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="509" t="s">
+      <c r="A20" s="511" t="s">
         <v>130</v>
       </c>
       <c r="B20" s="146" t="s">
@@ -12482,12 +12462,12 @@
       <c r="N20" s="174">
         <v>0.621</v>
       </c>
-      <c r="O20" s="506" t="s">
+      <c r="O20" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="510"/>
+      <c r="A21" s="512"/>
       <c r="B21" s="131" t="s">
         <v>1</v>
       </c>
@@ -12527,10 +12507,10 @@
       <c r="N21" s="137">
         <v>0.60799999999999998</v>
       </c>
-      <c r="O21" s="507"/>
+      <c r="O21" s="509"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="511"/>
+      <c r="A22" s="513"/>
       <c r="B22" s="138" t="s">
         <v>2</v>
       </c>
@@ -12570,10 +12550,10 @@
       <c r="N22" s="140">
         <v>0.71</v>
       </c>
-      <c r="O22" s="508"/>
+      <c r="O22" s="510"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="509" t="s">
+      <c r="A23" s="511" t="s">
         <v>131</v>
       </c>
       <c r="B23" s="146" t="s">
@@ -12615,12 +12595,12 @@
       <c r="N23" s="175">
         <v>0.62</v>
       </c>
-      <c r="O23" s="506" t="s">
+      <c r="O23" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="510"/>
+      <c r="A24" s="512"/>
       <c r="B24" s="131" t="s">
         <v>1</v>
       </c>
@@ -12660,10 +12640,10 @@
       <c r="N24" s="137">
         <v>0.60899999999999999</v>
       </c>
-      <c r="O24" s="507"/>
+      <c r="O24" s="509"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="511"/>
+      <c r="A25" s="513"/>
       <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
@@ -12703,10 +12683,10 @@
       <c r="N25" s="140">
         <v>0.69099999999999995</v>
       </c>
-      <c r="O25" s="508"/>
+      <c r="O25" s="510"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="489" t="s">
+      <c r="A26" s="531" t="s">
         <v>127</v>
       </c>
       <c r="B26" s="180" t="s">
@@ -12748,12 +12728,12 @@
       <c r="N26" s="184">
         <v>0.624</v>
       </c>
-      <c r="O26" s="492" t="s">
+      <c r="O26" s="534" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="490"/>
+      <c r="A27" s="532"/>
       <c r="B27" s="187" t="s">
         <v>1</v>
       </c>
@@ -12793,10 +12773,10 @@
       <c r="N27" s="189">
         <v>0.61199999999999999</v>
       </c>
-      <c r="O27" s="493"/>
+      <c r="O27" s="535"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="491"/>
+      <c r="A28" s="533"/>
       <c r="B28" s="193" t="s">
         <v>2</v>
       </c>
@@ -12836,10 +12816,10 @@
       <c r="N28" s="197">
         <v>0.70499999999999996</v>
       </c>
-      <c r="O28" s="494"/>
+      <c r="O28" s="536"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="503" t="s">
+      <c r="A29" s="505" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="163" t="s">
@@ -12881,12 +12861,12 @@
       <c r="N29" s="177">
         <v>0.61699999999999999</v>
       </c>
-      <c r="O29" s="506" t="s">
+      <c r="O29" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="504"/>
+      <c r="A30" s="506"/>
       <c r="B30" s="166" t="s">
         <v>1</v>
       </c>
@@ -12926,10 +12906,10 @@
       <c r="N30" s="169">
         <v>0.60199999999999998</v>
       </c>
-      <c r="O30" s="507"/>
+      <c r="O30" s="509"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="505"/>
+      <c r="A31" s="507"/>
       <c r="B31" s="170" t="s">
         <v>2</v>
       </c>
@@ -12969,10 +12949,10 @@
       <c r="N31" s="173">
         <v>0.72199999999999998</v>
       </c>
-      <c r="O31" s="508"/>
+      <c r="O31" s="510"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="503" t="s">
+      <c r="A32" s="505" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="163" t="s">
@@ -13014,12 +12994,12 @@
       <c r="N32" s="178">
         <v>0.61599999999999999</v>
       </c>
-      <c r="O32" s="506" t="s">
+      <c r="O32" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="504"/>
+      <c r="A33" s="506"/>
       <c r="B33" s="166" t="s">
         <v>1</v>
       </c>
@@ -13059,10 +13039,10 @@
       <c r="N33" s="169">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O33" s="507"/>
+      <c r="O33" s="509"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="505"/>
+      <c r="A34" s="507"/>
       <c r="B34" s="170" t="s">
         <v>2</v>
       </c>
@@ -13102,7 +13082,7 @@
       <c r="N34" s="173">
         <v>0.70199999999999996</v>
       </c>
-      <c r="O34" s="508"/>
+      <c r="O34" s="510"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="129"/>
@@ -13175,6 +13155,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:N18"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A17:O17"/>
     <mergeCell ref="A32:A34"/>
@@ -13191,16 +13181,6 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="O10:O12"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="O26:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13225,23 +13205,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="501" t="s">
+      <c r="B1" s="503" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
-      <c r="F1" s="501"/>
-      <c r="G1" s="501"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="501"/>
-      <c r="J1" s="501"/>
-      <c r="K1" s="501"/>
-      <c r="L1" s="501"/>
-      <c r="M1" s="501"/>
-      <c r="N1" s="501"/>
-      <c r="O1" s="501"/>
-      <c r="P1" s="501"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="503"/>
+      <c r="H1" s="503"/>
+      <c r="I1" s="503"/>
+      <c r="J1" s="503"/>
+      <c r="K1" s="503"/>
+      <c r="L1" s="503"/>
+      <c r="M1" s="503"/>
+      <c r="N1" s="503"/>
+      <c r="O1" s="503"/>
+      <c r="P1" s="503"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="149" t="s">
@@ -13250,24 +13230,24 @@
       <c r="C2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="498" t="s">
+      <c r="D2" s="522" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="499"/>
-      <c r="F2" s="499"/>
-      <c r="G2" s="500"/>
-      <c r="H2" s="498" t="s">
+      <c r="E2" s="523"/>
+      <c r="F2" s="523"/>
+      <c r="G2" s="524"/>
+      <c r="H2" s="522" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="499"/>
-      <c r="J2" s="499"/>
-      <c r="K2" s="525"/>
-      <c r="L2" s="495" t="s">
+      <c r="I2" s="523"/>
+      <c r="J2" s="523"/>
+      <c r="K2" s="537"/>
+      <c r="L2" s="525" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="496"/>
-      <c r="N2" s="496"/>
-      <c r="O2" s="497"/>
+      <c r="M2" s="526"/>
+      <c r="N2" s="526"/>
+      <c r="O2" s="527"/>
       <c r="P2" s="151" t="s">
         <v>108</v>
       </c>
@@ -13306,10 +13286,10 @@
       <c r="P3" s="155"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="520" t="s">
+      <c r="A4" s="541" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="480" t="s">
+      <c r="B4" s="514" t="s">
         <v>164</v>
       </c>
       <c r="C4" s="212" t="s">
@@ -13343,18 +13323,18 @@
       <c r="O4" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="P4" s="483" t="s">
+      <c r="P4" s="517" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="486" t="s">
+      <c r="R4" s="528" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="487"/>
-      <c r="T4" s="488"/>
+      <c r="S4" s="529"/>
+      <c r="T4" s="530"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="521"/>
-      <c r="B5" s="481"/>
+      <c r="A5" s="542"/>
+      <c r="B5" s="515"/>
       <c r="C5" s="215" t="s">
         <v>1</v>
       </c>
@@ -13386,7 +13366,7 @@
       <c r="O5" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="P5" s="484"/>
+      <c r="P5" s="518"/>
       <c r="R5" s="224" t="s">
         <v>118</v>
       </c>
@@ -13398,8 +13378,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="521"/>
-      <c r="B6" s="482"/>
+      <c r="A6" s="542"/>
+      <c r="B6" s="516"/>
       <c r="C6" s="219" t="s">
         <v>2</v>
       </c>
@@ -13431,7 +13411,7 @@
       <c r="O6" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="P6" s="485"/>
+      <c r="P6" s="519"/>
       <c r="R6" s="225" t="s">
         <v>116</v>
       </c>
@@ -13443,8 +13423,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="521"/>
-      <c r="B7" s="480" t="s">
+      <c r="A7" s="542"/>
+      <c r="B7" s="514" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="212" t="s">
@@ -13478,7 +13458,7 @@
       <c r="O7" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="P7" s="483" t="s">
+      <c r="P7" s="517" t="s">
         <v>166</v>
       </c>
       <c r="R7" s="225" t="s">
@@ -13492,8 +13472,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="521"/>
-      <c r="B8" s="481"/>
+      <c r="A8" s="542"/>
+      <c r="B8" s="515"/>
       <c r="C8" s="215" t="s">
         <v>1</v>
       </c>
@@ -13525,7 +13505,7 @@
       <c r="O8" s="169">
         <v>0.52200000000000002</v>
       </c>
-      <c r="P8" s="484"/>
+      <c r="P8" s="518"/>
       <c r="R8" s="225" t="s">
         <v>115</v>
       </c>
@@ -13537,8 +13517,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="521"/>
-      <c r="B9" s="482"/>
+      <c r="A9" s="542"/>
+      <c r="B9" s="516"/>
       <c r="C9" s="219" t="s">
         <v>2</v>
       </c>
@@ -13570,11 +13550,11 @@
       <c r="O9" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="P9" s="485"/>
+      <c r="P9" s="519"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="521"/>
-      <c r="B10" s="480" t="s">
+      <c r="A10" s="542"/>
+      <c r="B10" s="514" t="s">
         <v>169</v>
       </c>
       <c r="C10" s="212" t="s">
@@ -13608,13 +13588,13 @@
       <c r="O10" s="177">
         <v>0.54800000000000004</v>
       </c>
-      <c r="P10" s="483" t="s">
+      <c r="P10" s="517" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="521"/>
-      <c r="B11" s="481"/>
+      <c r="A11" s="542"/>
+      <c r="B11" s="515"/>
       <c r="C11" s="215" t="s">
         <v>1</v>
       </c>
@@ -13646,11 +13626,11 @@
       <c r="O11" s="169">
         <v>0.52300000000000002</v>
       </c>
-      <c r="P11" s="484"/>
+      <c r="P11" s="518"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="521"/>
-      <c r="B12" s="482"/>
+      <c r="A12" s="542"/>
+      <c r="B12" s="516"/>
       <c r="C12" s="219" t="s">
         <v>2</v>
       </c>
@@ -13682,26 +13662,26 @@
       <c r="O12" s="173">
         <v>0.71699999999999997</v>
       </c>
-      <c r="P12" s="485"/>
+      <c r="P12" s="519"/>
     </row>
     <row r="13" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="512" t="s">
+      <c r="B13" s="520" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
-      <c r="K13" s="513"/>
-      <c r="L13" s="513"/>
-      <c r="M13" s="513"/>
-      <c r="N13" s="513"/>
-      <c r="O13" s="513"/>
-      <c r="P13" s="513"/>
+      <c r="C13" s="521"/>
+      <c r="D13" s="521"/>
+      <c r="E13" s="521"/>
+      <c r="F13" s="521"/>
+      <c r="G13" s="521"/>
+      <c r="H13" s="521"/>
+      <c r="I13" s="521"/>
+      <c r="J13" s="521"/>
+      <c r="K13" s="521"/>
+      <c r="L13" s="521"/>
+      <c r="M13" s="521"/>
+      <c r="N13" s="521"/>
+      <c r="O13" s="521"/>
+      <c r="P13" s="521"/>
     </row>
     <row r="14" spans="1:20" s="364" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="362"/>
@@ -13744,22 +13724,22 @@
       <c r="C16" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="498" t="s">
+      <c r="D16" s="522" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="499"/>
-      <c r="F16" s="499"/>
-      <c r="G16" s="500"/>
-      <c r="H16" s="498"/>
-      <c r="I16" s="499"/>
-      <c r="J16" s="499"/>
-      <c r="K16" s="525"/>
-      <c r="L16" s="495" t="s">
+      <c r="E16" s="523"/>
+      <c r="F16" s="523"/>
+      <c r="G16" s="524"/>
+      <c r="H16" s="522"/>
+      <c r="I16" s="523"/>
+      <c r="J16" s="523"/>
+      <c r="K16" s="537"/>
+      <c r="L16" s="525" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="496"/>
-      <c r="N16" s="496"/>
-      <c r="O16" s="497"/>
+      <c r="M16" s="526"/>
+      <c r="N16" s="526"/>
+      <c r="O16" s="527"/>
       <c r="P16" s="151" t="s">
         <v>108</v>
       </c>
@@ -13798,8 +13778,8 @@
       <c r="P17" s="155"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="520"/>
-      <c r="B18" s="514" t="s">
+      <c r="A18" s="541"/>
+      <c r="B18" s="543" t="s">
         <v>232</v>
       </c>
       <c r="C18" s="212" t="s">
@@ -13829,13 +13809,13 @@
       <c r="O18" s="177">
         <v>0.60599999999999998</v>
       </c>
-      <c r="P18" s="522" t="s">
+      <c r="P18" s="546" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="521"/>
-      <c r="B19" s="515"/>
+      <c r="A19" s="542"/>
+      <c r="B19" s="544"/>
       <c r="C19" s="215" t="s">
         <v>1</v>
       </c>
@@ -13863,11 +13843,11 @@
       <c r="O19" s="169">
         <v>0.57099999999999995</v>
       </c>
-      <c r="P19" s="523"/>
+      <c r="P19" s="547"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="521"/>
-      <c r="B20" s="516"/>
+      <c r="A20" s="542"/>
+      <c r="B20" s="545"/>
       <c r="C20" s="219" t="s">
         <v>2</v>
       </c>
@@ -13895,10 +13875,10 @@
       <c r="O20" s="173">
         <v>0.70799999999999996</v>
       </c>
-      <c r="P20" s="524"/>
+      <c r="P20" s="548"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="514" t="s">
+      <c r="B21" s="543" t="s">
         <v>244</v>
       </c>
       <c r="C21" s="212" t="s">
@@ -13928,12 +13908,12 @@
       <c r="O21" s="177">
         <v>0.52900000000000003</v>
       </c>
-      <c r="P21" s="517" t="s">
+      <c r="P21" s="538" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="515"/>
+      <c r="B22" s="544"/>
       <c r="C22" s="215" t="s">
         <v>1</v>
       </c>
@@ -13961,10 +13941,10 @@
       <c r="O22" s="169">
         <v>0.46100000000000002</v>
       </c>
-      <c r="P22" s="518"/>
+      <c r="P22" s="539"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="516"/>
+      <c r="B23" s="545"/>
       <c r="C23" s="219" t="s">
         <v>2</v>
       </c>
@@ -13992,10 +13972,10 @@
       <c r="O23" s="173">
         <v>0.69399999999999995</v>
       </c>
-      <c r="P23" s="519"/>
+      <c r="P23" s="540"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="514" t="s">
+      <c r="B24" s="543" t="s">
         <v>244</v>
       </c>
       <c r="C24" s="212" t="s">
@@ -14025,12 +14005,12 @@
       <c r="O24" s="177">
         <v>0.52900000000000003</v>
       </c>
-      <c r="P24" s="517" t="s">
+      <c r="P24" s="538" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="515"/>
+      <c r="B25" s="544"/>
       <c r="C25" s="215" t="s">
         <v>1</v>
       </c>
@@ -14058,10 +14038,10 @@
       <c r="O25" s="169">
         <v>0.46700000000000003</v>
       </c>
-      <c r="P25" s="518"/>
+      <c r="P25" s="539"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="516"/>
+      <c r="B26" s="545"/>
       <c r="C26" s="219" t="s">
         <v>2</v>
       </c>
@@ -14089,10 +14069,10 @@
       <c r="O26" s="408">
         <v>0.68</v>
       </c>
-      <c r="P26" s="519"/>
+      <c r="P26" s="540"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="514" t="s">
+      <c r="B27" s="543" t="s">
         <v>244</v>
       </c>
       <c r="C27" s="212" t="s">
@@ -14122,12 +14102,12 @@
       <c r="O27" s="177">
         <v>0.59599999999999997</v>
       </c>
-      <c r="P27" s="517" t="s">
+      <c r="P27" s="538" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="515"/>
+      <c r="B28" s="544"/>
       <c r="C28" s="215" t="s">
         <v>1</v>
       </c>
@@ -14155,10 +14135,10 @@
       <c r="O28" s="169">
         <v>0.56499999999999995</v>
       </c>
-      <c r="P28" s="518"/>
+      <c r="P28" s="539"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="516"/>
+      <c r="B29" s="545"/>
       <c r="C29" s="219" t="s">
         <v>2</v>
       </c>
@@ -14186,10 +14166,10 @@
       <c r="O29" s="408">
         <v>0.69199999999999995</v>
       </c>
-      <c r="P29" s="519"/>
+      <c r="P29" s="540"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="514" t="s">
+      <c r="B30" s="543" t="s">
         <v>244</v>
       </c>
       <c r="C30" s="212" t="s">
@@ -14219,12 +14199,12 @@
       <c r="O30" s="177">
         <v>0.59499999999999997</v>
       </c>
-      <c r="P30" s="517" t="s">
+      <c r="P30" s="538" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="515"/>
+      <c r="B31" s="544"/>
       <c r="C31" s="215" t="s">
         <v>1</v>
       </c>
@@ -14252,10 +14232,10 @@
       <c r="O31" s="169">
         <v>0.55400000000000005</v>
       </c>
-      <c r="P31" s="518"/>
+      <c r="P31" s="539"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="516"/>
+      <c r="B32" s="545"/>
       <c r="C32" s="219" t="s">
         <v>2</v>
       </c>
@@ -14283,7 +14263,7 @@
       <c r="O32" s="408">
         <v>0.72099999999999997</v>
       </c>
-      <c r="P32" s="519"/>
+      <c r="P32" s="540"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="129"/>
@@ -14342,25 +14322,25 @@
       <c r="P46" s="129"/>
     </row>
     <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="501" t="s">
+      <c r="B47" s="503" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="502" t="s">
+      <c r="C47" s="504" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="502"/>
-      <c r="E47" s="502"/>
-      <c r="F47" s="502"/>
-      <c r="G47" s="502"/>
-      <c r="H47" s="502"/>
-      <c r="I47" s="502"/>
-      <c r="J47" s="502"/>
-      <c r="K47" s="502"/>
-      <c r="L47" s="502"/>
-      <c r="M47" s="502"/>
-      <c r="N47" s="502"/>
-      <c r="O47" s="502"/>
-      <c r="P47" s="502"/>
+      <c r="D47" s="504"/>
+      <c r="E47" s="504"/>
+      <c r="F47" s="504"/>
+      <c r="G47" s="504"/>
+      <c r="H47" s="504"/>
+      <c r="I47" s="504"/>
+      <c r="J47" s="504"/>
+      <c r="K47" s="504"/>
+      <c r="L47" s="504"/>
+      <c r="M47" s="504"/>
+      <c r="N47" s="504"/>
+      <c r="O47" s="504"/>
+      <c r="P47" s="504"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="149" t="s">
@@ -14369,24 +14349,24 @@
       <c r="C48" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="498" t="s">
+      <c r="D48" s="522" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="499"/>
-      <c r="F48" s="499"/>
-      <c r="G48" s="500"/>
-      <c r="H48" s="498" t="s">
+      <c r="E48" s="523"/>
+      <c r="F48" s="523"/>
+      <c r="G48" s="524"/>
+      <c r="H48" s="522" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="499"/>
-      <c r="J48" s="499"/>
-      <c r="K48" s="525"/>
-      <c r="L48" s="495" t="s">
+      <c r="I48" s="523"/>
+      <c r="J48" s="523"/>
+      <c r="K48" s="537"/>
+      <c r="L48" s="525" t="s">
         <v>111</v>
       </c>
-      <c r="M48" s="496"/>
-      <c r="N48" s="496"/>
-      <c r="O48" s="497"/>
+      <c r="M48" s="526"/>
+      <c r="N48" s="526"/>
+      <c r="O48" s="527"/>
       <c r="P48" s="149" t="s">
         <v>108</v>
       </c>
@@ -14433,7 +14413,7 @@
       <c r="P49" s="152"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="509" t="s">
+      <c r="B50" s="511" t="s">
         <v>130</v>
       </c>
       <c r="C50" s="146" t="s">
@@ -14475,12 +14455,12 @@
       <c r="O50" s="174">
         <v>0.621</v>
       </c>
-      <c r="P50" s="506" t="s">
+      <c r="P50" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="510"/>
+      <c r="B51" s="512"/>
       <c r="C51" s="131" t="s">
         <v>1</v>
       </c>
@@ -14520,10 +14500,10 @@
       <c r="O51" s="137">
         <v>0.60799999999999998</v>
       </c>
-      <c r="P51" s="507"/>
+      <c r="P51" s="509"/>
     </row>
     <row r="52" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="511"/>
+      <c r="B52" s="513"/>
       <c r="C52" s="138" t="s">
         <v>2</v>
       </c>
@@ -14563,10 +14543,10 @@
       <c r="O52" s="140">
         <v>0.71</v>
       </c>
-      <c r="P52" s="508"/>
+      <c r="P52" s="510"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="509" t="s">
+      <c r="B53" s="511" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="146" t="s">
@@ -14608,12 +14588,12 @@
       <c r="O53" s="175">
         <v>0.62</v>
       </c>
-      <c r="P53" s="506" t="s">
+      <c r="P53" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="510"/>
+      <c r="B54" s="512"/>
       <c r="C54" s="131" t="s">
         <v>1</v>
       </c>
@@ -14653,10 +14633,10 @@
       <c r="O54" s="137">
         <v>0.60899999999999999</v>
       </c>
-      <c r="P54" s="507"/>
+      <c r="P54" s="509"/>
     </row>
     <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="511"/>
+      <c r="B55" s="513"/>
       <c r="C55" s="138" t="s">
         <v>2</v>
       </c>
@@ -14696,10 +14676,10 @@
       <c r="O55" s="140">
         <v>0.69099999999999995</v>
       </c>
-      <c r="P55" s="508"/>
+      <c r="P55" s="510"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="489" t="s">
+      <c r="B56" s="531" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="180" t="s">
@@ -14741,12 +14721,12 @@
       <c r="O56" s="184">
         <v>0.624</v>
       </c>
-      <c r="P56" s="492" t="s">
+      <c r="P56" s="534" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="490"/>
+      <c r="B57" s="532"/>
       <c r="C57" s="187" t="s">
         <v>1</v>
       </c>
@@ -14786,10 +14766,10 @@
       <c r="O57" s="189">
         <v>0.61199999999999999</v>
       </c>
-      <c r="P57" s="493"/>
+      <c r="P57" s="535"/>
     </row>
     <row r="58" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="491"/>
+      <c r="B58" s="533"/>
       <c r="C58" s="193" t="s">
         <v>2</v>
       </c>
@@ -14829,10 +14809,10 @@
       <c r="O58" s="197">
         <v>0.70499999999999996</v>
       </c>
-      <c r="P58" s="494"/>
+      <c r="P58" s="536"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="503" t="s">
+      <c r="B59" s="505" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="163" t="s">
@@ -14874,12 +14854,12 @@
       <c r="O59" s="177">
         <v>0.61699999999999999</v>
       </c>
-      <c r="P59" s="506" t="s">
+      <c r="P59" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="504"/>
+      <c r="B60" s="506"/>
       <c r="C60" s="166" t="s">
         <v>1</v>
       </c>
@@ -14919,10 +14899,10 @@
       <c r="O60" s="169">
         <v>0.60199999999999998</v>
       </c>
-      <c r="P60" s="507"/>
+      <c r="P60" s="509"/>
     </row>
     <row r="61" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="505"/>
+      <c r="B61" s="507"/>
       <c r="C61" s="170" t="s">
         <v>2</v>
       </c>
@@ -14962,10 +14942,10 @@
       <c r="O61" s="173">
         <v>0.72199999999999998</v>
       </c>
-      <c r="P61" s="508"/>
+      <c r="P61" s="510"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="503" t="s">
+      <c r="B62" s="505" t="s">
         <v>129</v>
       </c>
       <c r="C62" s="163" t="s">
@@ -15007,12 +14987,12 @@
       <c r="O62" s="178">
         <v>0.61599999999999999</v>
       </c>
-      <c r="P62" s="506" t="s">
+      <c r="P62" s="508" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="504"/>
+      <c r="B63" s="506"/>
       <c r="C63" s="166" t="s">
         <v>1</v>
       </c>
@@ -15052,10 +15032,10 @@
       <c r="O63" s="169">
         <v>0.60299999999999998</v>
       </c>
-      <c r="P63" s="507"/>
+      <c r="P63" s="509"/>
     </row>
     <row r="64" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="505"/>
+      <c r="B64" s="507"/>
       <c r="C64" s="170" t="s">
         <v>2</v>
       </c>
@@ -15095,7 +15075,7 @@
       <c r="O64" s="173">
         <v>0.70199999999999996</v>
       </c>
-      <c r="P64" s="508"/>
+      <c r="P64" s="510"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C65" s="129"/>
@@ -15167,32 +15147,15 @@
       </c>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="Q80" s="540">
+      <c r="Q80" s="426">
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="P30:P32"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B21:B23"/>
@@ -15209,11 +15172,28 @@
     <mergeCell ref="B47:P47"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P21:P23"/>
     <mergeCell ref="P24:P26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="P4:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -15231,25 +15211,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="537" t="s">
+      <c r="A1" s="549" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="536"/>
-      <c r="C1" s="536"/>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="538" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="550"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="425"/>
+      <c r="H1" s="424" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="549" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
-      <c r="L1" s="536"/>
-      <c r="M1" s="536"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="129" t="s">
@@ -15309,8 +15289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15324,7 +15304,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="561" t="s">
         <v>268</v>
       </c>
       <c r="B2" s="153"/>
@@ -15350,11 +15330,11 @@
       <c r="L2" t="s">
         <v>270</v>
       </c>
-      <c r="O2" s="558"/>
-      <c r="P2" s="558"/>
+      <c r="O2" s="443"/>
+      <c r="P2" s="443"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="514" t="s">
+      <c r="A3" s="543" t="s">
         <v>244</v>
       </c>
       <c r="B3" s="212" t="s">
@@ -15378,12 +15358,12 @@
       <c r="H3" s="177">
         <v>0.59599999999999997</v>
       </c>
-      <c r="I3" s="517" t="s">
+      <c r="I3" s="538" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="515"/>
+      <c r="A4" s="544"/>
       <c r="B4" s="215" t="s">
         <v>1</v>
       </c>
@@ -15405,7 +15385,7 @@
       <c r="H4" s="169">
         <v>0.56499999999999995</v>
       </c>
-      <c r="I4" s="518"/>
+      <c r="I4" s="539"/>
       <c r="L4" s="379" t="s">
         <v>271</v>
       </c>
@@ -15420,7 +15400,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="516"/>
+      <c r="A5" s="545"/>
       <c r="B5" s="219" t="s">
         <v>2</v>
       </c>
@@ -15442,32 +15422,32 @@
       <c r="H5" s="408">
         <v>0.69199999999999995</v>
       </c>
-      <c r="I5" s="519"/>
-      <c r="L5" s="557">
+      <c r="I5" s="540"/>
+      <c r="L5" s="442">
         <v>10</v>
       </c>
-      <c r="M5" s="557">
+      <c r="M5" s="442">
         <v>5</v>
       </c>
-      <c r="N5" s="557">
+      <c r="N5" s="442">
         <v>2</v>
       </c>
-      <c r="O5" s="557">
+      <c r="O5" s="442">
         <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="414"/>
-      <c r="C9" s="526" t="s">
+      <c r="C9" s="551" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="526"/>
-      <c r="E9" s="526"/>
-      <c r="F9" s="526" t="s">
+      <c r="D9" s="551"/>
+      <c r="E9" s="551"/>
+      <c r="F9" s="551" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="526"/>
-      <c r="H9" s="526"/>
+      <c r="G9" s="551"/>
+      <c r="H9" s="551"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="409" t="s">
@@ -15743,28 +15723,28 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="542"/>
-      <c r="B27" s="542"/>
-      <c r="C27" s="542"/>
-      <c r="D27" s="542"/>
-      <c r="E27" s="542"/>
-      <c r="F27" s="542"/>
-      <c r="G27" s="542"/>
-      <c r="H27" s="542"/>
-      <c r="I27" s="542"/>
-      <c r="J27" s="542"/>
-      <c r="K27" s="542"/>
-      <c r="L27" s="542"/>
-      <c r="M27" s="542"/>
-      <c r="N27" s="542"/>
-      <c r="O27" s="542"/>
-      <c r="P27" s="542"/>
-      <c r="Q27" s="542"/>
-      <c r="R27" s="542"/>
-      <c r="S27" s="542"/>
+      <c r="A27" s="427"/>
+      <c r="B27" s="427"/>
+      <c r="C27" s="427"/>
+      <c r="D27" s="427"/>
+      <c r="E27" s="427"/>
+      <c r="F27" s="427"/>
+      <c r="G27" s="427"/>
+      <c r="H27" s="427"/>
+      <c r="I27" s="427"/>
+      <c r="J27" s="427"/>
+      <c r="K27" s="427"/>
+      <c r="L27" s="427"/>
+      <c r="M27" s="427"/>
+      <c r="N27" s="427"/>
+      <c r="O27" s="427"/>
+      <c r="P27" s="427"/>
+      <c r="Q27" s="427"/>
+      <c r="R27" s="427"/>
+      <c r="S27" s="427"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="541" t="s">
+      <c r="A29" s="561" t="s">
         <v>269</v>
       </c>
       <c r="B29" s="153"/>
@@ -15789,7 +15769,7 @@
       <c r="I29" s="155"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="514" t="s">
+      <c r="A30" s="543" t="s">
         <v>285</v>
       </c>
       <c r="B30" s="212" t="s">
@@ -15801,12 +15781,12 @@
       <c r="F30" s="213"/>
       <c r="G30" s="214"/>
       <c r="H30" s="177"/>
-      <c r="I30" s="517" t="s">
+      <c r="I30" s="538" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="515"/>
+      <c r="A31" s="544"/>
       <c r="B31" s="215" t="s">
         <v>1</v>
       </c>
@@ -15816,10 +15796,10 @@
       <c r="F31" s="216"/>
       <c r="G31" s="218"/>
       <c r="H31" s="169"/>
-      <c r="I31" s="518"/>
+      <c r="I31" s="539"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="516"/>
+      <c r="A32" s="545"/>
       <c r="B32" s="219" t="s">
         <v>2</v>
       </c>
@@ -15829,21 +15809,21 @@
       <c r="F32" s="220"/>
       <c r="G32" s="222"/>
       <c r="H32" s="408"/>
-      <c r="I32" s="519"/>
-      <c r="P32" s="540"/>
+      <c r="I32" s="540"/>
+      <c r="P32" s="426"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="414"/>
-      <c r="C36" s="526" t="s">
+      <c r="C36" s="551" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="526"/>
-      <c r="E36" s="526"/>
-      <c r="F36" s="526" t="s">
+      <c r="D36" s="551"/>
+      <c r="E36" s="551"/>
+      <c r="F36" s="551" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="526"/>
-      <c r="H36" s="526"/>
+      <c r="G36" s="551"/>
+      <c r="H36" s="551"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="409" t="s">
@@ -15872,22 +15852,22 @@
       <c r="B38" s="415" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="543">
+      <c r="C38" s="428">
         <v>26.68</v>
       </c>
-      <c r="D38" s="544">
+      <c r="D38" s="429">
         <v>0.53200000000000003</v>
       </c>
-      <c r="E38" s="561">
+      <c r="E38" s="446">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F38" s="545">
+      <c r="F38" s="430">
         <v>26.38</v>
       </c>
-      <c r="G38" s="546">
+      <c r="G38" s="431">
         <v>0.60299999999999998</v>
       </c>
-      <c r="H38" s="561">
+      <c r="H38" s="446">
         <v>0.63400000000000001</v>
       </c>
     </row>
@@ -15895,22 +15875,22 @@
       <c r="B39" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="547">
+      <c r="C39" s="432">
         <v>32.770000000000003</v>
       </c>
-      <c r="D39" s="548">
+      <c r="D39" s="433">
         <v>0.36099999999999999</v>
       </c>
-      <c r="E39" s="549">
+      <c r="E39" s="434">
         <v>0.622</v>
       </c>
-      <c r="F39" s="550">
+      <c r="F39" s="435">
         <v>31.87</v>
       </c>
-      <c r="G39" s="551">
+      <c r="G39" s="436">
         <v>0.45700000000000002</v>
       </c>
-      <c r="H39" s="549">
+      <c r="H39" s="434">
         <v>0.621</v>
       </c>
     </row>
@@ -15918,22 +15898,22 @@
       <c r="B40" s="419" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="552">
+      <c r="C40" s="437">
         <v>8.27</v>
       </c>
-      <c r="D40" s="553">
+      <c r="D40" s="438">
         <v>2.4E-2</v>
       </c>
-      <c r="E40" s="556">
+      <c r="E40" s="441">
         <v>0.71</v>
       </c>
-      <c r="F40" s="554">
+      <c r="F40" s="439">
         <v>9.41</v>
       </c>
-      <c r="G40" s="555">
+      <c r="G40" s="440">
         <v>-0.69199999999999995</v>
       </c>
-      <c r="H40" s="556">
+      <c r="H40" s="441">
         <v>0.67600000000000005</v>
       </c>
     </row>
@@ -16003,28 +15983,28 @@
       <c r="H45">
         <v>0.64400000000000002</v>
       </c>
-      <c r="J45" s="559">
+      <c r="J45" s="444">
         <v>32</v>
       </c>
-      <c r="K45" s="559">
+      <c r="K45" s="444">
         <v>500</v>
       </c>
-      <c r="L45" s="559" t="s">
+      <c r="L45" s="444" t="s">
         <v>281</v>
       </c>
-      <c r="M45" s="559" t="s">
+      <c r="M45" s="444" t="s">
         <v>282</v>
       </c>
-      <c r="N45" s="559">
+      <c r="N45" s="444">
         <v>0.01</v>
       </c>
-      <c r="O45" s="560">
+      <c r="O45" s="445">
         <v>4000</v>
       </c>
-      <c r="P45" s="559">
+      <c r="P45" s="444">
         <v>0.2</v>
       </c>
-      <c r="Q45" s="559">
+      <c r="Q45" s="444">
         <v>20</v>
       </c>
     </row>
@@ -16318,7 +16298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -16482,12 +16462,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="129"/>
-      <c r="B1" s="527" t="s">
+      <c r="B1" s="552" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="527"/>
-      <c r="D1" s="527"/>
-      <c r="E1" s="527"/>
+      <c r="C1" s="552"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="129"/>
@@ -16514,7 +16494,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="557" t="s">
         <v>238</v>
       </c>
       <c r="B4" s="376" t="s">
@@ -16531,7 +16511,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="533"/>
+      <c r="A5" s="558"/>
       <c r="B5" s="373" t="s">
         <v>2</v>
       </c>
@@ -16546,7 +16526,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="528" t="s">
+      <c r="A6" s="553" t="s">
         <v>225</v>
       </c>
       <c r="B6" s="376" t="s">
@@ -16563,7 +16543,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="529"/>
+      <c r="A7" s="554"/>
       <c r="B7" s="373" t="s">
         <v>2</v>
       </c>
@@ -16579,7 +16559,7 @@
       <c r="I7" s="380"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="530" t="s">
+      <c r="A8" s="555" t="s">
         <v>227</v>
       </c>
       <c r="B8" s="371" t="s">
@@ -16597,7 +16577,7 @@
       <c r="I8" s="381"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="531"/>
+      <c r="A9" s="556"/>
       <c r="B9" s="373" t="s">
         <v>2</v>
       </c>
@@ -16610,12 +16590,12 @@
       <c r="E9" s="375">
         <v>0.129</v>
       </c>
-      <c r="I9" s="534"/>
+      <c r="I9" s="559"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="366"/>
       <c r="E10" s="366"/>
-      <c r="I10" s="535"/>
+      <c r="I10" s="560"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="379" t="s">
